--- a/on_trucks/Processed_Stand_Alone/22_245-70R19.xlsx
+++ b/on_trucks/Processed_Stand_Alone/22_245-70R19.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>103</v>
       </c>
       <c r="E2">
-        <v>0.01311570200375092</v>
+        <v>0.01269704761990285</v>
       </c>
       <c r="F2">
         <v>0.5028411503674657</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>22</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>110</v>
       </c>
       <c r="E3">
-        <v>0.01385051503494992</v>
+        <v>0.01256054747815522</v>
       </c>
       <c r="F3">
         <v>0.5169852548126231</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H3">
         <v>22</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>98</v>
       </c>
       <c r="E4">
-        <v>0.0124014782375521</v>
+        <v>0.01237489128571141</v>
       </c>
       <c r="F4">
         <v>0.5109397592311343</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>22</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>110</v>
       </c>
       <c r="E5">
-        <v>0.01109897386500555</v>
+        <v>0.01096804624834805</v>
       </c>
       <c r="F5">
         <v>0.5247585139708422</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5">
         <v>22</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>99</v>
       </c>
       <c r="E6">
-        <v>0.01240547872509904</v>
+        <v>0.01231409369821012</v>
       </c>
       <c r="F6">
         <v>0.5222336042686645</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>22</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>134</v>
       </c>
       <c r="E2">
-        <v>0.01311570200375092</v>
+        <v>0.01269704761990285</v>
       </c>
       <c r="F2">
         <v>0.7075412415284943</v>
       </c>
       <c r="G2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H2">
         <v>22</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>139</v>
       </c>
       <c r="E3">
-        <v>0.01385051503494992</v>
+        <v>0.01256054747815522</v>
       </c>
       <c r="F3">
         <v>0.7029648587784925</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H3">
         <v>22</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>127</v>
       </c>
       <c r="E4">
-        <v>0.0124014782375521</v>
+        <v>0.01237489128571141</v>
       </c>
       <c r="F4">
         <v>0.7004932086267869</v>
       </c>
       <c r="G4">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H4">
         <v>22</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>140</v>
       </c>
       <c r="E5">
-        <v>0.01109897386500555</v>
+        <v>0.01096804624834805</v>
       </c>
       <c r="F5">
         <v>0.7032944983730093</v>
       </c>
       <c r="G5">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H5">
         <v>22</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>131</v>
       </c>
       <c r="E6">
-        <v>0.01240547872509904</v>
+        <v>0.01231409369821012</v>
       </c>
       <c r="F6">
         <v>0.7024455511917536</v>
       </c>
       <c r="G6">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H6">
         <v>22</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>146</v>
       </c>
       <c r="E2">
-        <v>0.01311570200375092</v>
+        <v>0.01269704761990285</v>
       </c>
       <c r="F2">
         <v>0.8060300728012473</v>
       </c>
       <c r="G2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H2">
         <v>22</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>148</v>
       </c>
       <c r="E3">
-        <v>0.01385051503494992</v>
+        <v>0.01256054747815522</v>
       </c>
       <c r="F3">
         <v>0.8102018965336103</v>
       </c>
       <c r="G3">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H3">
         <v>22</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>146</v>
       </c>
       <c r="E4">
-        <v>0.0124014782375521</v>
+        <v>0.01237489128571141</v>
       </c>
       <c r="F4">
         <v>0.8065690616484225</v>
       </c>
       <c r="G4">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H4">
         <v>22</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>153</v>
       </c>
       <c r="E5">
-        <v>0.01109897386500555</v>
+        <v>0.01096804624834805</v>
       </c>
       <c r="F5">
         <v>0.8076845061556795</v>
       </c>
       <c r="G5">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H5">
         <v>22</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>147</v>
       </c>
       <c r="E6">
-        <v>0.01240547872509904</v>
+        <v>0.01231409369821012</v>
       </c>
       <c r="F6">
         <v>0.8063223960511017</v>
       </c>
       <c r="G6">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H6">
         <v>22</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>167</v>
       </c>
       <c r="E2">
-        <v>0.01311570200375092</v>
+        <v>0.01269704761990285</v>
       </c>
       <c r="F2">
         <v>0.9163682838298793</v>
       </c>
       <c r="G2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H2">
         <v>22</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>166</v>
       </c>
       <c r="E3">
-        <v>0.01385051503494992</v>
+        <v>0.01256054747815522</v>
       </c>
       <c r="F3">
         <v>0.9012118229324354</v>
       </c>
       <c r="G3">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H3">
         <v>22</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>165</v>
       </c>
       <c r="E4">
-        <v>0.0124014782375521</v>
+        <v>0.01237489128571141</v>
       </c>
       <c r="F4">
         <v>0.9113704980646279</v>
       </c>
       <c r="G4">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H4">
         <v>22</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>166</v>
       </c>
       <c r="E5">
-        <v>0.01109897386500555</v>
+        <v>0.01096804624834805</v>
       </c>
       <c r="F5">
         <v>0.919011915452031</v>
       </c>
       <c r="G5">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H5">
         <v>22</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>165</v>
       </c>
       <c r="E6">
-        <v>0.01240547872509904</v>
+        <v>0.01231409369821012</v>
       </c>
       <c r="F6">
         <v>0.9070080820903887</v>
       </c>
       <c r="G6">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H6">
         <v>22</v>

--- a/on_trucks/Processed_Stand_Alone/22_245-70R19.xlsx
+++ b/on_trucks/Processed_Stand_Alone/22_245-70R19.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0001734890174506604</v>
+        <v>0.000165608987562324</v>
       </c>
       <c r="C2">
-        <v>0.0003770632544592327</v>
+        <v>0.0003695030204129226</v>
       </c>
       <c r="D2">
-        <v>0.0003905921942604313</v>
+        <v>0.0003830532128969706</v>
       </c>
       <c r="E2">
-        <v>0.0002474266463641817</v>
+        <v>0.0002396627654868562</v>
       </c>
       <c r="F2">
-        <v>0.0002095026069214576</v>
+        <v>0.0002016791509706609</v>
       </c>
       <c r="G2">
-        <v>0.0001320697880592965</v>
+        <v>0.0001241246924851743</v>
       </c>
       <c r="H2">
-        <v>0.0001438656578859618</v>
+        <v>0.0001359390925059304</v>
       </c>
       <c r="I2">
-        <v>8.264325878559616E-05</v>
+        <v>7.462051881609372E-05</v>
       </c>
       <c r="J2">
-        <v>4.306403236719428E-06</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1.961707971173623E-07</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>8.139777880389789E-06</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>2.550577062520469E-05</v>
+        <v>1.739327307435982E-05</v>
       </c>
       <c r="N2">
-        <v>6.451890905192496E-05</v>
+        <v>5.646769744588624E-05</v>
       </c>
       <c r="O2">
-        <v>9.584805859155783E-05</v>
+        <v>8.78460621116776E-05</v>
       </c>
       <c r="P2">
-        <v>0.0001444536278773218</v>
+        <v>0.0001365279861424492</v>
       </c>
       <c r="Q2">
-        <v>0.0001967803271084056</v>
+        <v>0.000188936885661187</v>
       </c>
       <c r="R2">
-        <v>0.0001696079975076902</v>
+        <v>0.0001617218709046672</v>
       </c>
       <c r="S2">
-        <v>0.0001994311970694523</v>
+        <v>0.0001915919198878292</v>
       </c>
       <c r="T2">
-        <v>0.0002627459761390714</v>
+        <v>0.0002550061604776426</v>
       </c>
       <c r="U2">
-        <v>0.0002750993559575442</v>
+        <v>0.0002673789462855912</v>
       </c>
       <c r="V2">
-        <v>0.0002576824562134774</v>
+        <v>0.0002499346862419061</v>
       </c>
       <c r="W2">
-        <v>0.0002065868769643029</v>
+        <v>0.0001987588406779467</v>
       </c>
       <c r="X2">
-        <v>0.0001240989081764249</v>
+        <v>0.0001161412911050774</v>
       </c>
       <c r="Y2">
-        <v>3.170858253405728E-05</v>
+        <v>2.360582901313718E-05</v>
       </c>
       <c r="Z2">
-        <v>1.157600782989601E-05</v>
+        <v>3.441627941247441E-06</v>
       </c>
       <c r="AA2">
-        <v>2.582381562053116E-05</v>
+        <v>1.771181768824598E-05</v>
       </c>
       <c r="AB2">
-        <v>1.284087981130931E-08</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>1.542284377336856E-05</v>
+        <v>7.294506899581587E-06</v>
       </c>
       <c r="AD2">
-        <v>3.285712151718004E-05</v>
+        <v>2.475617224220287E-05</v>
       </c>
       <c r="AE2">
-        <v>9.783735856232599E-05</v>
+        <v>8.983848708425612E-05</v>
       </c>
       <c r="AF2">
-        <v>0.0001263610481431838</v>
+        <v>0.0001184069846794346</v>
       </c>
       <c r="AG2">
-        <v>0.0001488018278134271</v>
+        <v>0.0001408830166887549</v>
       </c>
       <c r="AH2">
-        <v>0.0001987402370796056</v>
+        <v>0.0001908998744652922</v>
       </c>
       <c r="AI2">
-        <v>0.0002266505566694766</v>
+        <v>0.0002188540385233317</v>
       </c>
       <c r="AJ2">
-        <v>0.0002489101563423822</v>
+        <v>0.0002411486059187015</v>
       </c>
       <c r="AK2">
-        <v>0.0001856863372714265</v>
+        <v>0.0001778254682170929</v>
       </c>
       <c r="AL2">
-        <v>0.0001891240072209116</v>
+        <v>0.0001812685384204227</v>
       </c>
       <c r="AM2">
-        <v>0.0001645122775825694</v>
+        <v>0.0001566181460862548</v>
       </c>
       <c r="AN2">
-        <v>0.0001755624474201924</v>
+        <v>0.0001676856746939249</v>
       </c>
       <c r="AO2">
-        <v>0.0001054309184507422</v>
+        <v>9.74439757359293E-05</v>
       </c>
       <c r="AP2">
-        <v>4.005018441148136E-05</v>
+        <v>3.196053475692194E-05</v>
       </c>
       <c r="AQ2">
-        <v>1.386190679630579E-05</v>
+        <v>5.731117838393319E-06</v>
       </c>
       <c r="AR2">
-        <v>1.941559271469699E-06</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>3.170858253405728E-05</v>
+        <v>2.360582901313718E-05</v>
       </c>
       <c r="AT2">
-        <v>3.878108243013022E-05</v>
+        <v>3.068943913657843E-05</v>
       </c>
       <c r="AU2">
-        <v>6.301496507402471E-05</v>
+        <v>5.496139091446331E-05</v>
       </c>
       <c r="AV2">
-        <v>0.0001059343324433448</v>
+        <v>9.794818054422652E-05</v>
       </c>
       <c r="AW2">
-        <v>0.0001121617683518355</v>
+        <v>0.0001041853991646129</v>
       </c>
       <c r="AX2">
-        <v>0.0001185670282577132</v>
+        <v>0.000110600721127041</v>
       </c>
       <c r="AY2">
-        <v>0.0001474875778327394</v>
+        <v>0.0001395667021458447</v>
       </c>
       <c r="AZ2">
-        <v>0.0001741346374411733</v>
+        <v>0.0001662556217606833</v>
       </c>
       <c r="BA2">
-        <v>0.0001919664571791431</v>
+        <v>0.0001841154535982771</v>
       </c>
       <c r="BB2">
-        <v>0.0002003187470564101</v>
+        <v>0.0001924808641317401</v>
       </c>
       <c r="BC2">
-        <v>0.0001910976271919102</v>
+        <v>0.0001832452587614373</v>
       </c>
       <c r="BD2">
-        <v>0.0002297612666237662</v>
+        <v>0.0002219696351082861</v>
       </c>
       <c r="BE2">
-        <v>0.0001994311970694523</v>
+        <v>0.0001915919198878292</v>
       </c>
       <c r="BF2">
-        <v>7.499845289793299E-05</v>
+        <v>6.696370366256322E-05</v>
       </c>
       <c r="BG2">
-        <v>3.118052654181682E-05</v>
+        <v>2.307694349495494E-05</v>
       </c>
       <c r="BH2">
-        <v>1.662385675572024E-05</v>
+        <v>8.497406559558192E-06</v>
       </c>
       <c r="BI2">
-        <v>4.951654227237769E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>6.01164991166163E-06</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>2.190755467807878E-05</v>
+        <v>1.378940467083515E-05</v>
       </c>
       <c r="BL2">
-        <v>5.751884515478761E-05</v>
+        <v>4.945663711147315E-05</v>
       </c>
       <c r="BM2">
-        <v>5.871532913720583E-05</v>
+        <v>5.065500065688643E-05</v>
       </c>
       <c r="BN2">
-        <v>6.016736611586883E-05</v>
+        <v>5.210931864809339E-05</v>
       </c>
       <c r="BO2">
-        <v>0.0001427383779025266</v>
+        <v>0.0001348100416724269</v>
       </c>
       <c r="BP2">
-        <v>0.0001939022971506969</v>
+        <v>0.0001860543345910467</v>
       </c>
       <c r="BQ2">
-        <v>0.0002784624459081252</v>
+        <v>0.0002707473193319036</v>
       </c>
       <c r="BR2">
-        <v>0.0003937002242147602</v>
+        <v>0.0003861661252719383</v>
       </c>
       <c r="BS2">
-        <v>0.0003918339742421839</v>
+        <v>0.0003842969435974424</v>
       </c>
       <c r="BT2">
-        <v>0.0003270326951944083</v>
+        <v>0.0003193938678788209</v>
       </c>
       <c r="BU2">
-        <v>0.0002191524667796575</v>
+        <v>0.0002113441698445798</v>
       </c>
       <c r="BV2">
-        <v>0.0001952158471313949</v>
+        <v>0.0001873699480343335</v>
       </c>
       <c r="BW2">
-        <v>0.0001235539781844324</v>
+        <v>0.000115595505079688</v>
       </c>
       <c r="BX2">
-        <v>7.295739392792538E-05</v>
+        <v>6.491943838226053E-05</v>
       </c>
       <c r="BY2">
-        <v>2.65369156100525E-05</v>
+        <v>1.842603789029985E-05</v>
       </c>
       <c r="BZ2">
-        <v>3.047096155224354E-06</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>2.307233966096281E-06</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>6.36772660642925E-06</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>2.42533036436091E-05</v>
+        <v>1.613883858578067E-05</v>
       </c>
       <c r="CD2">
-        <v>8.452584875793238E-05</v>
+        <v>7.650606615894127E-05</v>
       </c>
       <c r="CE2">
-        <v>0.0001850709172804699</v>
+        <v>0.0001772090814596283</v>
       </c>
       <c r="CF2">
-        <v>0.0002627459761390714</v>
+        <v>0.0002550061604776426</v>
       </c>
       <c r="CG2">
-        <v>0.0003635093946584003</v>
+        <v>0.0003559278687822821</v>
       </c>
       <c r="CH2">
-        <v>0.0004028209640807352</v>
+        <v>0.0003953011929562473</v>
       </c>
       <c r="CI2">
-        <v>0.0004375597235702655</v>
+        <v>0.0004300945237461796</v>
       </c>
       <c r="CJ2">
-        <v>0.000329056725164666</v>
+        <v>0.0003214210774084283</v>
       </c>
       <c r="CK2">
-        <v>0.0002617293161540107</v>
+        <v>0.0002539879034160523</v>
       </c>
       <c r="CL2">
-        <v>0.0002335834665676007</v>
+        <v>0.0002257978393661606</v>
       </c>
       <c r="CM2">
-        <v>0.0001850709172804699</v>
+        <v>0.0001772090814596283</v>
       </c>
       <c r="CN2">
-        <v>0.0228809696637749</v>
+        <v>0.02290876093493279</v>
       </c>
       <c r="CO2">
-        <v>0.09382891862122814</v>
+        <v>0.09396816239939422</v>
       </c>
       <c r="CP2">
-        <v>0.130879178076792</v>
+        <v>0.1310766243028414</v>
       </c>
       <c r="CQ2">
-        <v>0.1391129279558009</v>
+        <v>0.1393233086229382</v>
       </c>
       <c r="CR2">
-        <v>0.0002266505566694766</v>
+        <v>0.0002188540385233317</v>
       </c>
       <c r="CS2">
-        <v>0.00432301543647532</v>
+        <v>0.004321653919512204</v>
       </c>
       <c r="CT2">
-        <v>0.0007593824888412312</v>
+        <v>0.0007524228420955476</v>
       </c>
       <c r="CU2">
-        <v>0.05876027713654534</v>
+        <v>0.05884443140094432</v>
       </c>
       <c r="CV2">
-        <v>0.01745482674350952</v>
+        <v>0.01747409405815091</v>
       </c>
       <c r="CW2">
-        <v>0.01053529284518882</v>
+        <v>0.0105436902275541</v>
       </c>
       <c r="CX2">
-        <v>0.004092941939856141</v>
+        <v>0.00409121899922439</v>
       </c>
       <c r="CY2">
-        <v>0.0009571732859347884</v>
+        <v>0.000950524349794882</v>
       </c>
       <c r="CZ2">
-        <v>0.005913893613098112</v>
+        <v>0.005915031215048717</v>
       </c>
       <c r="DA2">
-        <v>0.008355951877213214</v>
+        <v>0.008360925721363844</v>
       </c>
       <c r="DB2">
-        <v>0.008886338869419426</v>
+        <v>0.008892145901291964</v>
       </c>
       <c r="DC2">
-        <v>0.00697120219756146</v>
+        <v>0.006974000731140834</v>
       </c>
       <c r="DD2">
-        <v>0.0002328356465785896</v>
+        <v>0.0002250488446227867</v>
       </c>
       <c r="DE2">
-        <v>0.002956182956560281</v>
+        <v>0.002952674275249425</v>
       </c>
       <c r="DF2">
-        <v>0.0009513552460202818</v>
+        <v>0.0009446971702908049</v>
       </c>
       <c r="DG2">
-        <v>0.01402003479398218</v>
+        <v>0.01403390637584408</v>
       </c>
       <c r="DH2">
-        <v>0.01079931984130907</v>
+        <v>0.01080813198507433</v>
       </c>
       <c r="DI2">
-        <v>0.0003557708347721148</v>
+        <v>0.0003481771523514786</v>
       </c>
       <c r="DJ2">
-        <v>0.001902681972040982</v>
+        <v>0.00189751834048018</v>
       </c>
       <c r="DK2">
-        <v>2.894351657468863E-05</v>
+        <v>2.083641939707734E-05</v>
       </c>
       <c r="DL2">
-        <v>0.02190400667813092</v>
+        <v>0.02193026323298474</v>
       </c>
       <c r="DM2">
-        <v>0.001966966971096345</v>
+        <v>0.001961904325179427</v>
       </c>
       <c r="DN2">
-        <v>0.001330683680446229</v>
+        <v>0.001324621493753962</v>
       </c>
       <c r="DO2">
-        <v>0.0004726697930543395</v>
+        <v>0.0004652597478234834</v>
       </c>
       <c r="DP2">
-        <v>0.0004209375938145199</v>
+        <v>0.0004134462821991798</v>
       </c>
       <c r="DQ2">
-        <v>9.733426856971866E-06</v>
+        <v>1.596152448160059E-06</v>
       </c>
       <c r="DR2">
-        <v>0.00230923616606686</v>
+        <v>0.00230471119263254</v>
       </c>
       <c r="DS2">
-        <v>0.001778216473869945</v>
+        <v>0.001772857318801965</v>
       </c>
       <c r="DT2">
-        <v>6.57857440333094E-05</v>
+        <v>5.773652250502087E-05</v>
       </c>
       <c r="DU2">
-        <v>0.0008871807869632952</v>
+        <v>0.0008804218992378</v>
       </c>
       <c r="DV2">
-        <v>0.003266989951993118</v>
+        <v>0.003263969519029758</v>
       </c>
       <c r="DW2">
-        <v>0.03138054953887758</v>
+        <v>0.03142169284486546</v>
       </c>
       <c r="DX2">
-        <v>0.03267251251989278</v>
+        <v>0.03271568537733792</v>
       </c>
       <c r="DY2">
-        <v>0.001360621780006302</v>
+        <v>0.001354606623232448</v>
       </c>
       <c r="DZ2">
-        <v>0.0005314150921911049</v>
+        <v>0.0005240973302603293</v>
       </c>
       <c r="EA2">
-        <v>0.000112827628342051</v>
+        <v>0.000104852305157797</v>
       </c>
       <c r="EB2">
-        <v>0.02504487263197737</v>
+        <v>0.02507606318971467</v>
       </c>
       <c r="EC2">
-        <v>0.0127954618119767</v>
+        <v>0.01280740970568603</v>
       </c>
       <c r="ED2">
-        <v>0.001169829282809908</v>
+        <v>0.001163514409096476</v>
       </c>
       <c r="EE2">
-        <v>0.009758975856596437</v>
+        <v>0.0097661537185121</v>
       </c>
       <c r="EF2">
-        <v>0.004018975940943037</v>
+        <v>0.004017136806733694</v>
       </c>
       <c r="EG2">
-        <v>0.003117035954196622</v>
+        <v>0.003113779957707664</v>
       </c>
       <c r="EH2">
-        <v>0.001022342084977163</v>
+        <v>0.0010157955228472</v>
       </c>
       <c r="EI2">
-        <v>0.0002228857467247987</v>
+        <v>0.0002150833144188662</v>
       </c>
       <c r="EJ2">
-        <v>0.00329835525153222</v>
+        <v>0.003295384090483243</v>
       </c>
       <c r="EK2">
-        <v>0.02097307469181052</v>
+        <v>0.02099786884069978</v>
       </c>
       <c r="EL2">
-        <v>0.007387239891447982</v>
+        <v>0.007390691980833759</v>
       </c>
       <c r="EM2">
-        <v>0.0002052355669841598</v>
+        <v>0.0001974054079178325</v>
       </c>
       <c r="EN2">
-        <v>0.004790205929610175</v>
+        <v>0.004789578324655446</v>
       </c>
       <c r="EO2">
-        <v>0.006221960908571208</v>
+        <v>0.0062235824550602</v>
       </c>
       <c r="EP2">
-        <v>0.02202961967628509</v>
+        <v>0.02205607355725987</v>
       </c>
       <c r="EQ2">
-        <v>0.02520189962966993</v>
+        <v>0.02523333686194565</v>
       </c>
       <c r="ER2">
-        <v>0.01135282183317562</v>
+        <v>0.0113625034761376</v>
       </c>
       <c r="ES2">
-        <v>0.01060306184419299</v>
+        <v>0.01061156568523603</v>
       </c>
       <c r="ET2">
-        <v>0.00424404253763579</v>
+        <v>0.004242556961729594</v>
       </c>
       <c r="EU2">
-        <v>0.0006983788897376505</v>
+        <v>0.0006913234121165641</v>
       </c>
       <c r="EV2">
-        <v>4.699437230943979E-05</v>
+        <v>3.891563131625447E-05</v>
       </c>
       <c r="EW2">
-        <v>0.001001373685285284</v>
+        <v>0.000994794183785713</v>
       </c>
       <c r="EX2">
-        <v>0.004745643530264998</v>
+        <v>0.004744945922002235</v>
       </c>
       <c r="EY2">
-        <v>0.01242884981736389</v>
+        <v>0.01244022179835834</v>
       </c>
       <c r="EZ2">
-        <v>0.0129200388101461</v>
+        <v>0.01293218240251854</v>
       </c>
       <c r="FA2">
-        <v>0.006072917910761325</v>
+        <v>0.006074305324819401</v>
       </c>
       <c r="FB2">
-        <v>0.001537381777408897</v>
+        <v>0.001531644293846725</v>
       </c>
       <c r="FC2">
-        <v>0.002631133961336723</v>
+        <v>0.002627114658845825</v>
       </c>
       <c r="FD2">
-        <v>9.69081145759808E-05</v>
+        <v>8.890778334363442E-05</v>
       </c>
       <c r="FE2">
-        <v>0.0009870816854952984</v>
+        <v>0.0009804797326179191</v>
       </c>
       <c r="FF2">
-        <v>1.832928073065983E-05</v>
+        <v>1.020550959400989E-05</v>
       </c>
       <c r="FG2">
-        <v>0.0001645122775825694</v>
+        <v>0.0001566181460862548</v>
       </c>
       <c r="FH2">
-        <v>0.001666201975515945</v>
+        <v>0.001660666856282035</v>
       </c>
       <c r="FI2">
-        <v>0.002360807465309044</v>
+        <v>0.002356363505500553</v>
       </c>
       <c r="FJ2">
-        <v>0.00281882375857871</v>
+        <v>0.002815099298979677</v>
       </c>
       <c r="FK2">
-        <v>0.01514007777752367</v>
+        <v>0.01515570884081255</v>
       </c>
       <c r="FL2">
-        <v>0.01880282972370125</v>
+        <v>0.01882421462333</v>
       </c>
       <c r="FM2">
-        <v>0.001595221076558976</v>
+        <v>0.00158957445305673</v>
       </c>
       <c r="FN2">
-        <v>0.0003481155348846058</v>
+        <v>0.0003405098267130227</v>
       </c>
       <c r="FO2">
-        <v>8.68783487233635E-08</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.008595807873688643</v>
+        <v>0.008601158508888498</v>
       </c>
       <c r="FQ2">
-        <v>0.009610699358775289</v>
+        <v>0.009617644292358909</v>
       </c>
       <c r="FR2">
-        <v>0.008703824872101385</v>
+        <v>0.008709345191773443</v>
       </c>
       <c r="FS2">
-        <v>0.01017259185051854</v>
+        <v>0.01018041946397937</v>
       </c>
       <c r="FT2">
-        <v>0.004066876940239154</v>
+        <v>0.004065113053962108</v>
       </c>
       <c r="FU2">
-        <v>0.0003937002242147602</v>
+        <v>0.0003861661252719383</v>
       </c>
       <c r="FV2">
-        <v>0.0008027506282039568</v>
+        <v>0.0007958591086970064</v>
       </c>
       <c r="FW2">
-        <v>0.0008932121468746673</v>
+        <v>0.0008864627338442502</v>
       </c>
       <c r="FX2">
-        <v>6.33742890687446E-05</v>
+        <v>5.532127937314062E-05</v>
       </c>
       <c r="FY2">
-        <v>0.0002366832165220514</v>
+        <v>0.0002289024587341545</v>
       </c>
       <c r="FZ2">
-        <v>0.001074169584215583</v>
+        <v>0.001067704438177373</v>
       </c>
       <c r="GA2">
-        <v>7.941656883301084E-07</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.002493794463354862</v>
+        <v>0.002489559413522622</v>
       </c>
       <c r="GC2">
-        <v>0.008047692381742943</v>
+        <v>0.008052181979427198</v>
       </c>
       <c r="GD2">
-        <v>0.0061676079093699</v>
+        <v>0.006169144072445933</v>
       </c>
       <c r="GE2">
-        <v>0.002677320260658037</v>
+        <v>0.002673373512468207</v>
       </c>
       <c r="GF2">
-        <v>0.001588958676650999</v>
+        <v>0.001583302215511726</v>
       </c>
       <c r="GG2">
-        <v>0.0005614973917490597</v>
+        <v>0.0005542268862612338</v>
       </c>
       <c r="GH2">
-        <v>0.0006567131403499091</v>
+        <v>0.000649592209783475</v>
       </c>
       <c r="GI2">
-        <v>0.002107204969035613</v>
+        <v>0.002102362623728901</v>
       </c>
       <c r="GJ2">
-        <v>0.001438780678857794</v>
+        <v>0.001432888302310148</v>
       </c>
       <c r="GK2">
-        <v>4.465713934378432E-05</v>
+        <v>3.657472677901291E-05</v>
       </c>
       <c r="GL2">
-        <v>0.0004534602933366141</v>
+        <v>0.0004460200718013915</v>
       </c>
       <c r="GM2">
-        <v>0.0003262157952064122</v>
+        <v>0.0003185756846183276</v>
       </c>
       <c r="GN2">
-        <v>4.983341526772138E-05</v>
+        <v>4.175913414208479E-05</v>
       </c>
       <c r="GO2">
-        <v>1.24461688171094E-05</v>
+        <v>4.313155868942563E-06</v>
       </c>
       <c r="GP2">
-        <v>0.001260636981475532</v>
+        <v>0.001254464758054612</v>
       </c>
       <c r="GQ2">
-        <v>0.00329835525153222</v>
+        <v>0.003295384090483243</v>
       </c>
       <c r="GR2">
-        <v>0.003169833153420792</v>
+        <v>0.003166660096330407</v>
       </c>
       <c r="GS2">
-        <v>0.00271879946004852</v>
+        <v>0.002714917871751664</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>2.525860719592457E-05</v>
+        <v>1.358207457849937E-05</v>
       </c>
       <c r="C3">
-        <v>0.0001772230803256418</v>
+        <v>0.0001658774433273859</v>
       </c>
       <c r="D3">
-        <v>0.000263425070755958</v>
+        <v>0.0002522671346091552</v>
       </c>
       <c r="E3">
-        <v>0.0001253743260816131</v>
+        <v>0.0001139157908165097</v>
       </c>
       <c r="F3">
-        <v>0.000158700532381916</v>
+        <v>0.0001473145633912924</v>
       </c>
       <c r="G3">
-        <v>0.0003779144180459633</v>
+        <v>0.0003670057771632415</v>
       </c>
       <c r="H3">
-        <v>0.0002778240691574583</v>
+        <v>0.0002666974861644114</v>
       </c>
       <c r="I3">
-        <v>0.0001823087797610547</v>
+        <v>0.0001709742166383497</v>
       </c>
       <c r="J3">
-        <v>9.972330392925234E-05</v>
+        <v>8.82089147485421E-05</v>
       </c>
       <c r="K3">
-        <v>2.158970660322628E-05</v>
+        <v>9.90518512427123E-06</v>
       </c>
       <c r="L3">
-        <v>1.181833368799183E-06</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1.170604270045777E-05</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.743853106406758E-06</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>3.517402009516848E-05</v>
+        <v>2.351907783121896E-05</v>
       </c>
       <c r="P3">
-        <v>0.0001510859732272436</v>
+        <v>0.000139683423885869</v>
       </c>
       <c r="Q3">
-        <v>6.081191324898675E-05</v>
+        <v>4.921279631285637E-05</v>
       </c>
       <c r="R3">
-        <v>0.0001557844527056435</v>
+        <v>0.0001443921340862537</v>
       </c>
       <c r="S3">
-        <v>0.00011172840759651</v>
+        <v>0.0001002401589743747</v>
       </c>
       <c r="T3">
-        <v>5.14212242914908E-05</v>
+        <v>3.980165956402458E-05</v>
       </c>
       <c r="U3">
-        <v>6.450704683877279E-05</v>
+        <v>5.291597588531141E-05</v>
       </c>
       <c r="V3">
-        <v>0.0002696319700669013</v>
+        <v>0.0002584875491565766</v>
       </c>
       <c r="W3">
-        <v>6.952229828200641E-05</v>
+        <v>5.794214780684776E-05</v>
       </c>
       <c r="X3">
-        <v>2.255333949624892E-05</v>
+        <v>1.08709162833966E-05</v>
       </c>
       <c r="Y3">
-        <v>6.559783271767959E-07</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>3.353204627745163E-06</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>5.310872910415304E-05</v>
+        <v>4.14928388404502E-05</v>
       </c>
       <c r="AB3">
-        <v>8.461740560622837E-05</v>
+        <v>7.307012402984326E-05</v>
       </c>
       <c r="AC3">
-        <v>1.555423627325191E-06</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>3.792571578968995E-06</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>5.831006852672817E-06</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>3.792571578968995E-06</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.0001996432478366748</v>
+        <v>0.0001883464297173164</v>
       </c>
       <c r="AH3">
-        <v>0.0001772230803256418</v>
+        <v>0.0001658774433273859</v>
       </c>
       <c r="AI3">
-        <v>5.037414840773155E-05</v>
+        <v>3.875230372090551E-05</v>
       </c>
       <c r="AJ3">
-        <v>6.780664647246889E-06</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>6.780664647246889E-06</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>8.541644051752378E-05</v>
+        <v>7.387089880274096E-05</v>
       </c>
       <c r="AM3">
-        <v>0.0001333380851975192</v>
+        <v>0.0001218968906499487</v>
       </c>
       <c r="AN3">
-        <v>7.77749713658388E-05</v>
+        <v>6.621279070502975E-05</v>
       </c>
       <c r="AO3">
-        <v>0.0001068390731392977</v>
+        <v>9.53401782172792E-05</v>
       </c>
       <c r="AP3">
-        <v>0.0003207016543974182</v>
+        <v>0.0003096684353651989</v>
       </c>
       <c r="AQ3">
-        <v>0.0002029551074690098</v>
+        <v>0.0001916655007709861</v>
       </c>
       <c r="AR3">
-        <v>6.450001283955366E-05</v>
+        <v>5.290892656988397E-05</v>
       </c>
       <c r="AS3">
-        <v>0.0002247086450540485</v>
+        <v>0.0002134664056790581</v>
       </c>
       <c r="AT3">
-        <v>0.000305727146059808</v>
+        <v>0.0002946613207275366</v>
       </c>
       <c r="AU3">
-        <v>4.651619183602126E-05</v>
+        <v>3.488594662700582E-05</v>
       </c>
       <c r="AV3">
-        <v>1.277921358132008E-06</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.0001101916077671173</v>
+        <v>9.870001283435686E-05</v>
       </c>
       <c r="AX3">
-        <v>0.0006839028640767632</v>
+        <v>0.0006736604988979791</v>
       </c>
       <c r="AY3">
-        <v>0.001031601785477089</v>
+        <v>0.00102211651863525</v>
       </c>
       <c r="AZ3">
-        <v>0.0003181099246851382</v>
+        <v>0.0003070710622812136</v>
       </c>
       <c r="BA3">
-        <v>0.0002164878759666743</v>
+        <v>0.0002052277362468126</v>
       </c>
       <c r="BB3">
-        <v>0.0002971305470141564</v>
+        <v>0.0002860460029846437</v>
       </c>
       <c r="BC3">
-        <v>9.569424937653642E-05</v>
+        <v>8.417108711568823E-05</v>
       </c>
       <c r="BD3">
-        <v>3.552097405665151E-05</v>
+        <v>2.386678726892313E-05</v>
       </c>
       <c r="BE3">
-        <v>0.0003819126176021045</v>
+        <v>0.0003710126826141913</v>
       </c>
       <c r="BF3">
-        <v>0.0004503034500097202</v>
+        <v>0.0004395524328995777</v>
       </c>
       <c r="BG3">
-        <v>0.0001092746478689132</v>
+        <v>9.778105629833991E-05</v>
       </c>
       <c r="BH3">
-        <v>0.0001218158804766527</v>
+        <v>0.000110349596860652</v>
       </c>
       <c r="BI3">
-        <v>7.985503713492103E-05</v>
+        <v>6.829738572122085E-05</v>
       </c>
       <c r="BJ3">
-        <v>2.192161456637964E-06</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>3.889650068191861E-05</v>
+        <v>2.724966394746049E-05</v>
       </c>
       <c r="BL3">
-        <v>7.287913790934803E-07</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>7.642202151603605E-06</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.0002739468495878865</v>
+        <v>0.0002628118241283625</v>
       </c>
       <c r="BO3">
-        <v>0.0002827088186151796</v>
+        <v>0.0002715928719383915</v>
       </c>
       <c r="BP3">
-        <v>7.700490745132717E-05</v>
+        <v>6.544105001192281E-05</v>
       </c>
       <c r="BQ3">
-        <v>0.0001289939356797834</v>
+        <v>0.0001175432819473467</v>
       </c>
       <c r="BR3">
-        <v>0.0002672273503338493</v>
+        <v>0.0002560776934751543</v>
       </c>
       <c r="BS3">
-        <v>0.0001741291706691111</v>
+        <v>0.0001627767968255231</v>
       </c>
       <c r="BT3">
-        <v>7.098232211992238E-05</v>
+        <v>5.940535077921469E-05</v>
       </c>
       <c r="BU3">
-        <v>0.0001176557719384857</v>
+        <v>0.0001061804298783487</v>
       </c>
       <c r="BV3">
-        <v>8.063131704874259E-05</v>
+        <v>6.907535594868902E-05</v>
       </c>
       <c r="BW3">
-        <v>0.0002461940426688546</v>
+        <v>0.000234998586754501</v>
       </c>
       <c r="BX3">
-        <v>0.0002461940426688546</v>
+        <v>0.000234998586754501</v>
       </c>
       <c r="BY3">
-        <v>5.788319057411788E-05</v>
+        <v>4.627769647967597E-05</v>
       </c>
       <c r="BZ3">
-        <v>2.496616922838947E-05</v>
+        <v>1.32889998408012E-05</v>
       </c>
       <c r="CA3">
-        <v>9.201115978541332E-05</v>
+        <v>8.047997776714676E-05</v>
       </c>
       <c r="CB3">
-        <v>5.204452622229515E-05</v>
+        <v>4.042631870598543E-05</v>
       </c>
       <c r="CC3">
-        <v>6.63883426299214E-05</v>
+        <v>5.480136811112552E-05</v>
       </c>
       <c r="CD3">
-        <v>3.193262645501066E-06</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>6.568413270809902E-05</v>
+        <v>5.409562480473431E-05</v>
       </c>
       <c r="CF3">
-        <v>9.978029892292507E-06</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>1.630173419026869E-06</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.0003349812628121725</v>
+        <v>0.0003239791369675291</v>
       </c>
       <c r="CI3">
-        <v>0.0006256787305404949</v>
+        <v>0.0006153095850010101</v>
       </c>
       <c r="CJ3">
-        <v>0.0003957206360692122</v>
+        <v>0.0003848507674035523</v>
       </c>
       <c r="CK3">
-        <v>0.0005500205389396626</v>
+        <v>0.0005394866511835308</v>
       </c>
       <c r="CL3">
-        <v>0.0007399470178550409</v>
+        <v>0.0007298266862317541</v>
       </c>
       <c r="CM3">
-        <v>0.0007631436752798721</v>
+        <v>0.0007530738533063947</v>
       </c>
       <c r="CN3">
-        <v>0.1320261353431648</v>
+        <v>0.1323018846209285</v>
       </c>
       <c r="CO3">
-        <v>0.003229921141431436</v>
+        <v>0.00322522261342032</v>
       </c>
       <c r="CP3">
-        <v>0.1615692920634416</v>
+        <v>0.1619093702000092</v>
       </c>
       <c r="CQ3">
-        <v>0.02222500453269891</v>
+        <v>0.02226166692116043</v>
       </c>
       <c r="CR3">
-        <v>0.001142162473203233</v>
+        <v>0.001132917947150787</v>
       </c>
       <c r="CS3">
-        <v>0.01353209849773883</v>
+        <v>0.01354983248493932</v>
       </c>
       <c r="CT3">
-        <v>0.0580427395564056</v>
+        <v>0.05815739340802834</v>
       </c>
       <c r="CU3">
-        <v>0.02247814750459633</v>
+        <v>0.02251536110018343</v>
       </c>
       <c r="CV3">
-        <v>0.01502394533212197</v>
+        <v>0.01504492774687795</v>
       </c>
       <c r="CW3">
-        <v>0.01003263688623033</v>
+        <v>0.01004275095745408</v>
       </c>
       <c r="CX3">
-        <v>0.01091933578779376</v>
+        <v>0.01093138060490836</v>
       </c>
       <c r="CY3">
-        <v>0.000542518839772461</v>
+        <v>0.0005319686174129865</v>
       </c>
       <c r="CZ3">
-        <v>0.001763623104211999</v>
+        <v>0.001755731779970817</v>
       </c>
       <c r="DA3">
-        <v>0.01396315744988497</v>
+        <v>0.01398183004803795</v>
       </c>
       <c r="DB3">
-        <v>3.513772609919764E-06</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.004585517490940382</v>
+        <v>0.004583770711348987</v>
       </c>
       <c r="DD3">
-        <v>0.003519712609260337</v>
+        <v>0.003515645088781458</v>
       </c>
       <c r="DE3">
-        <v>0.003360562826928295</v>
+        <v>0.003356148765151434</v>
       </c>
       <c r="DF3">
-        <v>0.003256508238479879</v>
+        <v>0.003251867602644207</v>
       </c>
       <c r="DG3">
-        <v>0.02115506265147813</v>
+        <v>0.0211893952909268</v>
       </c>
       <c r="DH3">
-        <v>0.003474848214240943</v>
+        <v>0.003470683003614736</v>
       </c>
       <c r="DI3">
-        <v>5.424922697754107E-07</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.006004830333375864</v>
+        <v>0.006006174041923705</v>
       </c>
       <c r="DK3">
-        <v>0.007963003615989945</v>
+        <v>0.007968611156389051</v>
       </c>
       <c r="DL3">
-        <v>0.01651108316702789</v>
+        <v>0.01653530375571055</v>
       </c>
       <c r="DM3">
-        <v>0.002167975959322908</v>
+        <v>0.002160965094741799</v>
       </c>
       <c r="DN3">
-        <v>0.0005070766837070597</v>
+        <v>0.0004964492876902532</v>
       </c>
       <c r="DO3">
-        <v>0.0009797602912322546</v>
+        <v>0.000970162141931881</v>
       </c>
       <c r="DP3">
-        <v>0.0004168744937208241</v>
+        <v>0.0004060506866028489</v>
       </c>
       <c r="DQ3">
-        <v>0.0004307076221851442</v>
+        <v>0.0004199139360652811</v>
       </c>
       <c r="DR3">
-        <v>0.002922576975551141</v>
+        <v>0.002917209219818752</v>
       </c>
       <c r="DS3">
-        <v>0.0004210731832547081</v>
+        <v>0.0004102585185892048</v>
       </c>
       <c r="DT3">
-        <v>0.0003479208913756841</v>
+        <v>0.0003369469409744004</v>
       </c>
       <c r="DU3">
-        <v>0.000276381469317608</v>
+        <v>0.0002652517451300609</v>
       </c>
       <c r="DV3">
-        <v>0.008385057069135827</v>
+        <v>0.008391583611429424</v>
       </c>
       <c r="DW3">
-        <v>0.05452656094675293</v>
+        <v>0.05463355848190783</v>
       </c>
       <c r="DX3">
-        <v>0.008046543106715836</v>
+        <v>0.008052332550496302</v>
       </c>
       <c r="DY3">
-        <v>0.0002130541263478708</v>
+        <v>0.0002017865097968604</v>
       </c>
       <c r="DZ3">
-        <v>0.008009940110779304</v>
+        <v>0.008015649853227252</v>
       </c>
       <c r="EA3">
-        <v>0.001398718844721717</v>
+        <v>0.001390032958314822</v>
       </c>
       <c r="EB3">
-        <v>0.03331858630114882</v>
+        <v>0.03337940445136488</v>
       </c>
       <c r="EC3">
-        <v>0.001157994871445605</v>
+        <v>0.001148784819708842</v>
       </c>
       <c r="ED3">
-        <v>0.002176135258417106</v>
+        <v>0.002169142160332798</v>
       </c>
       <c r="EE3">
-        <v>0.009884048902725774</v>
+        <v>0.009893839430480512</v>
       </c>
       <c r="EF3">
-        <v>0.001502047233250753</v>
+        <v>0.001493586339635895</v>
       </c>
       <c r="EG3">
-        <v>0.002064625770796293</v>
+        <v>0.002057389865954658</v>
       </c>
       <c r="EH3">
-        <v>0.002671067703472355</v>
+        <v>0.002665152297920259</v>
       </c>
       <c r="EI3">
-        <v>0.0009106963588993627</v>
+        <v>0.0009009478260772298</v>
       </c>
       <c r="EJ3">
-        <v>0.009289871968688117</v>
+        <v>0.009298368703621183</v>
       </c>
       <c r="EK3">
-        <v>0.01817826198194661</v>
+        <v>0.01820611277547168</v>
       </c>
       <c r="EL3">
-        <v>0.002776134491808402</v>
+        <v>0.002770447864333606</v>
       </c>
       <c r="EM3">
-        <v>0.0006046917928703525</v>
+        <v>0.0005942769492437305</v>
       </c>
       <c r="EN3">
-        <v>0.002582879713262513</v>
+        <v>0.002576772282436202</v>
       </c>
       <c r="EO3">
-        <v>0.01122337175404132</v>
+        <v>0.01123607859542533</v>
       </c>
       <c r="EP3">
-        <v>0.02812225287801795</v>
+        <v>0.02817175625228642</v>
       </c>
       <c r="EQ3">
-        <v>0.02032322374382443</v>
+        <v>0.02035574509248435</v>
       </c>
       <c r="ER3">
-        <v>0.01291154356662951</v>
+        <v>0.01292792632413843</v>
       </c>
       <c r="ES3">
-        <v>0.01051467783271672</v>
+        <v>0.01052584152583017</v>
       </c>
       <c r="ET3">
-        <v>0.001209217765759113</v>
+        <v>0.001200119249508115</v>
       </c>
       <c r="EU3">
-        <v>2.535622318508776E-07</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.001176937169342732</v>
+        <v>0.001167768363584468</v>
       </c>
       <c r="EW3">
-        <v>0.003024355864252193</v>
+        <v>0.003019209727347557</v>
       </c>
       <c r="EX3">
-        <v>0.008820664020777073</v>
+        <v>0.008828139077081933</v>
       </c>
       <c r="EY3">
-        <v>0.01271656858827459</v>
+        <v>0.01273252679677639</v>
       </c>
       <c r="EZ3">
-        <v>0.01033286785290029</v>
+        <v>0.01034363566318268</v>
       </c>
       <c r="FA3">
-        <v>0.00257542631408995</v>
+        <v>0.002569302653831302</v>
       </c>
       <c r="FB3">
-        <v>0.001976751080551671</v>
+        <v>0.001969323832632019</v>
       </c>
       <c r="FC3">
-        <v>0.002905204077479787</v>
+        <v>0.002899798493064511</v>
       </c>
       <c r="FD3">
-        <v>0.000402131215357544</v>
+        <v>0.0003912753054321025</v>
       </c>
       <c r="FE3">
-        <v>0.001043820984120579</v>
+        <v>0.001034362324019234</v>
       </c>
       <c r="FF3">
-        <v>0.0002856601482875387</v>
+        <v>0.0002745506279947547</v>
       </c>
       <c r="FG3">
-        <v>0.0004068258548363702</v>
+        <v>0.0003959801672714919</v>
       </c>
       <c r="FH3">
-        <v>0.002597730111613902</v>
+        <v>0.002591655016843881</v>
       </c>
       <c r="FI3">
-        <v>0.002947870072743237</v>
+        <v>0.002942557391561391</v>
       </c>
       <c r="FJ3">
-        <v>0.009233793974913597</v>
+        <v>0.009242168602606137</v>
       </c>
       <c r="FK3">
-        <v>0.02935384774129288</v>
+        <v>0.02940603285647391</v>
       </c>
       <c r="FL3">
-        <v>0.01445364789543334</v>
+        <v>0.01447338851386985</v>
       </c>
       <c r="FM3">
-        <v>0.001459415337983518</v>
+        <v>0.001450861615386397</v>
       </c>
       <c r="FN3">
-        <v>0.001603245422016271</v>
+        <v>0.001595004882781887</v>
       </c>
       <c r="FO3">
-        <v>0.001430544541188599</v>
+        <v>0.001421927953765347</v>
       </c>
       <c r="FP3">
-        <v>0.01390804445600332</v>
+        <v>0.01392659704815846</v>
       </c>
       <c r="FQ3">
-        <v>0.008900314511934702</v>
+        <v>0.008907963003504042</v>
       </c>
       <c r="FR3">
-        <v>0.01113997076330005</v>
+        <v>0.01115249600288002</v>
       </c>
       <c r="FS3">
-        <v>0.01351513349962219</v>
+        <v>0.0135328305463231</v>
       </c>
       <c r="FT3">
-        <v>0.0009797602912322546</v>
+        <v>0.000970162141931881</v>
       </c>
       <c r="FU3">
-        <v>0.0007590945757293817</v>
+        <v>0.0007490159370287097</v>
       </c>
       <c r="FV3">
-        <v>0.00194831358370865</v>
+        <v>0.001940824414453493</v>
       </c>
       <c r="FW3">
-        <v>0.0001521530331087843</v>
+        <v>0.0001407528072410014</v>
       </c>
       <c r="FX3">
-        <v>0.0002921072275718184</v>
+        <v>0.0002810117454963077</v>
       </c>
       <c r="FY3">
-        <v>0.0006877005636551629</v>
+        <v>0.0006774664677917493</v>
       </c>
       <c r="FZ3">
-        <v>0.001009204587963506</v>
+        <v>0.000999670552258878</v>
       </c>
       <c r="GA3">
-        <v>0.0005968248337437002</v>
+        <v>0.0005863928601770496</v>
       </c>
       <c r="GB3">
-        <v>0.004388126012853728</v>
+        <v>0.004385949422438691</v>
       </c>
       <c r="GC3">
-        <v>0.006414115687939194</v>
+        <v>0.006416350596436773</v>
       </c>
       <c r="GD3">
-        <v>0.003459436415951878</v>
+        <v>0.003455237646846953</v>
       </c>
       <c r="GE3">
-        <v>0.001621993219934991</v>
+        <v>0.001613793503164388</v>
       </c>
       <c r="GF3">
-        <v>0.000296125467125735</v>
+        <v>0.000285038734581202</v>
       </c>
       <c r="GG3">
-        <v>4.130382541467029E-05</v>
+        <v>2.966223051859439E-05</v>
       </c>
       <c r="GH3">
-        <v>0.000110805051699016</v>
+        <v>9.931479251207492E-05</v>
       </c>
       <c r="GI3">
-        <v>0.002562160515562648</v>
+        <v>0.002556007969640614</v>
       </c>
       <c r="GJ3">
-        <v>1.092100928760798E-05</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.0001360573648956393</v>
+        <v>0.0001246220914539751</v>
       </c>
       <c r="GL3">
-        <v>0.0009480814447490705</v>
+        <v>0.0009384143162241076</v>
       </c>
       <c r="GM3">
-        <v>0.0002421044531228589</v>
+        <v>0.0002309000923162163</v>
       </c>
       <c r="GN3">
-        <v>0.0003992109456817367</v>
+        <v>0.0003883486770039985</v>
       </c>
       <c r="GO3">
-        <v>6.149645317299279E-05</v>
+        <v>4.989882679091978E-05</v>
       </c>
       <c r="GP3">
-        <v>0.001337208251550294</v>
+        <v>0.001328388428668684</v>
       </c>
       <c r="GQ3">
-        <v>0.0007249195795233069</v>
+        <v>0.0007147665263473513</v>
       </c>
       <c r="GR3">
-        <v>0.00186675759276256</v>
+        <v>0.001859090839105172</v>
       </c>
       <c r="GS3">
-        <v>0.001331878652141958</v>
+        <v>0.001323047224303874</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0001946381715129368</v>
+        <v>0.0001879477071178415</v>
       </c>
       <c r="C4">
-        <v>7.748938662112875E-05</v>
+        <v>7.064171261116791E-05</v>
       </c>
       <c r="D4">
-        <v>6.223288128637814E-06</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>6.942345697283805E-06</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>4.023698624549398E-05</v>
+        <v>3.333932080351547E-05</v>
       </c>
       <c r="G4">
-        <v>1.381910339742753E-06</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1.221438546740015E-05</v>
+        <v>5.279114665025253E-06</v>
       </c>
       <c r="I4">
-        <v>1.567527131649061E-06</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>7.237051684433353E-07</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>5.870797544007923E-05</v>
+        <v>5.183509742632842E-05</v>
       </c>
       <c r="L4">
-        <v>9.735336575497365E-05</v>
+        <v>9.053234851752832E-05</v>
       </c>
       <c r="M4">
-        <v>3.999322825612287E-05</v>
+        <v>3.309523569935896E-05</v>
       </c>
       <c r="N4">
-        <v>5.453287262213171E-06</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>4.531739802396612E-05</v>
+        <v>3.842655031876389E-05</v>
       </c>
       <c r="P4">
-        <v>4.311433812002903E-05</v>
+        <v>3.622053398468248E-05</v>
       </c>
       <c r="Q4">
-        <v>0.000242214289438413</v>
+        <v>0.0002355876705469887</v>
       </c>
       <c r="R4">
-        <v>0.0002156174105981516</v>
+        <v>0.000208955099615828</v>
       </c>
       <c r="S4">
-        <v>0.0001720408924982755</v>
+        <v>0.0001653201033368228</v>
       </c>
       <c r="T4">
-        <v>0.0001333783641841285</v>
+        <v>0.0001266056912477684</v>
       </c>
       <c r="U4">
-        <v>0.0003486700847964815</v>
+        <v>0.0003421863258980474</v>
       </c>
       <c r="V4">
-        <v>0.0001874134818279644</v>
+        <v>0.0001807133221493547</v>
       </c>
       <c r="W4">
-        <v>0.0001509972334158698</v>
+        <v>0.0001442482043922387</v>
       </c>
       <c r="X4">
-        <v>3.332368854694355E-06</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>2.072652309623426E-05</v>
+        <v>1.380267528795655E-05</v>
       </c>
       <c r="Z4">
-        <v>3.219528559614678E-05</v>
+        <v>2.528682847021598E-05</v>
       </c>
       <c r="AA4">
-        <v>9.649420579243673E-06</v>
+        <v>2.710707682760988E-06</v>
       </c>
       <c r="AB4">
-        <v>0.0003011564168682822</v>
+        <v>0.000294608896271912</v>
       </c>
       <c r="AC4">
-        <v>0.0002837240076284103</v>
+        <v>0.000277153093342167</v>
       </c>
       <c r="AD4">
-        <v>0.0002440065793602614</v>
+        <v>0.0002373823656598821</v>
       </c>
       <c r="AE4">
-        <v>0.000566544475296219</v>
+        <v>0.0005603530962893148</v>
       </c>
       <c r="AF4">
-        <v>0.0003145717662833152</v>
+        <v>0.0003080422486215617</v>
       </c>
       <c r="AG4">
-        <v>7.681776665041429E-05</v>
+        <v>6.996919134969718E-05</v>
       </c>
       <c r="AH4">
-        <v>9.374353591237778E-05</v>
+        <v>8.691767440821804E-05</v>
       </c>
       <c r="AI4">
-        <v>0.0002802998877777168</v>
+        <v>0.0002737243784411409</v>
       </c>
       <c r="AJ4">
-        <v>0.0001197657787776958</v>
+        <v>0.0001129748382228449</v>
       </c>
       <c r="AK4">
-        <v>0.0001046550554365885</v>
+        <v>9.784383681398818E-05</v>
       </c>
       <c r="AL4">
-        <v>0.0001806747121218038</v>
+        <v>0.0001739655092474738</v>
       </c>
       <c r="AM4">
-        <v>2.985469169820676E-05</v>
+        <v>2.294309357627168E-05</v>
       </c>
       <c r="AN4">
-        <v>2.397786995446152E-05</v>
+        <v>1.705838534114011E-05</v>
       </c>
       <c r="AO4">
-        <v>4.361786509807308E-05</v>
+        <v>3.672473667850426E-05</v>
       </c>
       <c r="AP4">
-        <v>1.444576337010245E-05</v>
+        <v>7.513486999646141E-06</v>
       </c>
       <c r="AQ4">
-        <v>4.706985494755144E-06</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>3.964664127123555E-06</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>9.952220566040288E-08</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>2.22624300292621E-05</v>
+        <v>1.534064335493156E-05</v>
       </c>
       <c r="AU4">
-        <v>3.74558683667627E-05</v>
+        <v>3.0554470760844E-05</v>
       </c>
       <c r="AV4">
-        <v>3.034269167692786E-05</v>
+        <v>2.343174843407479E-05</v>
       </c>
       <c r="AW4">
-        <v>2.922991872544956E-05</v>
+        <v>2.231748217980811E-05</v>
       </c>
       <c r="AX4">
-        <v>0.0002518278690192195</v>
+        <v>0.0002452141512188716</v>
       </c>
       <c r="AY4">
-        <v>0.0005009153781579305</v>
+        <v>0.0004946359271740561</v>
       </c>
       <c r="AZ4">
-        <v>0.0003510537046925454</v>
+        <v>0.0003445731445295159</v>
       </c>
       <c r="BA4">
-        <v>0.0003616383342310099</v>
+        <v>0.0003551719782744925</v>
       </c>
       <c r="BB4">
-        <v>0.000369434923891045</v>
+        <v>0.0003629790306880154</v>
       </c>
       <c r="BC4">
-        <v>5.244032771337569E-05</v>
+        <v>4.555903873329571E-05</v>
       </c>
       <c r="BD4">
-        <v>5.909920342302E-05</v>
+        <v>5.22268504236821E-05</v>
       </c>
       <c r="BE4">
-        <v>0.0001050439154196325</v>
+        <v>9.823321863367121E-05</v>
       </c>
       <c r="BF4">
-        <v>2.854499175531533E-05</v>
+        <v>2.163163606138492E-05</v>
       </c>
       <c r="BG4">
-        <v>4.432855806708381E-07</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>1.439833537217052E-05</v>
+        <v>7.465995354982441E-06</v>
       </c>
       <c r="BI4">
-        <v>9.92511356722227E-05</v>
+        <v>9.243266517632549E-05</v>
       </c>
       <c r="BJ4">
-        <v>0.0001584501330908913</v>
+        <v>0.000151711105600683</v>
       </c>
       <c r="BK4">
-        <v>6.983568695486305E-05</v>
+        <v>6.297774194484071E-05</v>
       </c>
       <c r="BL4">
-        <v>0.0001688829626359749</v>
+        <v>0.0001621579356419413</v>
       </c>
       <c r="BM4">
-        <v>0.0003830346532980382</v>
+        <v>0.0003765970104611932</v>
       </c>
       <c r="BN4">
-        <v>0.0003109657464405532</v>
+        <v>0.0003044313896249732</v>
       </c>
       <c r="BO4">
-        <v>0.0002634911085106519</v>
+        <v>0.0002568930423740429</v>
       </c>
       <c r="BP4">
-        <v>0.0005173106074430278</v>
+        <v>0.0005110531582894236</v>
       </c>
       <c r="BQ4">
-        <v>0.0007133047688968376</v>
+        <v>0.000707310337124647</v>
       </c>
       <c r="BR4">
-        <v>0.000256913088797482</v>
+        <v>0.0002503061951860796</v>
       </c>
       <c r="BS4">
-        <v>0.0001434245437460717</v>
+        <v>0.0001366653524349907</v>
       </c>
       <c r="BT4">
-        <v>0.0001594140930488584</v>
+        <v>0.0001526763591595517</v>
       </c>
       <c r="BU4">
-        <v>2.621300085700018E-05</v>
+        <v>1.929651571199325E-05</v>
       </c>
       <c r="BV4">
-        <v>2.660593983986635E-05</v>
+        <v>1.9689982005375E-05</v>
       </c>
       <c r="BW4">
-        <v>1.833205720064329E-06</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>7.648081666510676E-05</v>
+        <v>6.963178918917103E-05</v>
       </c>
       <c r="BY4">
-        <v>0.0001100657952006569</v>
+        <v>0.0001032618376035571</v>
       </c>
       <c r="BZ4">
-        <v>0.0001348541941197759</v>
+        <v>0.0001280835016961117</v>
       </c>
       <c r="CA4">
-        <v>0.0002661830083932735</v>
+        <v>0.0002595885546931416</v>
       </c>
       <c r="CB4">
-        <v>0.0001494353134839763</v>
+        <v>0.0001426841884178538</v>
       </c>
       <c r="CC4">
-        <v>0.0003718884337840614</v>
+        <v>0.0003654358331063935</v>
       </c>
       <c r="CD4">
-        <v>0.0001579660531119992</v>
+        <v>0.0001512263760032131</v>
       </c>
       <c r="CE4">
-        <v>4.361786509807308E-05</v>
+        <v>3.672473667850426E-05</v>
       </c>
       <c r="CF4">
-        <v>0.0002649369584476067</v>
+        <v>0.0002583408325915729</v>
       </c>
       <c r="CG4">
-        <v>0.0001801577521443455</v>
+        <v>0.0001734478555276175</v>
       </c>
       <c r="CH4">
-        <v>4.775130391783733E-05</v>
+        <v>4.086372243010844E-05</v>
       </c>
       <c r="CI4">
-        <v>0.0001071440953280556</v>
+        <v>0.0001003362169108453</v>
       </c>
       <c r="CJ4">
-        <v>0.0001171278448927211</v>
+        <v>0.0001103333643218941</v>
       </c>
       <c r="CK4">
-        <v>5.276191769935298E-06</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>2.131076007075901E-05</v>
+        <v>1.438769628828097E-05</v>
       </c>
       <c r="CM4">
-        <v>9.888401568823071E-06</v>
+        <v>2.950009376557392E-06</v>
       </c>
       <c r="CN4">
-        <v>0.162125622930624</v>
+        <v>0.1623362382434275</v>
       </c>
       <c r="CO4">
-        <v>0.0355114734515467</v>
+        <v>0.03555217695779989</v>
       </c>
       <c r="CP4">
-        <v>0.1743602523971415</v>
+        <v>0.1745872861592548</v>
       </c>
       <c r="CQ4">
-        <v>0.01087805952566972</v>
+        <v>0.01088570584298418</v>
       </c>
       <c r="CR4">
-        <v>0.000715682598793154</v>
+        <v>0.0007096913579863889</v>
       </c>
       <c r="CS4">
-        <v>0.007340946379903097</v>
+        <v>0.007343846013793607</v>
       </c>
       <c r="CT4">
-        <v>0.08393372634012776</v>
+        <v>0.08403941083388813</v>
       </c>
       <c r="CU4">
-        <v>0.02366262896820739</v>
+        <v>0.02368743173524636</v>
       </c>
       <c r="CV4">
-        <v>0.02481729291785906</v>
+        <v>0.02484364520395614</v>
       </c>
       <c r="CW4">
-        <v>0.004744016393140438</v>
+        <v>0.004743431036867125</v>
       </c>
       <c r="CX4">
-        <v>0.006864157700693139</v>
+        <v>0.006866417500677561</v>
       </c>
       <c r="CY4">
-        <v>0.005896808742873723</v>
+        <v>0.005897770394036201</v>
       </c>
       <c r="CZ4">
-        <v>0.0002802998877777168</v>
+        <v>0.0002737243784411409</v>
       </c>
       <c r="DA4">
-        <v>0.01094728452265121</v>
+        <v>0.01095502373751578</v>
       </c>
       <c r="DB4">
-        <v>0.005576389156845398</v>
+        <v>0.005576920816012984</v>
       </c>
       <c r="DC4">
-        <v>0.001811437421013521</v>
+        <v>0.001806916645254664</v>
       </c>
       <c r="DD4">
-        <v>0.001695641226062734</v>
+        <v>0.0016909650558179</v>
       </c>
       <c r="DE4">
-        <v>1.444576337010245E-05</v>
+        <v>7.513486999646141E-06</v>
       </c>
       <c r="DF4">
-        <v>0.006277549226271797</v>
+        <v>0.006279021817985763</v>
       </c>
       <c r="DG4">
-        <v>0.01863610518738549</v>
+        <v>0.018654162533476</v>
       </c>
       <c r="DH4">
-        <v>6.45079071871772E-05</v>
+        <v>5.764281248109833E-05</v>
       </c>
       <c r="DI4">
-        <v>0.0004321480311564832</v>
+        <v>0.0004257762967729354</v>
       </c>
       <c r="DJ4">
-        <v>0.005763483748687267</v>
+        <v>0.005764266482321857</v>
       </c>
       <c r="DK4">
-        <v>0.01242476145822685</v>
+        <v>0.01243448339600424</v>
       </c>
       <c r="DL4">
-        <v>0.007686703164826611</v>
+        <v>0.007690066792356024</v>
       </c>
       <c r="DM4">
-        <v>0.009196772598981075</v>
+        <v>0.009202162687428395</v>
       </c>
       <c r="DN4">
-        <v>0.002254950501674439</v>
+        <v>0.00225102490512007</v>
       </c>
       <c r="DO4">
-        <v>0.002155613806005947</v>
+        <v>0.002151554903043982</v>
       </c>
       <c r="DP4">
-        <v>0.002911696873037467</v>
+        <v>0.002908652607383812</v>
       </c>
       <c r="DQ4">
-        <v>0.000255688988850858</v>
+        <v>0.0002490804525396928</v>
       </c>
       <c r="DR4">
-        <v>0.001371235640208216</v>
+        <v>0.001366124128894676</v>
       </c>
       <c r="DS4">
-        <v>8.377981034683916E-05</v>
+        <v>7.69405778678099E-05</v>
       </c>
       <c r="DT4">
-        <v>3.645035641060735E-05</v>
+        <v>2.954760944244374E-05</v>
       </c>
       <c r="DU4">
-        <v>7.438016175670435E-05</v>
+        <v>6.752831527458413E-05</v>
       </c>
       <c r="DV4">
-        <v>0.01013237955818458</v>
+        <v>0.01013902519879028</v>
       </c>
       <c r="DW4">
-        <v>0.04575348800495072</v>
+        <v>0.04580793594026372</v>
       </c>
       <c r="DX4">
-        <v>0.001393980639216436</v>
+        <v>0.001388899650904372</v>
       </c>
       <c r="DY4">
-        <v>0.0001050439154196325</v>
+        <v>9.823321863367121E-05</v>
       </c>
       <c r="DZ4">
-        <v>0.005138085775957315</v>
+        <v>0.005138029247157203</v>
       </c>
       <c r="EA4">
-        <v>0.0033433254542166</v>
+        <v>0.003340860419180444</v>
       </c>
       <c r="EB4">
-        <v>0.02039820211055047</v>
+        <v>0.0204186241297266</v>
       </c>
       <c r="EC4">
-        <v>2.460595592707427E-05</v>
+        <v>1.768731418339037E-05</v>
       </c>
       <c r="ED4">
-        <v>0.002352814297407156</v>
+        <v>0.002349020030679644</v>
       </c>
       <c r="EE4">
-        <v>0.003245314858490284</v>
+        <v>0.00324271829662676</v>
       </c>
       <c r="EF4">
-        <v>0.0002390513295763317</v>
+        <v>0.0002324204661022409</v>
       </c>
       <c r="EG4">
-        <v>0.0001405364138720066</v>
+        <v>0.0001337733467905913</v>
       </c>
       <c r="EH4">
-        <v>1.998029512877302E-05</v>
+        <v>1.305544590838954E-05</v>
       </c>
       <c r="EI4">
-        <v>1.598731330288423E-05</v>
+        <v>9.057105639085461E-06</v>
       </c>
       <c r="EJ4">
-        <v>0.008168863643802336</v>
+        <v>0.008172874314007207</v>
       </c>
       <c r="EK4">
-        <v>0.01164336249229921</v>
+        <v>0.01165203581970814</v>
       </c>
       <c r="EL4">
-        <v>0.0007940867653743943</v>
+        <v>0.0007882007402456534</v>
       </c>
       <c r="EM4">
-        <v>0.002787228878464808</v>
+        <v>0.002784017581070209</v>
       </c>
       <c r="EN4">
-        <v>0.001849603519349314</v>
+        <v>0.001845133961173515</v>
       </c>
       <c r="EO4">
-        <v>0.01133333250581785</v>
+        <v>0.01134158978371491</v>
       </c>
       <c r="EP4">
-        <v>0.02179178904978407</v>
+        <v>0.02181408121440132</v>
       </c>
       <c r="EQ4">
-        <v>0.01268463844689509</v>
+        <v>0.01269470913059707</v>
       </c>
       <c r="ER4">
-        <v>0.009399552590138993</v>
+        <v>0.009405214802316337</v>
       </c>
       <c r="ES4">
-        <v>0.005261220770588097</v>
+        <v>0.005261329484689142</v>
       </c>
       <c r="ET4">
-        <v>1.439833537217052E-05</v>
+        <v>7.465995354982441E-06</v>
       </c>
       <c r="EU4">
-        <v>0.0004711382794563404</v>
+        <v>0.0004648188686365785</v>
       </c>
       <c r="EV4">
-        <v>0.002791927278259937</v>
+        <v>0.002788722285955255</v>
       </c>
       <c r="EW4">
-        <v>0.005810016046658258</v>
+        <v>0.005810861225026266</v>
       </c>
       <c r="EX4">
-        <v>0.01454982836556477</v>
+        <v>0.01456240206958434</v>
       </c>
       <c r="EY4">
-        <v>0.01638107128571469</v>
+        <v>0.01639610245435472</v>
       </c>
       <c r="EZ4">
-        <v>0.01344636491368053</v>
+        <v>0.01345745780793797</v>
       </c>
       <c r="FA4">
-        <v>0.004640122197670672</v>
+        <v>0.004639397418982763</v>
       </c>
       <c r="FB4">
-        <v>0.003912430529401166</v>
+        <v>0.003910729213679473</v>
       </c>
       <c r="FC4">
-        <v>0.002161534405747783</v>
+        <v>0.002157483448025763</v>
       </c>
       <c r="FD4">
-        <v>0.0003352429053819644</v>
+        <v>0.0003287411276734638</v>
       </c>
       <c r="FE4">
-        <v>0.0009461946587418347</v>
+        <v>0.0009405127571416168</v>
       </c>
       <c r="FF4">
-        <v>0.0003396862151882169</v>
+        <v>0.0003331904002476956</v>
       </c>
       <c r="FG4">
-        <v>0.001663791927451501</v>
+        <v>0.001659073016550219</v>
       </c>
       <c r="FH4">
-        <v>0.002822324276934497</v>
+        <v>0.002819160076350012</v>
       </c>
       <c r="FI4">
-        <v>0.00484460708875425</v>
+        <v>0.004844156721713058</v>
       </c>
       <c r="FJ4">
-        <v>0.01500998434549999</v>
+        <v>0.01502317556291887</v>
       </c>
       <c r="FK4">
-        <v>0.0295705767105954</v>
+        <v>0.02960330773903362</v>
       </c>
       <c r="FL4">
-        <v>0.01168605649043757</v>
+        <v>0.01169478711171439</v>
       </c>
       <c r="FM4">
-        <v>0.002630710285289693</v>
+        <v>0.002627288945360082</v>
       </c>
       <c r="FN4">
-        <v>0.002641178884833217</v>
+        <v>0.002637771593401881</v>
       </c>
       <c r="FO4">
-        <v>0.001140686250261163</v>
+        <v>0.00113526534964551</v>
       </c>
       <c r="FP4">
-        <v>0.006633842110735891</v>
+        <v>0.006635792835169694</v>
       </c>
       <c r="FQ4">
-        <v>0.003366946853186605</v>
+        <v>0.003364513517250343</v>
       </c>
       <c r="FR4">
-        <v>0.00622917732838102</v>
+        <v>0.006230585006682143</v>
       </c>
       <c r="FS4">
-        <v>0.006121024733096939</v>
+        <v>0.006122287274358297</v>
       </c>
       <c r="FT4">
-        <v>3.621836842072303E-05</v>
+        <v>2.931531013270598E-05</v>
       </c>
       <c r="FU4">
-        <v>0.000440667010785019</v>
+        <v>0.0004343067085772952</v>
       </c>
       <c r="FV4">
-        <v>0.001945623815162416</v>
+        <v>0.001941283112900385</v>
       </c>
       <c r="FW4">
-        <v>0.000507209837883465</v>
+        <v>0.0005009388338466942</v>
       </c>
       <c r="FX4">
-        <v>0.0005692715751773056</v>
+        <v>0.0005630838558440583</v>
       </c>
       <c r="FY4">
-        <v>0.001695641226062734</v>
+        <v>0.0016909650558179</v>
       </c>
       <c r="FZ4">
-        <v>0.002356524697245366</v>
+        <v>0.002352735409746022</v>
       </c>
       <c r="GA4">
-        <v>9.257615596328058E-06</v>
+        <v>2.318376911118469E-06</v>
       </c>
       <c r="GB4">
-        <v>0.002595532586823592</v>
+        <v>0.002592064039640122</v>
       </c>
       <c r="GC4">
-        <v>0.00191707241640738</v>
+        <v>0.001912693399156369</v>
       </c>
       <c r="GD4">
-        <v>0.0003556098544938776</v>
+        <v>0.0003491354085261955</v>
       </c>
       <c r="GE4">
-        <v>0.0003181985661251711</v>
+        <v>0.0003116739155032836</v>
       </c>
       <c r="GF4">
-        <v>1.686423026464687E-05</v>
+        <v>9.935199393061143E-06</v>
       </c>
       <c r="GG4">
-        <v>1.503284034450337E-05</v>
+        <v>8.10135181102827E-06</v>
       </c>
       <c r="GH4">
-        <v>3.12635516367744E-05</v>
+        <v>2.435384415611696E-05</v>
       </c>
       <c r="GI4">
-        <v>0.001911496616650509</v>
+        <v>0.0019071101168692</v>
       </c>
       <c r="GJ4">
-        <v>4.178589517795487E-05</v>
+        <v>3.489030831815679E-05</v>
       </c>
       <c r="GK4">
-        <v>0.0002680617183113537</v>
+        <v>0.0002614697857749107</v>
       </c>
       <c r="GL4">
-        <v>0.0009461946587418347</v>
+        <v>0.0009405127571416168</v>
       </c>
       <c r="GM4">
-        <v>0.000296749587060439</v>
+        <v>0.0002901961526509848</v>
       </c>
       <c r="GN4">
-        <v>0.0006110657433548998</v>
+        <v>0.0006049341103488722</v>
       </c>
       <c r="GO4">
-        <v>0.0001161671409346119</v>
+        <v>0.0001093713711323226</v>
       </c>
       <c r="GP4">
-        <v>0.0008392410634054724</v>
+        <v>0.0008334156337819221</v>
       </c>
       <c r="GQ4">
-        <v>6.028067337150282E-05</v>
+        <v>5.340990586394571E-05</v>
       </c>
       <c r="GR4">
-        <v>0.0004519743802919689</v>
+        <v>0.0004456292521827812</v>
       </c>
       <c r="GS4">
-        <v>0.0002562966188243628</v>
+        <v>0.0002496888979315923</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>5.470598807141223E-08</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>4.781143981035393E-05</v>
+        <v>3.391130173525686E-05</v>
       </c>
       <c r="D5">
-        <v>8.558509324063261E-06</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1.115282842229573E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>2.074124578535589E-05</v>
+        <v>6.771864021424698E-06</v>
       </c>
       <c r="G5">
-        <v>1.398665952959719E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>3.857186146050237E-05</v>
+        <v>2.464808918139388E-05</v>
       </c>
       <c r="I5">
-        <v>0.000105730464003426</v>
+        <v>9.197847879657573E-05</v>
       </c>
       <c r="J5">
-        <v>0.0001012374598333009</v>
+        <v>8.74739818317407E-05</v>
       </c>
       <c r="K5">
-        <v>4.68617777743955E-05</v>
+        <v>3.295921052932444E-05</v>
       </c>
       <c r="L5">
-        <v>2.346550088850832E-05</v>
+        <v>9.503087581193771E-06</v>
       </c>
       <c r="M5">
-        <v>2.281612686392013E-05</v>
+        <v>8.852052502648819E-06</v>
       </c>
       <c r="N5">
-        <v>3.7313547412857E-06</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>5.743589517477866E-05</v>
+        <v>4.356037579254491E-05</v>
       </c>
       <c r="P5">
-        <v>6.040228228709928E-05</v>
+        <v>4.653435071845777E-05</v>
       </c>
       <c r="Q5">
-        <v>0.0001198280045372217</v>
+        <v>0.0001061120798665148</v>
       </c>
       <c r="R5">
-        <v>0.0001759738766631543</v>
+        <v>0.0001624015692600303</v>
       </c>
       <c r="S5">
-        <v>0.0004466149969108318</v>
+        <v>0.000433734970822679</v>
       </c>
       <c r="T5">
-        <v>8.351025816207011E-05</v>
+        <v>6.970143520157507E-05</v>
       </c>
       <c r="U5">
-        <v>0.0002803578806155973</v>
+        <v>0.0002670525802934817</v>
       </c>
       <c r="V5">
-        <v>0.0004281410562113262</v>
+        <v>0.0004152137750573191</v>
       </c>
       <c r="W5">
-        <v>0.0003623388637197622</v>
+        <v>0.0003492432650968342</v>
       </c>
       <c r="X5">
-        <v>0.0001296932949107655</v>
+        <v>0.0001160026049722609</v>
       </c>
       <c r="Y5">
-        <v>7.49139968365774E-05</v>
+        <v>6.108318523263896E-05</v>
       </c>
       <c r="Z5">
-        <v>3.771936642822311E-05</v>
+        <v>2.379341352563282E-05</v>
       </c>
       <c r="AA5">
-        <v>9.909023375199735E-06</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>3.075637916457342E-06</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>1.347520551023126E-05</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.0001207029345703504</v>
+        <v>0.0001069892479103098</v>
       </c>
       <c r="AE5">
-        <v>3.047560115394192E-05</v>
+        <v>1.653111919950307E-05</v>
       </c>
       <c r="AF5">
-        <v>3.587741135847849E-05</v>
+        <v>2.194674686189009E-05</v>
       </c>
       <c r="AG5">
-        <v>0.0001287174048738139</v>
+        <v>0.0001150242186759182</v>
       </c>
       <c r="AH5">
-        <v>0.0002250955085231179</v>
+        <v>0.0002116488508655553</v>
       </c>
       <c r="AI5">
-        <v>0.0003680839839372981</v>
+        <v>0.0003550030809355499</v>
       </c>
       <c r="AJ5">
-        <v>0.0002056538077869686</v>
+        <v>0.0001921574196001406</v>
       </c>
       <c r="AK5">
-        <v>2.882226509133925E-05</v>
+        <v>1.487355401731037E-05</v>
       </c>
       <c r="AL5">
-        <v>6.926392262264043E-05</v>
+        <v>5.54186585186424E-05</v>
       </c>
       <c r="AM5">
-        <v>0.0001347370051017428</v>
+        <v>0.0001210592166259581</v>
       </c>
       <c r="AN5">
-        <v>3.763686442509923E-08</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>2.926912510825936E-06</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>5.091437192784476E-05</v>
+        <v>3.702217093904335E-05</v>
       </c>
       <c r="AQ5">
-        <v>2.839553307518128E-05</v>
+        <v>1.444573045009387E-05</v>
       </c>
       <c r="AR5">
-        <v>0.0003200358321179812</v>
+        <v>0.0003068320252585599</v>
       </c>
       <c r="AS5">
-        <v>0.0001672945763345173</v>
+        <v>0.0001537000678799085</v>
       </c>
       <c r="AT5">
-        <v>8.554065723895006E-05</v>
+        <v>7.173702789922325E-05</v>
       </c>
       <c r="AU5">
-        <v>1.879157271153259E-05</v>
+        <v>4.817203818379962E-06</v>
       </c>
       <c r="AV5">
-        <v>7.608696888099134E-05</v>
+        <v>6.225915765862311E-05</v>
       </c>
       <c r="AW5">
-        <v>0.0002780007605263463</v>
+        <v>0.0002646894308536522</v>
       </c>
       <c r="AX5">
-        <v>8.824127634120752E-07</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.0001296932949107655</v>
+        <v>0.0001160026049722609</v>
       </c>
       <c r="AZ5">
-        <v>1.749824966256162E-05</v>
+        <v>3.520572538271738E-06</v>
       </c>
       <c r="BA5">
-        <v>0.0001109336702004426</v>
+        <v>9.719499443609253E-05</v>
       </c>
       <c r="BB5">
-        <v>0.0004235835360387582</v>
+        <v>0.0004106445970625578</v>
       </c>
       <c r="BC5">
-        <v>0.0001222577446292224</v>
+        <v>0.0001085480350660513</v>
       </c>
       <c r="BD5">
-        <v>5.838492221071305E-06</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>6.746303855445095E-05</v>
+        <v>5.361316791324343E-05</v>
       </c>
       <c r="BF5">
-        <v>2.113409080023075E-05</v>
+        <v>7.16571390674655E-06</v>
       </c>
       <c r="BG5">
-        <v>5.37094590336792E-05</v>
+        <v>3.982440768487084E-05</v>
       </c>
       <c r="BH5">
-        <v>2.759149104473667E-07</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>1.794682067954652E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>2.649972300339747E-05</v>
+        <v>1.254507102693201E-05</v>
       </c>
       <c r="BK5">
-        <v>0.000105730464003426</v>
+        <v>9.197847879657573E-05</v>
       </c>
       <c r="BL5">
-        <v>4.935222186869481E-06</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>8.558509324063261E-06</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.0001197947685359632</v>
+        <v>0.000106078758849858</v>
       </c>
       <c r="BO5">
-        <v>0.0001912667572422108</v>
+        <v>0.0001777335679726036</v>
       </c>
       <c r="BP5">
-        <v>9.387671355459026E-05</v>
+        <v>8.009440727184232E-05</v>
       </c>
       <c r="BQ5">
-        <v>0.0001889828671557326</v>
+        <v>0.0001754438358528421</v>
       </c>
       <c r="BR5">
-        <v>0.0003053383415614688</v>
+        <v>0.0002920969395351345</v>
       </c>
       <c r="BS5">
-        <v>0.0004737887579397514</v>
+        <v>0.0004609782404576839</v>
       </c>
       <c r="BT5">
-        <v>0.0004418960167321502</v>
+        <v>0.0004290039198182469</v>
       </c>
       <c r="BU5">
-        <v>0.0002217942583981179</v>
+        <v>0.0002083391563704776</v>
       </c>
       <c r="BV5">
-        <v>3.697789140014757E-07</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>2.743221103870562E-07</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>4.041152853016035E-07</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>6.678451852875916E-05</v>
+        <v>5.293291228013474E-05</v>
       </c>
       <c r="BZ5">
-        <v>0.0003951025849603426</v>
+        <v>0.0003820907936760887</v>
       </c>
       <c r="CA5">
-        <v>0.0002550702096580935</v>
+        <v>0.0002417002252181801</v>
       </c>
       <c r="CB5">
-        <v>0.0003400951128775148</v>
+        <v>0.000326942616274454</v>
       </c>
       <c r="CC5">
-        <v>0.0001109336702004426</v>
+        <v>9.719499443609253E-05</v>
       </c>
       <c r="CD5">
-        <v>0.0003068404716183461</v>
+        <v>0.0002936029119370704</v>
       </c>
       <c r="CE5">
-        <v>0.0007968227301712555</v>
+        <v>0.0007848385113051268</v>
       </c>
       <c r="CF5">
-        <v>0.0003863716446297503</v>
+        <v>0.0003733375202024492</v>
       </c>
       <c r="CG5">
-        <v>2.138867680987051E-05</v>
+        <v>7.420951129835932E-06</v>
       </c>
       <c r="CH5">
-        <v>5.972663726151634E-06</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>3.079800916614972E-05</v>
+        <v>1.685435190916425E-05</v>
       </c>
       <c r="CJ5">
-        <v>9.726513368289092E-06</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>3.737221841507855E-06</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.0001271903948159945</v>
+        <v>0.0001134933026317142</v>
       </c>
       <c r="CM5">
-        <v>6.9465366630268E-06</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.0863495332695777</v>
+        <v>0.08655638698227704</v>
       </c>
       <c r="CO5">
-        <v>0.003603458536442981</v>
+        <v>0.003598653498348911</v>
       </c>
       <c r="CP5">
-        <v>0.1755436566468642</v>
+        <v>0.1759786627739595</v>
       </c>
       <c r="CQ5">
-        <v>0.05457727806653869</v>
+        <v>0.05470286054228989</v>
       </c>
       <c r="CR5">
-        <v>0.0001035026539190712</v>
+        <v>8.97449701277143E-05</v>
       </c>
       <c r="CS5">
-        <v>0.01508487957118069</v>
+        <v>0.01510944321602878</v>
       </c>
       <c r="CT5">
-        <v>0.02558818696888266</v>
+        <v>0.02563961734946615</v>
       </c>
       <c r="CU5">
-        <v>0.05831454520804826</v>
+        <v>0.05844968735532592</v>
       </c>
       <c r="CV5">
-        <v>0.02761395404558722</v>
+        <v>0.02767056619860205</v>
       </c>
       <c r="CW5">
-        <v>0.006713228254192705</v>
+        <v>0.006716377792504064</v>
       </c>
       <c r="CX5">
-        <v>0.003902935847782524</v>
+        <v>0.003898896851990927</v>
       </c>
       <c r="CY5">
-        <v>0.005650647213958656</v>
+        <v>0.005651078743272996</v>
       </c>
       <c r="CZ5">
-        <v>0.004169288157867808</v>
+        <v>0.004165930472910657</v>
       </c>
       <c r="DA5">
-        <v>0.007806472795587809</v>
+        <v>0.007812418778016785</v>
       </c>
       <c r="DB5">
-        <v>0.001897625671852555</v>
+        <v>0.001888457230970547</v>
       </c>
       <c r="DC5">
-        <v>0.006994323264836213</v>
+        <v>0.006998191824792997</v>
       </c>
       <c r="DD5">
-        <v>0.002494031894435149</v>
+        <v>0.002486389019526444</v>
       </c>
       <c r="DE5">
-        <v>0.0003880012846914558</v>
+        <v>0.000374971328771009</v>
       </c>
       <c r="DF5">
-        <v>0.001865426270633342</v>
+        <v>0.001856175465904344</v>
       </c>
       <c r="DG5">
-        <v>0.0249916179462939</v>
+        <v>0.0250415223444729</v>
       </c>
       <c r="DH5">
-        <v>0.002822668906878809</v>
+        <v>0.00281586666277637</v>
       </c>
       <c r="DI5">
-        <v>0.0001912667572422108</v>
+        <v>0.0001777335679726036</v>
       </c>
       <c r="DJ5">
-        <v>0.007286155275886272</v>
+        <v>0.007290770321994811</v>
       </c>
       <c r="DK5">
-        <v>0.003728817341189623</v>
+        <v>0.003724332962270012</v>
       </c>
       <c r="DL5">
-        <v>0.01364889151680779</v>
+        <v>0.01366978200327679</v>
       </c>
       <c r="DM5">
-        <v>0.004146343756999031</v>
+        <v>0.004142927381847315</v>
       </c>
       <c r="DN5">
-        <v>0.003198124321095223</v>
+        <v>0.003192282466040941</v>
       </c>
       <c r="DO5">
-        <v>0.00376957184273277</v>
+        <v>0.00376519171101659</v>
       </c>
       <c r="DP5">
-        <v>0.003980931150735774</v>
+        <v>0.003977091661548496</v>
       </c>
       <c r="DQ5">
-        <v>0.0003068404716183461</v>
+        <v>0.0002936029119370704</v>
       </c>
       <c r="DR5">
-        <v>0.0009491147759377103</v>
+        <v>0.000937520109618535</v>
       </c>
       <c r="DS5">
-        <v>3.316940125594118E-06</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>9.046060342524111E-05</v>
+        <v>7.666955896844828E-05</v>
       </c>
       <c r="DU5">
-        <v>0.0002594492498239035</v>
+        <v>0.0002460904666666389</v>
       </c>
       <c r="DV5">
-        <v>0.007852615297334969</v>
+        <v>0.007858679309100199</v>
       </c>
       <c r="DW5">
-        <v>0.04855479883850081</v>
+        <v>0.04866497622785732</v>
       </c>
       <c r="DX5">
-        <v>0.01223919346343035</v>
+        <v>0.01225647803952915</v>
       </c>
       <c r="DY5">
-        <v>0.0005049982791214829</v>
+        <v>0.0004922675934415582</v>
       </c>
       <c r="DZ5">
-        <v>0.007180243571875983</v>
+        <v>0.007184587703152157</v>
       </c>
       <c r="EA5">
-        <v>2.651535300398929E-05</v>
+        <v>1.256074100798709E-05</v>
       </c>
       <c r="EB5">
-        <v>0.02546076796405801</v>
+        <v>0.02551187241561736</v>
       </c>
       <c r="EC5">
-        <v>0.002725256503190342</v>
+        <v>0.002718205084879423</v>
       </c>
       <c r="ED5">
-        <v>0.0003863716446297503</v>
+        <v>0.0003733375202024492</v>
       </c>
       <c r="EE5">
-        <v>0.007319182277136821</v>
+        <v>0.007323881804036137</v>
       </c>
       <c r="EF5">
-        <v>0.001755031066453288</v>
+        <v>0.001745497878407792</v>
       </c>
       <c r="EG5">
-        <v>0.0005801896519685628</v>
+        <v>0.0005676513006331805</v>
       </c>
       <c r="EH5">
-        <v>0.0001363794351639325</v>
+        <v>0.0001227058479109411</v>
       </c>
       <c r="EI5">
-        <v>0.0002275874186174727</v>
+        <v>0.0002141471350940229</v>
       </c>
       <c r="EJ5">
-        <v>0.002948713111651404</v>
+        <v>0.002942233279929407</v>
       </c>
       <c r="EK5">
-        <v>0.01625618761553162</v>
+        <v>0.01628374738555255</v>
       </c>
       <c r="EL5">
-        <v>0.001252582447428347</v>
+        <v>0.001241764030477629</v>
       </c>
       <c r="EM5">
-        <v>0.002367317089637163</v>
+        <v>0.002359350086999413</v>
       </c>
       <c r="EN5">
-        <v>0.003553914734567031</v>
+        <v>0.003548982966845624</v>
       </c>
       <c r="EO5">
-        <v>0.008562736324223313</v>
+        <v>0.008570616776586458</v>
       </c>
       <c r="EP5">
-        <v>0.0285297360802628</v>
+        <v>0.0285886907405456</v>
       </c>
       <c r="EQ5">
-        <v>0.02179666482531875</v>
+        <v>0.02183839675382339</v>
       </c>
       <c r="ER5">
-        <v>0.007840387796871982</v>
+        <v>0.007846420531534563</v>
       </c>
       <c r="ES5">
-        <v>0.007112565269313382</v>
+        <v>0.007116736284160499</v>
       </c>
       <c r="ET5">
-        <v>0.0005695266515648141</v>
+        <v>0.0005569610250100036</v>
       </c>
       <c r="EU5">
-        <v>0.0008434626319372498</v>
+        <v>0.0008315977147223082</v>
       </c>
       <c r="EV5">
-        <v>0.001727384665406473</v>
+        <v>0.001717780759774331</v>
       </c>
       <c r="EW5">
-        <v>0.00607999673021574</v>
+        <v>0.006081526505973284</v>
       </c>
       <c r="EX5">
-        <v>0.01415373253592332</v>
+        <v>0.01417591437089193</v>
       </c>
       <c r="EY5">
-        <v>0.01962856074322468</v>
+        <v>0.01966474681105755</v>
       </c>
       <c r="EZ5">
-        <v>0.01774970867208298</v>
+        <v>0.01778108876593356</v>
       </c>
       <c r="FA5">
-        <v>0.007631843688975575</v>
+        <v>0.007637342982196913</v>
       </c>
       <c r="FB5">
-        <v>0.004155236457335749</v>
+        <v>0.004151842829098016</v>
       </c>
       <c r="FC5">
-        <v>0.007490217283612969</v>
+        <v>0.00749535430625972</v>
       </c>
       <c r="FD5">
-        <v>7.323311277293163E-06</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.0006131545232167596</v>
+        <v>0.0006007004937478944</v>
       </c>
       <c r="FF5">
-        <v>0.0001499176656765502</v>
+        <v>0.000136278708283253</v>
       </c>
       <c r="FG5">
-        <v>0.0001581015159864272</v>
+        <v>0.0001444834923176463</v>
       </c>
       <c r="FH5">
-        <v>0.003325654125924069</v>
+        <v>0.003320138483312686</v>
       </c>
       <c r="FI5">
-        <v>0.006688370653251485</v>
+        <v>0.006691456607534479</v>
       </c>
       <c r="FJ5">
-        <v>0.01049228639728467</v>
+        <v>0.01050510250562152</v>
       </c>
       <c r="FK5">
-        <v>0.03323703425850207</v>
+        <v>0.0333080298627841</v>
       </c>
       <c r="FL5">
-        <v>0.02565004797122499</v>
+        <v>0.02570163658798489</v>
       </c>
       <c r="FM5">
-        <v>0.004485216669830269</v>
+        <v>0.00448266710821187</v>
       </c>
       <c r="FN5">
-        <v>0.003506348632765967</v>
+        <v>0.003501295194237578</v>
       </c>
       <c r="FO5">
-        <v>3.893047147408094E-06</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.007187520872151535</v>
+        <v>0.007191883618259777</v>
       </c>
       <c r="FQ5">
-        <v>0.004725198178917036</v>
+        <v>0.004723262473443362</v>
       </c>
       <c r="FR5">
-        <v>0.007206256772860959</v>
+        <v>0.007210667444110689</v>
       </c>
       <c r="FS5">
-        <v>0.007697097791446385</v>
+        <v>0.007702764000160182</v>
       </c>
       <c r="FT5">
-        <v>0.0005081048792391125</v>
+        <v>0.0004953821400279748</v>
       </c>
       <c r="FU5">
-        <v>0.0002657614300629107</v>
+        <v>0.0002524187930272414</v>
       </c>
       <c r="FV5">
-        <v>0.001411709953453623</v>
+        <v>0.001401298573685645</v>
       </c>
       <c r="FW5">
-        <v>0.0005643405213684443</v>
+        <v>0.0005517616290503652</v>
       </c>
       <c r="FX5">
-        <v>0.000620085073479181</v>
+        <v>0.0006076487718797716</v>
       </c>
       <c r="FY5">
-        <v>0.001210922445850914</v>
+        <v>0.001199997465490144</v>
       </c>
       <c r="FZ5">
-        <v>0.002502310694748622</v>
+        <v>0.002494688996439991</v>
       </c>
       <c r="GA5">
-        <v>5.536277409628107E-05</v>
+        <v>4.148195181334619E-05</v>
       </c>
       <c r="GB5">
-        <v>0.001839157269638681</v>
+        <v>0.001829839270617348</v>
       </c>
       <c r="GC5">
-        <v>0.003222979122036336</v>
+        <v>0.003217200843848212</v>
       </c>
       <c r="GD5">
-        <v>0.0007074411267868701</v>
+        <v>0.0006952282759454209</v>
       </c>
       <c r="GE5">
-        <v>7.228290273695246E-05</v>
+        <v>5.844536097581754E-05</v>
       </c>
       <c r="GF5">
-        <v>5.544394209935445E-07</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>0.0002892090809507432</v>
+        <v>0.0002759264213884702</v>
       </c>
       <c r="GH5">
-        <v>8.889207336584958E-05</v>
+        <v>7.509701671737244E-05</v>
       </c>
       <c r="GI5">
-        <v>0.001391958052705728</v>
+        <v>0.001381496148938254</v>
       </c>
       <c r="GJ5">
-        <v>1.515720957391943E-05</v>
+        <v>1.173544230583293E-06</v>
       </c>
       <c r="GK5">
-        <v>1.429810454138988E-05</v>
+        <v>3.122416666473138E-07</v>
       </c>
       <c r="GL5">
-        <v>0.001817908768834118</v>
+        <v>0.00180853641761359</v>
       </c>
       <c r="GM5">
-        <v>0.0007804572295515848</v>
+        <v>0.0007684311488638718</v>
       </c>
       <c r="GN5">
-        <v>0.0008522163322687039</v>
+        <v>0.0008403738064153217</v>
       </c>
       <c r="GO5">
-        <v>0.0003497800132442283</v>
+        <v>0.0003366522899481767</v>
       </c>
       <c r="GP5">
-        <v>0.0005474183207276944</v>
+        <v>0.0005347961425877821</v>
       </c>
       <c r="GQ5">
-        <v>0.0002892090809507432</v>
+        <v>0.0002759264213884702</v>
       </c>
       <c r="GR5">
-        <v>0.0005908776923732596</v>
+        <v>0.0005783666803079005</v>
       </c>
       <c r="GS5">
-        <v>0.0005181100196179517</v>
+        <v>0.000505412872865682</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0002635829910266604</v>
+        <v>0.0001455691381178196</v>
       </c>
       <c r="C6">
-        <v>0.0001124331861723586</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>5.326016818682694E-06</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>5.024180628958314E-05</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1.442211050901803E-06</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0002428912517310837</v>
+        <v>0.0001244860031771188</v>
       </c>
       <c r="H6">
-        <v>0.0003379205884959336</v>
+        <v>0.0002213128721859954</v>
       </c>
       <c r="I6">
-        <v>0.0001280408556410158</v>
+        <v>7.463148589082256E-06</v>
       </c>
       <c r="J6">
-        <v>0.0001347327154132002</v>
+        <v>1.428158857451982E-05</v>
       </c>
       <c r="K6">
-        <v>2.627818410539345E-06</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>4.487536247227673E-05</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>5.469574813795449E-06</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.000161654384496687</v>
+        <v>4.171249585631514E-05</v>
       </c>
       <c r="O6">
-        <v>0.0001228640158172546</v>
+        <v>2.188385988816775E-06</v>
       </c>
       <c r="P6">
-        <v>0.0001207162558903723</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0004610550843039801</v>
+        <v>0.0003467765248007933</v>
       </c>
       <c r="R6">
-        <v>0.0003379205884959336</v>
+        <v>0.0002213128721859954</v>
       </c>
       <c r="S6">
-        <v>1.072769563478957E-05</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>3.807227870387886E-05</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>5.582762809942111E-05</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>1.217958158536201E-06</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>1.489603349288394E-07</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>3.013029897425321E-05</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>2.05848732992148E-09</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0001388468352731403</v>
+        <v>1.847352927753637E-05</v>
       </c>
       <c r="AA6">
-        <v>1.401103552301254E-05</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>6.588291775710187E-07</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.0001440546150958482</v>
+        <v>2.377981712386938E-05</v>
       </c>
       <c r="AD6">
-        <v>0.0003417144883667753</v>
+        <v>0.0002251785357624527</v>
       </c>
       <c r="AE6">
-        <v>3.709691273708392E-05</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.0001357115053798785</v>
+        <v>1.527889289250411E-05</v>
       </c>
       <c r="AG6">
-        <v>0.0003020166397182368</v>
+        <v>0.0001847297804424217</v>
       </c>
       <c r="AH6">
-        <v>0.0003862496368506342</v>
+        <v>0.0002705560911084192</v>
       </c>
       <c r="AI6">
-        <v>0.0004070820461414219</v>
+        <v>0.000291782556894767</v>
       </c>
       <c r="AJ6">
-        <v>0.0003776915671419825</v>
+        <v>0.0002618361407977173</v>
       </c>
       <c r="AK6">
-        <v>2.224279624277297E-05</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>2.681631408707351E-05</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>1.329201954749051E-05</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>7.673102738779209E-06</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>5.402473316079832E-05</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>8.284135717977388E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.0003154981692592757</v>
+        <v>0.0001984663205399246</v>
       </c>
       <c r="AR6">
-        <v>9.193492687019516E-05</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>9.570492674185042E-05</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.0003532964879724812</v>
+        <v>0.0002369796152696956</v>
       </c>
       <c r="AU6">
-        <v>0.0004626235042505853</v>
+        <v>0.0003483746122745241</v>
       </c>
       <c r="AV6">
-        <v>5.120165025690649E-05</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>3.299979187656507E-05</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.0001625836344650519</v>
+        <v>4.26593230996328E-05</v>
       </c>
       <c r="AY6">
-        <v>3.342037486224686E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>3.161709392363721E-05</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.0002497637414971187</v>
+        <v>0.0001314884898722259</v>
       </c>
       <c r="BB6">
-        <v>0.0002142183727072145</v>
+        <v>9.527076085440834E-05</v>
       </c>
       <c r="BC6">
-        <v>5.637973808062525E-07</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>1.784596639245731E-07</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>1.126835261638361E-06</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>5.321598118833122E-05</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>2.606577211262474E-05</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>1.577897746282526E-06</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>2.335434420493177E-07</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>5.904641298984177E-05</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>7.223526754084439E-05</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.0001529472947931086</v>
+        <v>3.284070675540695E-05</v>
       </c>
       <c r="BM6">
-        <v>0.0003576353678247697</v>
+        <v>0.0002414005674241063</v>
       </c>
       <c r="BN6">
-        <v>0.0004739205838659909</v>
+        <v>0.0003598853823729253</v>
       </c>
       <c r="BO6">
-        <v>0.0004095398860577479</v>
+        <v>0.00029428688820681</v>
       </c>
       <c r="BP6">
-        <v>0.0004824320335762297</v>
+        <v>0.0003685578308422675</v>
       </c>
       <c r="BQ6">
-        <v>0.0004179520057713683</v>
+        <v>0.00030285812779794</v>
       </c>
       <c r="BR6">
-        <v>0.000137132225331512</v>
+        <v>1.672648654450981E-05</v>
       </c>
       <c r="BS6">
-        <v>1.579459946229343E-05</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>2.04449383039787E-05</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>4.271340554587773E-07</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>5.840139201180067E-05</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>5.922788498366379E-07</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>1.974051832795976E-05</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>9.263603684632677E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.0001504126048793988</v>
+        <v>3.02580717859532E-05</v>
       </c>
       <c r="CA6">
-        <v>0.0001873458336220551</v>
+        <v>6.788991289191808E-05</v>
       </c>
       <c r="CB6">
-        <v>0.0001288680156128562</v>
+        <v>8.305954747363294E-06</v>
       </c>
       <c r="CC6">
-        <v>0.0001280408556410158</v>
+        <v>7.463148589082256E-06</v>
       </c>
       <c r="CD6">
-        <v>0.0002551752713128902</v>
+        <v>0.0001370023817549603</v>
       </c>
       <c r="CE6">
-        <v>0.0005065248527560211</v>
+        <v>0.000393106378966399</v>
       </c>
       <c r="CF6">
-        <v>0.0003708860873736661</v>
+        <v>0.0002549019316313427</v>
       </c>
       <c r="CG6">
-        <v>0.0001701135242087066</v>
+        <v>5.03316448550112E-05</v>
       </c>
       <c r="CH6">
-        <v>0.0001543162647465037</v>
+        <v>3.423557152945547E-05</v>
       </c>
       <c r="CI6">
-        <v>0.0001510099048590645</v>
+        <v>3.086667002370802E-05</v>
       </c>
       <c r="CJ6">
-        <v>7.515260144152756E-07</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>7.038639760378677E-05</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>2.099862928512902E-05</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.01312548155316007</v>
+        <v>0.01325075759547637</v>
       </c>
       <c r="CN6">
-        <v>0.1189295259511992</v>
+        <v>0.1210561437667883</v>
       </c>
       <c r="CO6">
-        <v>0.1291972956016463</v>
+        <v>0.1315181339353327</v>
       </c>
       <c r="CP6">
-        <v>0.1046342814378622</v>
+        <v>0.106490496830118</v>
       </c>
       <c r="CQ6">
-        <v>0.001612473645105435</v>
+        <v>0.001519974801844326</v>
       </c>
       <c r="CR6">
-        <v>0.008374209214910954</v>
+        <v>0.008409612324100417</v>
       </c>
       <c r="CS6">
-        <v>0.001025517665087587</v>
+        <v>0.0009219162261878589</v>
       </c>
       <c r="CT6">
-        <v>0.08377068714813606</v>
+        <v>0.08523225616340122</v>
       </c>
       <c r="CU6">
-        <v>0.01979483032611078</v>
+        <v>0.02004626077373145</v>
       </c>
       <c r="CV6">
-        <v>0.02936382300034689</v>
+        <v>0.02979625621469587</v>
       </c>
       <c r="CW6">
-        <v>3.449916882552072E-08</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>0.003542655279394915</v>
+        <v>0.003486666884828706</v>
       </c>
       <c r="CY6">
-        <v>0.01119546861886485</v>
+        <v>0.01128423740353955</v>
       </c>
       <c r="CZ6">
-        <v>0.0004267209854728398</v>
+        <v>0.0003117929775801384</v>
       </c>
       <c r="DA6">
-        <v>0.004164333858230677</v>
+        <v>0.004120104856383825</v>
       </c>
       <c r="DB6">
-        <v>0.005510345412407467</v>
+        <v>0.005491576960447986</v>
       </c>
       <c r="DC6">
-        <v>0.0002438248116993018</v>
+        <v>0.0001254372219463108</v>
       </c>
       <c r="DD6">
-        <v>0.002469289715936247</v>
+        <v>0.002392998020561794</v>
       </c>
       <c r="DE6">
-        <v>0.001637972644237355</v>
+        <v>0.00154595612858886</v>
       </c>
       <c r="DF6">
-        <v>0.01304072155604562</v>
+        <v>0.0131643943163334</v>
       </c>
       <c r="DG6">
-        <v>0.01325831254863802</v>
+        <v>0.01338610116239284</v>
       </c>
       <c r="DH6">
-        <v>0.0001034721764774245</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.003593515477663446</v>
+        <v>0.003538489131759657</v>
       </c>
       <c r="DJ6">
-        <v>0.0001250307257434918</v>
+        <v>4.396080426663244E-06</v>
       </c>
       <c r="DK6">
-        <v>0.0150622444872255</v>
+        <v>0.01522415546714673</v>
       </c>
       <c r="DL6">
-        <v>2.167282726217682E-05</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.004899040133218559</v>
+        <v>0.004868708505215823</v>
       </c>
       <c r="DN6">
-        <v>0.003554248579000236</v>
+        <v>0.00349847947808128</v>
       </c>
       <c r="DO6">
-        <v>0.002250711923377444</v>
+        <v>0.002170285708671082</v>
       </c>
       <c r="DP6">
-        <v>0.001060510263896309</v>
+        <v>0.0009575707292758527</v>
       </c>
       <c r="DQ6">
-        <v>0.000438082585086049</v>
+        <v>0.0003233694881076371</v>
       </c>
       <c r="DR6">
-        <v>0.0006149643790643386</v>
+        <v>0.0005035970986398613</v>
       </c>
       <c r="DS6">
-        <v>0.0002634013610328437</v>
+        <v>0.0001453840724926339</v>
       </c>
       <c r="DT6">
-        <v>1.98986433225766E-05</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.0003673619274936416</v>
+        <v>0.0002513111103261929</v>
       </c>
       <c r="DV6">
-        <v>0.02797577204760127</v>
+        <v>0.02838194951368499</v>
       </c>
       <c r="DW6">
-        <v>0.03828830169652463</v>
+        <v>0.03888954634072925</v>
       </c>
       <c r="DX6">
-        <v>5.554804510893914E-05</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.002800624004656403</v>
+        <v>0.002730599679841421</v>
       </c>
       <c r="DZ6">
-        <v>0.003322419386892559</v>
+        <v>0.003262265109120782</v>
       </c>
       <c r="EA6">
-        <v>0.00941776867938433</v>
+        <v>0.009472911290603485</v>
       </c>
       <c r="EB6">
-        <v>0.01048767764296067</v>
+        <v>0.01056305817149751</v>
       </c>
       <c r="EC6">
-        <v>1.947531633698822E-06</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.003818599570000751</v>
+        <v>0.003767830813672642</v>
       </c>
       <c r="EE6">
-        <v>0.001365787953503528</v>
+        <v>0.00126862291451918</v>
       </c>
       <c r="EF6">
-        <v>0.001214679358647823</v>
+        <v>0.001114656017365998</v>
       </c>
       <c r="EG6">
-        <v>0.0005109143826065853</v>
+        <v>0.0003975789391916992</v>
       </c>
       <c r="EH6">
-        <v>7.255403752999228E-05</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.0004694507640181601</v>
+        <v>0.0003553310134208389</v>
       </c>
       <c r="EJ6">
-        <v>0.01456053850430543</v>
+        <v>0.01471295943923611</v>
       </c>
       <c r="EK6">
-        <v>0.007492648744922531</v>
+        <v>0.007511376652286851</v>
       </c>
       <c r="EL6">
-        <v>6.927644164157375E-05</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.002577384612256298</v>
+        <v>0.002503137591380949</v>
       </c>
       <c r="EN6">
-        <v>0.003349115285983732</v>
+        <v>0.003289465975846512</v>
       </c>
       <c r="EO6">
-        <v>0.01768429739796113</v>
+        <v>0.0178958059528318</v>
       </c>
       <c r="EP6">
-        <v>0.02836775903425659</v>
+        <v>0.02878135115008679</v>
       </c>
       <c r="EQ6">
-        <v>0.01212254358730379</v>
+        <v>0.01222884850560976</v>
       </c>
       <c r="ER6">
-        <v>0.01019934765277649</v>
+        <v>0.01026927426074606</v>
       </c>
       <c r="ES6">
-        <v>0.003262396588935957</v>
+        <v>0.003201106946882194</v>
       </c>
       <c r="ET6">
-        <v>0.000193725843404856</v>
+        <v>7.439060407366598E-05</v>
       </c>
       <c r="EU6">
-        <v>0.001330062354719759</v>
+        <v>0.001232221546357899</v>
       </c>
       <c r="EV6">
-        <v>0.00391998486654922</v>
+        <v>0.003871133868945104</v>
       </c>
       <c r="EW6">
-        <v>0.00781829673383627</v>
+        <v>0.00784318445226739</v>
       </c>
       <c r="EX6">
-        <v>0.01610230745181791</v>
+        <v>0.01628389179554782</v>
       </c>
       <c r="EY6">
-        <v>0.01731273941061033</v>
+        <v>0.01751721974150802</v>
       </c>
       <c r="EZ6">
-        <v>0.009755992667869934</v>
+        <v>0.009817532972114251</v>
       </c>
       <c r="FA6">
-        <v>0.004338811452290815</v>
+        <v>0.00429788279023229</v>
       </c>
       <c r="FB6">
-        <v>0.005270204320582758</v>
+        <v>0.005246893467609379</v>
       </c>
       <c r="FC6">
-        <v>0.000482186283584596</v>
+        <v>0.0003683074323541908</v>
       </c>
       <c r="FD6">
-        <v>0.001063253063802934</v>
+        <v>0.000960365410753358</v>
       </c>
       <c r="FE6">
-        <v>0.0002986438898330577</v>
+        <v>0.0001812932331355617</v>
       </c>
       <c r="FF6">
-        <v>1.673041643043476E-05</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.001415189351821722</v>
+        <v>0.001318958767495272</v>
       </c>
       <c r="FH6">
-        <v>0.004045041562291828</v>
+        <v>0.003998556080964911</v>
       </c>
       <c r="FI6">
-        <v>0.003876635468024994</v>
+        <v>0.00382696449267233</v>
       </c>
       <c r="FJ6">
-        <v>0.02018348431287956</v>
+        <v>0.02044226636471815</v>
       </c>
       <c r="FK6">
-        <v>0.03196178891190252</v>
+        <v>0.03244336408234511</v>
       </c>
       <c r="FL6">
-        <v>0.008957177695064551</v>
+        <v>0.009003607974136513</v>
       </c>
       <c r="FM6">
-        <v>0.003888762467612146</v>
+        <v>0.003839320881135836</v>
       </c>
       <c r="FN6">
-        <v>0.001093610462769456</v>
+        <v>0.000991297036641216</v>
       </c>
       <c r="FO6">
-        <v>0.003859296868615264</v>
+        <v>0.003809297924105219</v>
       </c>
       <c r="FP6">
-        <v>0.005848638000890736</v>
+        <v>0.005836268539563155</v>
       </c>
       <c r="FQ6">
-        <v>0.007186296155351907</v>
+        <v>0.00719922923475529</v>
       </c>
       <c r="FR6">
-        <v>0.007963080728907288</v>
+        <v>0.00799070711634757</v>
       </c>
       <c r="FS6">
-        <v>0.003158386492476845</v>
+        <v>0.003095129442163123</v>
       </c>
       <c r="FT6">
-        <v>0.0002466974416015069</v>
+        <v>0.0001283641892252687</v>
       </c>
       <c r="FU6">
-        <v>0.0007399102048107208</v>
+        <v>0.0006309063434964011</v>
       </c>
       <c r="FV6">
-        <v>0.001532411847831035</v>
+        <v>0.001438398591579003</v>
       </c>
       <c r="FW6">
-        <v>0.0002497637414971187</v>
+        <v>0.0001314884898722259</v>
       </c>
       <c r="FX6">
-        <v>0.0008767343701527202</v>
+        <v>0.0007703186132842189</v>
       </c>
       <c r="FY6">
-        <v>0.002379456418994505</v>
+        <v>0.002301465477331091</v>
       </c>
       <c r="FZ6">
-        <v>0.00110372236242521</v>
+        <v>0.001001600208448269</v>
       </c>
       <c r="GA6">
-        <v>0.0005233394121835912</v>
+        <v>0.0004102389950464631</v>
       </c>
       <c r="GB6">
-        <v>0.00258480001200385</v>
+        <v>0.002510693257498892</v>
       </c>
       <c r="GC6">
-        <v>0.001724204841301692</v>
+        <v>0.001633819455154605</v>
       </c>
       <c r="GD6">
-        <v>0.0006083461792896467</v>
+        <v>0.0004968537119713382</v>
       </c>
       <c r="GE6">
-        <v>0.0004095398860577479</v>
+        <v>0.00029428688820681</v>
       </c>
       <c r="GF6">
-        <v>2.907148201029926E-05</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>8.120146723560182E-06</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.0005492527813014044</v>
+        <v>0.0004366425298133947</v>
       </c>
       <c r="GI6">
-        <v>0.0005356546417643352</v>
+        <v>0.0004227871739775615</v>
       </c>
       <c r="GJ6">
-        <v>1.342895754282863E-05</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.0007669262438909949</v>
+        <v>0.0006584334058354489</v>
       </c>
       <c r="GL6">
-        <v>0.001114627562053956</v>
+        <v>0.001012711685934229</v>
       </c>
       <c r="GM6">
-        <v>0.0005881162799783471</v>
+        <v>0.0004762411529725839</v>
       </c>
       <c r="GN6">
-        <v>0.0006276985286308211</v>
+        <v>0.0005165721216589561</v>
       </c>
       <c r="GO6">
-        <v>1.831836337637518E-06</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.0006638854773988835</v>
+        <v>0.0005534435664935805</v>
       </c>
       <c r="GQ6">
-        <v>0.0006507875278447861</v>
+        <v>0.0005400978620097356</v>
       </c>
       <c r="GR6">
-        <v>0.0005230834221923061</v>
+        <v>0.0004099781628635017</v>
       </c>
       <c r="GS6">
-        <v>2.34685202010448E-05</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0001734890174506604</v>
+        <v>0.000165608987562324</v>
       </c>
       <c r="C2">
-        <v>0.0005505522719098931</v>
+        <v>0.0005351120079752467</v>
       </c>
       <c r="D2">
-        <v>0.0009411444661703244</v>
+        <v>0.0009181652208722173</v>
       </c>
       <c r="E2">
-        <v>0.001188571112534506</v>
+        <v>0.001157827986359074</v>
       </c>
       <c r="F2">
-        <v>0.001398073719455964</v>
+        <v>0.001359507137329734</v>
       </c>
       <c r="G2">
-        <v>0.00153014350751526</v>
+        <v>0.001483631829814909</v>
       </c>
       <c r="H2">
-        <v>0.001674009165401222</v>
+        <v>0.001619570922320839</v>
       </c>
       <c r="I2">
-        <v>0.001756652424186818</v>
+        <v>0.001694191441136933</v>
       </c>
       <c r="J2">
-        <v>0.001760958827423538</v>
+        <v>0.001694191441136933</v>
       </c>
       <c r="K2">
-        <v>0.001761154998220655</v>
+        <v>0.001694191441136933</v>
       </c>
       <c r="L2">
-        <v>0.001769294776101045</v>
+        <v>0.001694191441136933</v>
       </c>
       <c r="M2">
-        <v>0.001794800546726249</v>
+        <v>0.001711584714211292</v>
       </c>
       <c r="N2">
-        <v>0.001859319455778174</v>
+        <v>0.001768052411657179</v>
       </c>
       <c r="O2">
-        <v>0.001955167514369732</v>
+        <v>0.001855898473768857</v>
       </c>
       <c r="P2">
-        <v>0.002099621142247054</v>
+        <v>0.001992426459911306</v>
       </c>
       <c r="Q2">
-        <v>0.00229640146935546</v>
+        <v>0.002181363345572493</v>
       </c>
       <c r="R2">
-        <v>0.00246600946686315</v>
+        <v>0.00234308521647716</v>
       </c>
       <c r="S2">
-        <v>0.002665440663932602</v>
+        <v>0.002534677136364989</v>
       </c>
       <c r="T2">
-        <v>0.002928186640071674</v>
+        <v>0.002789683296842632</v>
       </c>
       <c r="U2">
-        <v>0.003203285996029218</v>
+        <v>0.003057062243128223</v>
       </c>
       <c r="V2">
-        <v>0.003460968452242696</v>
+        <v>0.003306996929370129</v>
       </c>
       <c r="W2">
-        <v>0.003667555329206998</v>
+        <v>0.003505755770048076</v>
       </c>
       <c r="X2">
-        <v>0.003791654237383423</v>
+        <v>0.003621897061153153</v>
       </c>
       <c r="Y2">
-        <v>0.00382336281991748</v>
+        <v>0.00364550289016629</v>
       </c>
       <c r="Z2">
-        <v>0.003834938827747376</v>
+        <v>0.003648944518107538</v>
       </c>
       <c r="AA2">
-        <v>0.003860762643367907</v>
+        <v>0.003666656335795783</v>
       </c>
       <c r="AB2">
-        <v>0.003860775484247719</v>
+        <v>0.003666656335795783</v>
       </c>
       <c r="AC2">
-        <v>0.003876198328021087</v>
+        <v>0.003673950842695365</v>
       </c>
       <c r="AD2">
-        <v>0.003909055449538268</v>
+        <v>0.003698707014937568</v>
       </c>
       <c r="AE2">
-        <v>0.004006892808100593</v>
+        <v>0.003788545502021824</v>
       </c>
       <c r="AF2">
-        <v>0.004133253856243777</v>
+        <v>0.003906952486701259</v>
       </c>
       <c r="AG2">
-        <v>0.004282055684057204</v>
+        <v>0.004047835503390014</v>
       </c>
       <c r="AH2">
-        <v>0.004480795921136809</v>
+        <v>0.004238735377855306</v>
       </c>
       <c r="AI2">
-        <v>0.004707446477806286</v>
+        <v>0.004457589416378638</v>
       </c>
       <c r="AJ2">
-        <v>0.004956356634148668</v>
+        <v>0.004698738022297339</v>
       </c>
       <c r="AK2">
-        <v>0.005142042971420095</v>
+        <v>0.004876563490514432</v>
       </c>
       <c r="AL2">
-        <v>0.005331166978641007</v>
+        <v>0.005057832028934855</v>
       </c>
       <c r="AM2">
-        <v>0.005495679256223576</v>
+        <v>0.00521445017502111</v>
       </c>
       <c r="AN2">
-        <v>0.005671241703643769</v>
+        <v>0.005382135849715035</v>
       </c>
       <c r="AO2">
-        <v>0.005776672622094511</v>
+        <v>0.005479579825450965</v>
       </c>
       <c r="AP2">
-        <v>0.005816722806505992</v>
+        <v>0.005511540360207887</v>
       </c>
       <c r="AQ2">
-        <v>0.005830584713302298</v>
+        <v>0.00551727147804628</v>
       </c>
       <c r="AR2">
-        <v>0.005832526272573768</v>
+        <v>0.00551727147804628</v>
       </c>
       <c r="AS2">
-        <v>0.005864234855107825</v>
+        <v>0.005540877307059417</v>
       </c>
       <c r="AT2">
-        <v>0.005903015937537955</v>
+        <v>0.005571566746195996</v>
       </c>
       <c r="AU2">
-        <v>0.00596603090261198</v>
+        <v>0.005626528137110459</v>
       </c>
       <c r="AV2">
-        <v>0.006071965235055325</v>
+        <v>0.005724476317654686</v>
       </c>
       <c r="AW2">
-        <v>0.00618412700340716</v>
+        <v>0.005828661716819298</v>
       </c>
       <c r="AX2">
-        <v>0.006302694031664873</v>
+        <v>0.005939262437946339</v>
       </c>
       <c r="AY2">
-        <v>0.006450181609497612</v>
+        <v>0.006078829140092184</v>
       </c>
       <c r="AZ2">
-        <v>0.006624316246938785</v>
+        <v>0.006245084761852867</v>
       </c>
       <c r="BA2">
-        <v>0.006816282704117929</v>
+        <v>0.006429200215451144</v>
       </c>
       <c r="BB2">
-        <v>0.007016601451174339</v>
+        <v>0.006621681079582884</v>
       </c>
       <c r="BC2">
-        <v>0.007207699078366249</v>
+        <v>0.006804926338344322</v>
       </c>
       <c r="BD2">
-        <v>0.007437460344990015</v>
+        <v>0.007026895973452608</v>
       </c>
       <c r="BE2">
-        <v>0.007636891542059467</v>
+        <v>0.007218487893340437</v>
       </c>
       <c r="BF2">
-        <v>0.007711889994957401</v>
+        <v>0.007285451597003</v>
       </c>
       <c r="BG2">
-        <v>0.007743070521499217</v>
+        <v>0.007308528540497955</v>
       </c>
       <c r="BH2">
-        <v>0.007759694378254938</v>
+        <v>0.007317025947057514</v>
       </c>
       <c r="BI2">
-        <v>0.007764646032482176</v>
+        <v>0.007317025947057514</v>
       </c>
       <c r="BJ2">
-        <v>0.007770657682393838</v>
+        <v>0.007317025947057514</v>
       </c>
       <c r="BK2">
-        <v>0.007792565237071916</v>
+        <v>0.007330815351728349</v>
       </c>
       <c r="BL2">
-        <v>0.007850084082226703</v>
+        <v>0.007380271988839822</v>
       </c>
       <c r="BM2">
-        <v>0.007908799411363909</v>
+        <v>0.007430926989496708</v>
       </c>
       <c r="BN2">
-        <v>0.007968966777479778</v>
+        <v>0.007483036308144801</v>
       </c>
       <c r="BO2">
-        <v>0.008111705155382305</v>
+        <v>0.007617846349817227</v>
       </c>
       <c r="BP2">
-        <v>0.008305607452533002</v>
+        <v>0.007803900684408274</v>
       </c>
       <c r="BQ2">
-        <v>0.008584069898441127</v>
+        <v>0.008074648003740177</v>
       </c>
       <c r="BR2">
-        <v>0.008977770122655887</v>
+        <v>0.008460814129012116</v>
       </c>
       <c r="BS2">
-        <v>0.009369604096898071</v>
+        <v>0.008845111072609558</v>
       </c>
       <c r="BT2">
-        <v>0.00969663679209248</v>
+        <v>0.009164504940488379</v>
       </c>
       <c r="BU2">
-        <v>0.009915789258872137</v>
+        <v>0.009375849110332958</v>
       </c>
       <c r="BV2">
-        <v>0.01011100510600353</v>
+        <v>0.009563219058367291</v>
       </c>
       <c r="BW2">
-        <v>0.01023455908418796</v>
+        <v>0.009678814563446979</v>
       </c>
       <c r="BX2">
-        <v>0.01030751647811589</v>
+        <v>0.00974373400182924</v>
       </c>
       <c r="BY2">
-        <v>0.01033405339372594</v>
+        <v>0.009762160039719541</v>
       </c>
       <c r="BZ2">
-        <v>0.01033710048988117</v>
+        <v>0.009762160039719541</v>
       </c>
       <c r="CA2">
-        <v>0.01033940772384726</v>
+        <v>0.009762160039719541</v>
       </c>
       <c r="CB2">
-        <v>0.01034577545045369</v>
+        <v>0.009762160039719541</v>
       </c>
       <c r="CC2">
-        <v>0.0103700287540973</v>
+        <v>0.009778298878305322</v>
       </c>
       <c r="CD2">
-        <v>0.01045455460285523</v>
+        <v>0.009854804944464264</v>
       </c>
       <c r="CE2">
-        <v>0.0106396255201357</v>
+        <v>0.01003201402592389</v>
       </c>
       <c r="CF2">
-        <v>0.01090237149627477</v>
+        <v>0.01028702018640153</v>
       </c>
       <c r="CG2">
-        <v>0.01126588089093317</v>
+        <v>0.01064294805518382</v>
       </c>
       <c r="CH2">
-        <v>0.01166870185501391</v>
+        <v>0.01103824924814006</v>
       </c>
       <c r="CI2">
-        <v>0.01210626157858417</v>
+        <v>0.01146834377188624</v>
       </c>
       <c r="CJ2">
-        <v>0.01243531830374884</v>
+        <v>0.01178976484929467</v>
       </c>
       <c r="CK2">
-        <v>0.01269704761990285</v>
+        <v>0.01204375275271072</v>
       </c>
       <c r="CL2">
-        <v>0.01293063108647045</v>
+        <v>0.01226955059207688</v>
       </c>
       <c r="CM2">
-        <v>0.01311570200375092</v>
+        <v>0.01244675967353651</v>
       </c>
       <c r="CN2">
-        <v>0.03599667166752583</v>
+        <v>0.0353555206084693</v>
       </c>
       <c r="CO2">
-        <v>0.129825590288754</v>
+        <v>0.1293236830078635</v>
       </c>
       <c r="CP2">
-        <v>0.260704768365546</v>
+        <v>0.260400307310705</v>
       </c>
       <c r="CQ2">
-        <v>0.3998176963213469</v>
+        <v>0.3997236159336431</v>
       </c>
       <c r="CR2">
-        <v>0.4000443468780164</v>
+        <v>0.3999424699721665</v>
       </c>
       <c r="CS2">
-        <v>0.4043673623144917</v>
+        <v>0.4042641238916787</v>
       </c>
       <c r="CT2">
-        <v>0.4051267448033329</v>
+        <v>0.4050165467337742</v>
       </c>
       <c r="CU2">
-        <v>0.4638870219398783</v>
+        <v>0.4638609781347185</v>
       </c>
       <c r="CV2">
-        <v>0.4813418486833878</v>
+        <v>0.4813350721928695</v>
       </c>
       <c r="CW2">
-        <v>0.4918771415285766</v>
+        <v>0.4918787624204236</v>
       </c>
       <c r="CX2">
-        <v>0.4959700834684328</v>
+        <v>0.4959699814196479</v>
       </c>
       <c r="CY2">
-        <v>0.4969272567543676</v>
+        <v>0.4969205057694428</v>
       </c>
       <c r="CZ2">
-        <v>0.5028411503674657</v>
+        <v>0.5028355369844916</v>
       </c>
       <c r="DA2">
-        <v>0.5111971022446788</v>
+        <v>0.5111964627058554</v>
       </c>
       <c r="DB2">
-        <v>0.5200834411140983</v>
+        <v>0.5200886086071473</v>
       </c>
       <c r="DC2">
-        <v>0.5270546433116597</v>
+        <v>0.5270626093382882</v>
       </c>
       <c r="DD2">
-        <v>0.5272874789582384</v>
+        <v>0.527287658182911</v>
       </c>
       <c r="DE2">
-        <v>0.5302436619147987</v>
+        <v>0.5302403324581605</v>
       </c>
       <c r="DF2">
-        <v>0.531195017160819</v>
+        <v>0.5311850296284513</v>
       </c>
       <c r="DG2">
-        <v>0.5452150519548011</v>
+        <v>0.5452189360042954</v>
       </c>
       <c r="DH2">
-        <v>0.5560143717961102</v>
+        <v>0.5560270679893697</v>
       </c>
       <c r="DI2">
-        <v>0.5563701426308824</v>
+        <v>0.5563752451417212</v>
       </c>
       <c r="DJ2">
-        <v>0.5582728246029234</v>
+        <v>0.5582727634822013</v>
       </c>
       <c r="DK2">
-        <v>0.5583017681194981</v>
+        <v>0.5582935999015984</v>
       </c>
       <c r="DL2">
-        <v>0.580205774797629</v>
+        <v>0.5802238631345832</v>
       </c>
       <c r="DM2">
-        <v>0.5821727417687254</v>
+        <v>0.5821857674597626</v>
       </c>
       <c r="DN2">
-        <v>0.5835034254491716</v>
+        <v>0.5835103889535166</v>
       </c>
       <c r="DO2">
-        <v>0.5839760952422259</v>
+        <v>0.5839756487013401</v>
       </c>
       <c r="DP2">
-        <v>0.5843970328360405</v>
+        <v>0.5843890949835393</v>
       </c>
       <c r="DQ2">
-        <v>0.5844067662628974</v>
+        <v>0.5843906911359875</v>
       </c>
       <c r="DR2">
-        <v>0.5867160024289643</v>
+        <v>0.5866954023286201</v>
       </c>
       <c r="DS2">
-        <v>0.5884942189028343</v>
+        <v>0.588468259647422</v>
       </c>
       <c r="DT2">
-        <v>0.5885600046468675</v>
+        <v>0.5885259961699271</v>
       </c>
       <c r="DU2">
-        <v>0.5894471854338308</v>
+        <v>0.5894064180691648</v>
       </c>
       <c r="DV2">
-        <v>0.5927141753858239</v>
+        <v>0.5926703875881946</v>
       </c>
       <c r="DW2">
-        <v>0.6240947249247015</v>
+        <v>0.6240920804330601</v>
       </c>
       <c r="DX2">
-        <v>0.6567672374445943</v>
+        <v>0.656807765810398</v>
       </c>
       <c r="DY2">
-        <v>0.6581278592246006</v>
+        <v>0.6581623724336305</v>
       </c>
       <c r="DZ2">
-        <v>0.6586592743167917</v>
+        <v>0.6586864697638909</v>
       </c>
       <c r="EA2">
-        <v>0.6587721019451338</v>
+        <v>0.6587913220690487</v>
       </c>
       <c r="EB2">
-        <v>0.6838169745771112</v>
+        <v>0.6838673852587633</v>
       </c>
       <c r="EC2">
-        <v>0.6966124363890879</v>
+        <v>0.6966747949644494</v>
       </c>
       <c r="ED2">
-        <v>0.6977822656718978</v>
+        <v>0.6978383093735459</v>
       </c>
       <c r="EE2">
-        <v>0.7075412415284943</v>
+        <v>0.7076044630920579</v>
       </c>
       <c r="EF2">
-        <v>0.7115602174694373</v>
+        <v>0.7116215998987916</v>
       </c>
       <c r="EG2">
-        <v>0.714677253423634</v>
+        <v>0.7147353798564993</v>
       </c>
       <c r="EH2">
-        <v>0.7156995955086112</v>
+        <v>0.7157511753793465</v>
       </c>
       <c r="EI2">
-        <v>0.715922481255336</v>
+        <v>0.7159662586937654</v>
       </c>
       <c r="EJ2">
-        <v>0.7192208365068682</v>
+        <v>0.7192616427842486</v>
       </c>
       <c r="EK2">
-        <v>0.7401939111986787</v>
+        <v>0.7402595116249484</v>
       </c>
       <c r="EL2">
-        <v>0.7475811510901267</v>
+        <v>0.7476502036057822</v>
       </c>
       <c r="EM2">
-        <v>0.7477863866571108</v>
+        <v>0.7478476090137</v>
       </c>
       <c r="EN2">
-        <v>0.752576592586721</v>
+        <v>0.7526371873383554</v>
       </c>
       <c r="EO2">
-        <v>0.7587985534952922</v>
+        <v>0.7588607697934155</v>
       </c>
       <c r="EP2">
-        <v>0.7808281731715774</v>
+        <v>0.7809168433506755</v>
       </c>
       <c r="EQ2">
-        <v>0.8060300728012473</v>
+        <v>0.8061501802126211</v>
       </c>
       <c r="ER2">
-        <v>0.8173828946344229</v>
+        <v>0.8175126836887587</v>
       </c>
       <c r="ES2">
-        <v>0.8279859564786159</v>
+        <v>0.8281242493739948</v>
       </c>
       <c r="ET2">
-        <v>0.8322299990162517</v>
+        <v>0.8323668063357244</v>
       </c>
       <c r="EU2">
-        <v>0.8329283779059894</v>
+        <v>0.8330581297478409</v>
       </c>
       <c r="EV2">
-        <v>0.8329753722782989</v>
+        <v>0.8330970453791572</v>
       </c>
       <c r="EW2">
-        <v>0.8339767459635842</v>
+        <v>0.8340918395629429</v>
       </c>
       <c r="EX2">
-        <v>0.8387223894938491</v>
+        <v>0.8388367854849451</v>
       </c>
       <c r="EY2">
-        <v>0.8511512393112131</v>
+        <v>0.8512770072833035</v>
       </c>
       <c r="EZ2">
-        <v>0.8640712781213592</v>
+        <v>0.8642091896858221</v>
       </c>
       <c r="FA2">
-        <v>0.8701441960321206</v>
+        <v>0.8702834950106415</v>
       </c>
       <c r="FB2">
-        <v>0.8716815778095295</v>
+        <v>0.8718151393044883</v>
       </c>
       <c r="FC2">
-        <v>0.8743127117708662</v>
+        <v>0.8744422539633341</v>
       </c>
       <c r="FD2">
-        <v>0.8744096198854422</v>
+        <v>0.8745311617466777</v>
       </c>
       <c r="FE2">
-        <v>0.8753967015709375</v>
+        <v>0.8755116414792956</v>
       </c>
       <c r="FF2">
-        <v>0.8754150308516682</v>
+        <v>0.8755218469888896</v>
       </c>
       <c r="FG2">
-        <v>0.8755795431292507</v>
+        <v>0.8756784651349758</v>
       </c>
       <c r="FH2">
-        <v>0.8772457451047666</v>
+        <v>0.8773391319912579</v>
       </c>
       <c r="FI2">
-        <v>0.8796065525700757</v>
+        <v>0.8796954954967584</v>
       </c>
       <c r="FJ2">
-        <v>0.8824253763286544</v>
+        <v>0.8825105947957381</v>
       </c>
       <c r="FK2">
-        <v>0.8975654541061781</v>
+        <v>0.8976663036365506</v>
       </c>
       <c r="FL2">
-        <v>0.9163682838298793</v>
+        <v>0.9164905182598806</v>
       </c>
       <c r="FM2">
-        <v>0.9179635049064383</v>
+        <v>0.9180800927129373</v>
       </c>
       <c r="FN2">
-        <v>0.9183116204413229</v>
+        <v>0.9184206025396504</v>
       </c>
       <c r="FO2">
-        <v>0.9183117073196716</v>
+        <v>0.9184206025396504</v>
       </c>
       <c r="FP2">
-        <v>0.9269075151933602</v>
+        <v>0.927021761048539</v>
       </c>
       <c r="FQ2">
-        <v>0.9365182145521356</v>
+        <v>0.9366394053408978</v>
       </c>
       <c r="FR2">
-        <v>0.945222039424237</v>
+        <v>0.9453487505326713</v>
       </c>
       <c r="FS2">
-        <v>0.9553946312747555</v>
+        <v>0.9555291699966507</v>
       </c>
       <c r="FT2">
-        <v>0.9594615082149947</v>
+        <v>0.9595942830506128</v>
       </c>
       <c r="FU2">
-        <v>0.9598552084392095</v>
+        <v>0.9599804491758848</v>
       </c>
       <c r="FV2">
-        <v>0.9606579590674135</v>
+        <v>0.9607763082845818</v>
       </c>
       <c r="FW2">
-        <v>0.9615511712142881</v>
+        <v>0.9616627710184261</v>
       </c>
       <c r="FX2">
-        <v>0.9616145455033569</v>
+        <v>0.9617180922977993</v>
       </c>
       <c r="FY2">
-        <v>0.9618512287198789</v>
+        <v>0.9619469947565334</v>
       </c>
       <c r="FZ2">
-        <v>0.9629253983040945</v>
+        <v>0.9630146991947108</v>
       </c>
       <c r="GA2">
-        <v>0.9629261924697828</v>
+        <v>0.9630146991947108</v>
       </c>
       <c r="GB2">
-        <v>0.9654199869331377</v>
+        <v>0.9655042586082334</v>
       </c>
       <c r="GC2">
-        <v>0.9734676793148807</v>
+        <v>0.9735564405876607</v>
       </c>
       <c r="GD2">
-        <v>0.9796352872242505</v>
+        <v>0.9797255846601066</v>
       </c>
       <c r="GE2">
-        <v>0.9823126074849086</v>
+        <v>0.9823989581725748</v>
       </c>
       <c r="GF2">
-        <v>0.9839015661615595</v>
+        <v>0.9839822603880866</v>
       </c>
       <c r="GG2">
-        <v>0.9844630635533086</v>
+        <v>0.9845364872743478</v>
       </c>
       <c r="GH2">
-        <v>0.9851197766936585</v>
+        <v>0.9851860794841313</v>
       </c>
       <c r="GI2">
-        <v>0.9872269816626941</v>
+        <v>0.9872884421078602</v>
       </c>
       <c r="GJ2">
-        <v>0.9886657623415519</v>
+        <v>0.9887213304101703</v>
       </c>
       <c r="GK2">
-        <v>0.9887104194808957</v>
+        <v>0.9887579051369493</v>
       </c>
       <c r="GL2">
-        <v>0.9891638797742323</v>
+        <v>0.9892039252087507</v>
       </c>
       <c r="GM2">
-        <v>0.9894900955694387</v>
+        <v>0.989522500893369</v>
       </c>
       <c r="GN2">
-        <v>0.9895399289847064</v>
+        <v>0.9895642600275111</v>
       </c>
       <c r="GO2">
-        <v>0.9895523751535236</v>
+        <v>0.98956857318338</v>
       </c>
       <c r="GP2">
-        <v>0.9908130121349991</v>
+        <v>0.9908230379414346</v>
       </c>
       <c r="GQ2">
-        <v>0.9941113673865313</v>
+        <v>0.9941184220319178</v>
       </c>
       <c r="GR2">
-        <v>0.9972812005399521</v>
+        <v>0.9972850821282482</v>
       </c>
       <c r="GS2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW2">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,601 +7418,601 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>2.525860719592457E-05</v>
+        <v>1.358207457849937E-05</v>
       </c>
       <c r="C3">
-        <v>0.0002024816875215664</v>
+        <v>0.0001794595179058853</v>
       </c>
       <c r="D3">
-        <v>0.0004659067582775244</v>
+        <v>0.0004317266525150405</v>
       </c>
       <c r="E3">
-        <v>0.0005912810843591375</v>
+        <v>0.0005456424433315502</v>
       </c>
       <c r="F3">
-        <v>0.0007499816167410536</v>
+        <v>0.0006929570067228426</v>
       </c>
       <c r="G3">
-        <v>0.001127896034787017</v>
+        <v>0.001059962783886084</v>
       </c>
       <c r="H3">
-        <v>0.001405720103944475</v>
+        <v>0.001326660270050496</v>
       </c>
       <c r="I3">
-        <v>0.00158802888370553</v>
+        <v>0.001497634486688845</v>
       </c>
       <c r="J3">
-        <v>0.001687752187634782</v>
+        <v>0.001585843401437387</v>
       </c>
       <c r="K3">
-        <v>0.001709341894238008</v>
+        <v>0.001595748586561659</v>
       </c>
       <c r="L3">
-        <v>0.001710523727606808</v>
+        <v>0.001595748586561659</v>
       </c>
       <c r="M3">
-        <v>0.001722229770307265</v>
+        <v>0.001595748586561659</v>
       </c>
       <c r="N3">
-        <v>0.001723973623413672</v>
+        <v>0.001595748586561659</v>
       </c>
       <c r="O3">
-        <v>0.00175914764350884</v>
+        <v>0.001619267664392877</v>
       </c>
       <c r="P3">
-        <v>0.001910233616736084</v>
+        <v>0.001758951088278746</v>
       </c>
       <c r="Q3">
-        <v>0.001971045529985071</v>
+        <v>0.001808163884591603</v>
       </c>
       <c r="R3">
-        <v>0.002126829982690715</v>
+        <v>0.001952556018677857</v>
       </c>
       <c r="S3">
-        <v>0.002238558390287225</v>
+        <v>0.002052796177652231</v>
       </c>
       <c r="T3">
-        <v>0.002289979614578715</v>
+        <v>0.002092597837216256</v>
       </c>
       <c r="U3">
-        <v>0.002354486661417488</v>
+        <v>0.002145513813101567</v>
       </c>
       <c r="V3">
-        <v>0.002624118631484389</v>
+        <v>0.002404001362258144</v>
       </c>
       <c r="W3">
-        <v>0.002693640929766396</v>
+        <v>0.002461943510064991</v>
       </c>
       <c r="X3">
-        <v>0.002716194269262645</v>
+        <v>0.002472814426348388</v>
       </c>
       <c r="Y3">
-        <v>0.002716850247589822</v>
+        <v>0.002472814426348388</v>
       </c>
       <c r="Z3">
-        <v>0.002720203452217567</v>
+        <v>0.002472814426348388</v>
       </c>
       <c r="AA3">
-        <v>0.00277331218132172</v>
+        <v>0.002514307265188838</v>
       </c>
       <c r="AB3">
-        <v>0.002857929586927948</v>
+        <v>0.002587377389218682</v>
       </c>
       <c r="AC3">
-        <v>0.002859485010555273</v>
+        <v>0.002587377389218682</v>
       </c>
       <c r="AD3">
-        <v>0.002863277582134242</v>
+        <v>0.002587377389218682</v>
       </c>
       <c r="AE3">
-        <v>0.002869108588986915</v>
+        <v>0.002587377389218682</v>
       </c>
       <c r="AF3">
-        <v>0.002872901160565884</v>
+        <v>0.002587377389218682</v>
       </c>
       <c r="AG3">
-        <v>0.003072544408402559</v>
+        <v>0.002775723818935998</v>
       </c>
       <c r="AH3">
-        <v>0.003249767488728201</v>
+        <v>0.002941601262263384</v>
       </c>
       <c r="AI3">
-        <v>0.003300141637135932</v>
+        <v>0.00298035356598429</v>
       </c>
       <c r="AJ3">
-        <v>0.00330692230178318</v>
+        <v>0.00298035356598429</v>
       </c>
       <c r="AK3">
-        <v>0.003313702966430427</v>
+        <v>0.00298035356598429</v>
       </c>
       <c r="AL3">
-        <v>0.003399119406947951</v>
+        <v>0.00305422446478703</v>
       </c>
       <c r="AM3">
-        <v>0.003532457492145469</v>
+        <v>0.003176121355436979</v>
       </c>
       <c r="AN3">
-        <v>0.003610232463511308</v>
+        <v>0.003242334146142009</v>
       </c>
       <c r="AO3">
-        <v>0.003717071536650606</v>
+        <v>0.003337674324359288</v>
       </c>
       <c r="AP3">
-        <v>0.004037773191048024</v>
+        <v>0.003647342759724487</v>
       </c>
       <c r="AQ3">
-        <v>0.004240728298517034</v>
+        <v>0.003839008260495473</v>
       </c>
       <c r="AR3">
-        <v>0.004305228311356588</v>
+        <v>0.003891917187065357</v>
       </c>
       <c r="AS3">
-        <v>0.004529936956410636</v>
+        <v>0.004105383592744415</v>
       </c>
       <c r="AT3">
-        <v>0.004835664102470444</v>
+        <v>0.004400044913471951</v>
       </c>
       <c r="AU3">
-        <v>0.004882180294306465</v>
+        <v>0.004434930860098957</v>
       </c>
       <c r="AV3">
-        <v>0.004883458215664598</v>
+        <v>0.004434930860098957</v>
       </c>
       <c r="AW3">
-        <v>0.004993649823431714</v>
+        <v>0.004533630872933314</v>
       </c>
       <c r="AX3">
-        <v>0.005677552687508478</v>
+        <v>0.005207291371831293</v>
       </c>
       <c r="AY3">
-        <v>0.006709154472985567</v>
+        <v>0.006229407890466544</v>
       </c>
       <c r="AZ3">
-        <v>0.007027264397670705</v>
+        <v>0.006536478952747758</v>
       </c>
       <c r="BA3">
-        <v>0.007243752273637379</v>
+        <v>0.00674170668899457</v>
       </c>
       <c r="BB3">
-        <v>0.007540882820651536</v>
+        <v>0.007027752691979213</v>
       </c>
       <c r="BC3">
-        <v>0.007636577070028072</v>
+        <v>0.007111923779094901</v>
       </c>
       <c r="BD3">
-        <v>0.007672098044084723</v>
+        <v>0.007135790566363824</v>
       </c>
       <c r="BE3">
-        <v>0.008054010661686827</v>
+        <v>0.007506803248978016</v>
       </c>
       <c r="BF3">
-        <v>0.008504314111696547</v>
+        <v>0.007946355681877593</v>
       </c>
       <c r="BG3">
-        <v>0.008613588759565459</v>
+        <v>0.008044136738175932</v>
       </c>
       <c r="BH3">
-        <v>0.008735404640042112</v>
+        <v>0.008154486335036584</v>
       </c>
       <c r="BI3">
-        <v>0.008815259677177032</v>
+        <v>0.008222783720757805</v>
       </c>
       <c r="BJ3">
-        <v>0.00881745183863367</v>
+        <v>0.008222783720757805</v>
       </c>
       <c r="BK3">
-        <v>0.008856348339315588</v>
+        <v>0.008250033384705266</v>
       </c>
       <c r="BL3">
-        <v>0.00885707713069468</v>
+        <v>0.008250033384705266</v>
       </c>
       <c r="BM3">
-        <v>0.008864719332846284</v>
+        <v>0.008250033384705266</v>
       </c>
       <c r="BN3">
-        <v>0.00913866618243417</v>
+        <v>0.008512845208833629</v>
       </c>
       <c r="BO3">
-        <v>0.009421375001049351</v>
+        <v>0.00878443808077202</v>
       </c>
       <c r="BP3">
-        <v>0.009498379908500679</v>
+        <v>0.008849879130783942</v>
       </c>
       <c r="BQ3">
-        <v>0.009627373844180461</v>
+        <v>0.008967422412731289</v>
       </c>
       <c r="BR3">
-        <v>0.00989460119451431</v>
+        <v>0.009223500106206444</v>
       </c>
       <c r="BS3">
-        <v>0.01006873036518342</v>
+        <v>0.009386276903031968</v>
       </c>
       <c r="BT3">
-        <v>0.01013971268730334</v>
+        <v>0.009445682253811183</v>
       </c>
       <c r="BU3">
-        <v>0.01025736845924183</v>
+        <v>0.009551862683689532</v>
       </c>
       <c r="BV3">
-        <v>0.01033799977629057</v>
+        <v>0.009620938039638221</v>
       </c>
       <c r="BW3">
-        <v>0.01058419381895943</v>
+        <v>0.009855936626392722</v>
       </c>
       <c r="BX3">
-        <v>0.01083038786162828</v>
+        <v>0.01009093521314722</v>
       </c>
       <c r="BY3">
-        <v>0.0108882710522024</v>
+        <v>0.0101372129096269</v>
       </c>
       <c r="BZ3">
-        <v>0.01091323722143079</v>
+        <v>0.0101505019094677</v>
       </c>
       <c r="CA3">
-        <v>0.0110052483812162</v>
+        <v>0.01023098188723484</v>
       </c>
       <c r="CB3">
-        <v>0.0110572929074385</v>
+        <v>0.01027140820594083</v>
       </c>
       <c r="CC3">
-        <v>0.01112368125006842</v>
+        <v>0.01032620957405195</v>
       </c>
       <c r="CD3">
-        <v>0.01112687451271392</v>
+        <v>0.01032620957405195</v>
       </c>
       <c r="CE3">
-        <v>0.01119255864542202</v>
+        <v>0.01038030519885669</v>
       </c>
       <c r="CF3">
-        <v>0.01120253667531431</v>
+        <v>0.01038030519885669</v>
       </c>
       <c r="CG3">
-        <v>0.01120416684873334</v>
+        <v>0.01038030519885669</v>
       </c>
       <c r="CH3">
-        <v>0.01153914811154551</v>
+        <v>0.01070428433582422</v>
       </c>
       <c r="CI3">
-        <v>0.01216482684208601</v>
+        <v>0.01131959392082523</v>
       </c>
       <c r="CJ3">
-        <v>0.01256054747815522</v>
+        <v>0.01170444468822878</v>
       </c>
       <c r="CK3">
-        <v>0.01311056801709488</v>
+        <v>0.01224393133941231</v>
       </c>
       <c r="CL3">
-        <v>0.01385051503494992</v>
+        <v>0.01297375802564407</v>
       </c>
       <c r="CM3">
-        <v>0.01461365871022979</v>
+        <v>0.01372683187895046</v>
       </c>
       <c r="CN3">
-        <v>0.1466397940533946</v>
+        <v>0.1460287164998789</v>
       </c>
       <c r="CO3">
-        <v>0.1498697151948261</v>
+        <v>0.1492539391132993</v>
       </c>
       <c r="CP3">
-        <v>0.3114390072582677</v>
+        <v>0.3111633093133084</v>
       </c>
       <c r="CQ3">
-        <v>0.3336640117909667</v>
+        <v>0.3334249762344689</v>
       </c>
       <c r="CR3">
-        <v>0.3348061742641699</v>
+        <v>0.3345578941816197</v>
       </c>
       <c r="CS3">
-        <v>0.3483382727619088</v>
+        <v>0.348107726666559</v>
       </c>
       <c r="CT3">
-        <v>0.4063810123183144</v>
+        <v>0.4062651200745873</v>
       </c>
       <c r="CU3">
-        <v>0.4288591598229107</v>
+        <v>0.4287804811747707</v>
       </c>
       <c r="CV3">
-        <v>0.4438831051550327</v>
+        <v>0.4438254089216487</v>
       </c>
       <c r="CW3">
-        <v>0.453915742041263</v>
+        <v>0.4538681598791028</v>
       </c>
       <c r="CX3">
-        <v>0.4648350778290568</v>
+        <v>0.4647995404840111</v>
       </c>
       <c r="CY3">
-        <v>0.4653775966688292</v>
+        <v>0.4653315091014241</v>
       </c>
       <c r="CZ3">
-        <v>0.4671412197730412</v>
+        <v>0.4670872408813949</v>
       </c>
       <c r="DA3">
-        <v>0.4811043772229262</v>
+        <v>0.4810690709294329</v>
       </c>
       <c r="DB3">
-        <v>0.4811078909955361</v>
+        <v>0.4810690709294329</v>
       </c>
       <c r="DC3">
-        <v>0.4856934084864765</v>
+        <v>0.4856528416407818</v>
       </c>
       <c r="DD3">
-        <v>0.4892131210957368</v>
+        <v>0.4891684867295633</v>
       </c>
       <c r="DE3">
-        <v>0.4925736839226652</v>
+        <v>0.4925246354947147</v>
       </c>
       <c r="DF3">
-        <v>0.495830192161145</v>
+        <v>0.4957765030973589</v>
       </c>
       <c r="DG3">
-        <v>0.5169852548126231</v>
+        <v>0.5169658983882858</v>
       </c>
       <c r="DH3">
-        <v>0.5204601030268641</v>
+        <v>0.5204365813919005</v>
       </c>
       <c r="DI3">
-        <v>0.5204606455191338</v>
+        <v>0.5204365813919005</v>
       </c>
       <c r="DJ3">
-        <v>0.5264654758525097</v>
+        <v>0.5264427554338242</v>
       </c>
       <c r="DK3">
-        <v>0.5344284794684996</v>
+        <v>0.5344113665902133</v>
       </c>
       <c r="DL3">
-        <v>0.5509395626355275</v>
+        <v>0.5509466703459238</v>
       </c>
       <c r="DM3">
-        <v>0.5531075385948504</v>
+        <v>0.5531076354406657</v>
       </c>
       <c r="DN3">
-        <v>0.5536146152785575</v>
+        <v>0.5536040847283559</v>
       </c>
       <c r="DO3">
-        <v>0.5545943755697897</v>
+        <v>0.5545742468702878</v>
       </c>
       <c r="DP3">
-        <v>0.5550112500635106</v>
+        <v>0.5549802975568906</v>
       </c>
       <c r="DQ3">
-        <v>0.5554419576856957</v>
+        <v>0.5554002114929559</v>
       </c>
       <c r="DR3">
-        <v>0.5583645346612468</v>
+        <v>0.5583174207127747</v>
       </c>
       <c r="DS3">
-        <v>0.5587856078445015</v>
+        <v>0.5587276792313639</v>
       </c>
       <c r="DT3">
-        <v>0.5591335287358772</v>
+        <v>0.5590646261723383</v>
       </c>
       <c r="DU3">
-        <v>0.5594099102051948</v>
+        <v>0.5593298779174684</v>
       </c>
       <c r="DV3">
-        <v>0.5677949672743307</v>
+        <v>0.5677214615288978</v>
       </c>
       <c r="DW3">
-        <v>0.6223215282210836</v>
+        <v>0.6223550200108057</v>
       </c>
       <c r="DX3">
-        <v>0.6303680713277994</v>
+        <v>0.630407352561302</v>
       </c>
       <c r="DY3">
-        <v>0.6305811254541472</v>
+        <v>0.6306091390710988</v>
       </c>
       <c r="DZ3">
-        <v>0.6385910655649265</v>
+        <v>0.6386247889243261</v>
       </c>
       <c r="EA3">
-        <v>0.6399897844096483</v>
+        <v>0.6400148218826409</v>
       </c>
       <c r="EB3">
-        <v>0.6733083707107971</v>
+        <v>0.6733942263340058</v>
       </c>
       <c r="EC3">
-        <v>0.6744663655822427</v>
+        <v>0.6745430111537146</v>
       </c>
       <c r="ED3">
-        <v>0.6766425008406598</v>
+        <v>0.6767121533140474</v>
       </c>
       <c r="EE3">
-        <v>0.6865265497433856</v>
+        <v>0.6866059927445279</v>
       </c>
       <c r="EF3">
-        <v>0.6880285969766363</v>
+        <v>0.6880995790841639</v>
       </c>
       <c r="EG3">
-        <v>0.6900932227474326</v>
+        <v>0.6901569689501185</v>
       </c>
       <c r="EH3">
-        <v>0.6927642904509049</v>
+        <v>0.6928221212480388</v>
       </c>
       <c r="EI3">
-        <v>0.6936749868098043</v>
+        <v>0.693723069074116</v>
       </c>
       <c r="EJ3">
-        <v>0.7029648587784925</v>
+        <v>0.7030214377777372</v>
       </c>
       <c r="EK3">
-        <v>0.7211431207604391</v>
+        <v>0.7212275505532089</v>
       </c>
       <c r="EL3">
-        <v>0.7239192552522474</v>
+        <v>0.7239979984175424</v>
       </c>
       <c r="EM3">
-        <v>0.7245239470451178</v>
+        <v>0.7245922753667862</v>
       </c>
       <c r="EN3">
-        <v>0.7271068267583803</v>
+        <v>0.7271690476492224</v>
       </c>
       <c r="EO3">
-        <v>0.7383301985124217</v>
+        <v>0.7384051262446477</v>
       </c>
       <c r="EP3">
-        <v>0.7664524513904396</v>
+        <v>0.7665768824969341</v>
       </c>
       <c r="EQ3">
-        <v>0.7867756751342641</v>
+        <v>0.7869326275894185</v>
       </c>
       <c r="ER3">
-        <v>0.7996872187008935</v>
+        <v>0.7998605539135569</v>
       </c>
       <c r="ES3">
-        <v>0.8102018965336103</v>
+        <v>0.8103863954393871</v>
       </c>
       <c r="ET3">
-        <v>0.8114111142993694</v>
+        <v>0.8115865146888952</v>
       </c>
       <c r="EU3">
-        <v>0.8114113678616013</v>
+        <v>0.8115865146888952</v>
       </c>
       <c r="EV3">
-        <v>0.812588305030944</v>
+        <v>0.8127542830524797</v>
       </c>
       <c r="EW3">
-        <v>0.8156126608951962</v>
+        <v>0.8157734927798272</v>
       </c>
       <c r="EX3">
-        <v>0.8244333249159733</v>
+        <v>0.8246016318569092</v>
       </c>
       <c r="EY3">
-        <v>0.837149893504248</v>
+        <v>0.8373341586536855</v>
       </c>
       <c r="EZ3">
-        <v>0.8474827613571483</v>
+        <v>0.8476777943168682</v>
       </c>
       <c r="FA3">
-        <v>0.8500581876712382</v>
+        <v>0.8502470969706994</v>
       </c>
       <c r="FB3">
-        <v>0.8520349387517898</v>
+        <v>0.8522164208033315</v>
       </c>
       <c r="FC3">
-        <v>0.8549401428292696</v>
+        <v>0.855116219296396</v>
       </c>
       <c r="FD3">
-        <v>0.8553422740446271</v>
+        <v>0.8555074946018282</v>
       </c>
       <c r="FE3">
-        <v>0.8563860950287477</v>
+        <v>0.8565418569258474</v>
       </c>
       <c r="FF3">
-        <v>0.8566717551770353</v>
+        <v>0.8568164075538421</v>
       </c>
       <c r="FG3">
-        <v>0.8570785810318717</v>
+        <v>0.8572123877211136</v>
       </c>
       <c r="FH3">
-        <v>0.8596763111434856</v>
+        <v>0.8598040427379575</v>
       </c>
       <c r="FI3">
-        <v>0.8626241812162289</v>
+        <v>0.8627466001295189</v>
       </c>
       <c r="FJ3">
-        <v>0.8718579751911425</v>
+        <v>0.8719887687321251</v>
       </c>
       <c r="FK3">
-        <v>0.9012118229324354</v>
+        <v>0.901394801588599</v>
       </c>
       <c r="FL3">
-        <v>0.9156654708278688</v>
+        <v>0.9158681901024688</v>
       </c>
       <c r="FM3">
-        <v>0.9171248861658523</v>
+        <v>0.9173190517178552</v>
       </c>
       <c r="FN3">
-        <v>0.9187281315878686</v>
+        <v>0.9189140566006371</v>
       </c>
       <c r="FO3">
-        <v>0.9201586761290572</v>
+        <v>0.9203359845544025</v>
       </c>
       <c r="FP3">
-        <v>0.9340667205850606</v>
+        <v>0.9342625816025609</v>
       </c>
       <c r="FQ3">
-        <v>0.9429670350969953</v>
+        <v>0.943170544606065</v>
       </c>
       <c r="FR3">
-        <v>0.9541070058602954</v>
+        <v>0.954323040608945</v>
       </c>
       <c r="FS3">
-        <v>0.9676221393599176</v>
+        <v>0.9678558711552682</v>
       </c>
       <c r="FT3">
-        <v>0.9686018996511498</v>
+        <v>0.9688260332972001</v>
       </c>
       <c r="FU3">
-        <v>0.9693609942268793</v>
+        <v>0.9695750492342288</v>
       </c>
       <c r="FV3">
-        <v>0.9713093078105879</v>
+        <v>0.9715158736486823</v>
       </c>
       <c r="FW3">
-        <v>0.9714614608436967</v>
+        <v>0.9716566264559233</v>
       </c>
       <c r="FX3">
-        <v>0.9717535680712684</v>
+        <v>0.9719376382014197</v>
       </c>
       <c r="FY3">
-        <v>0.9724412686349236</v>
+        <v>0.9726151046692114</v>
       </c>
       <c r="FZ3">
-        <v>0.9734504732228871</v>
+        <v>0.9736147752214703</v>
       </c>
       <c r="GA3">
-        <v>0.9740472980566308</v>
+        <v>0.9742011680816474</v>
       </c>
       <c r="GB3">
-        <v>0.9784354240694846</v>
+        <v>0.978587117504086</v>
       </c>
       <c r="GC3">
-        <v>0.9848495397574237</v>
+        <v>0.9850034681005227</v>
       </c>
       <c r="GD3">
-        <v>0.9883089761733757</v>
+        <v>0.9884587057473697</v>
       </c>
       <c r="GE3">
-        <v>0.9899309693933106</v>
+        <v>0.9900724992505341</v>
       </c>
       <c r="GF3">
-        <v>0.9902270948604364</v>
+        <v>0.9903575379851153</v>
       </c>
       <c r="GG3">
-        <v>0.990268398685851</v>
+        <v>0.9903872002156339</v>
       </c>
       <c r="GH3">
-        <v>0.9903792037375501</v>
+        <v>0.990486515008146</v>
       </c>
       <c r="GI3">
-        <v>0.9929413642531127</v>
+        <v>0.9930425229777866</v>
       </c>
       <c r="GJ3">
-        <v>0.9929522852624003</v>
+        <v>0.9930425229777866</v>
       </c>
       <c r="GK3">
-        <v>0.993088342627296</v>
+        <v>0.9931671450692406</v>
       </c>
       <c r="GL3">
-        <v>0.9940364240720451</v>
+        <v>0.9941055593854647</v>
       </c>
       <c r="GM3">
-        <v>0.994278528525168</v>
+        <v>0.9943364594777809</v>
       </c>
       <c r="GN3">
-        <v>0.9946777394708497</v>
+        <v>0.9947248081547849</v>
       </c>
       <c r="GO3">
-        <v>0.9947392359240227</v>
+        <v>0.9947747069815759</v>
       </c>
       <c r="GP3">
-        <v>0.996076444175573</v>
+        <v>0.9961030954102446</v>
       </c>
       <c r="GQ3">
-        <v>0.9968013637550962</v>
+        <v>0.9968178619365919</v>
       </c>
       <c r="GR3">
-        <v>0.9986681213478588</v>
+        <v>0.9986769527756971</v>
       </c>
       <c r="GS3">
         <v>1.000000000000001</v>
@@ -8191,601 +8191,601 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0001946381715129368</v>
+        <v>0.0001879477071178415</v>
       </c>
       <c r="C4">
-        <v>0.0002721275581340655</v>
+        <v>0.0002585894197290094</v>
       </c>
       <c r="D4">
-        <v>0.0002783508462627034</v>
+        <v>0.0002585894197290094</v>
       </c>
       <c r="E4">
-        <v>0.0002852931919599872</v>
+        <v>0.0002585894197290094</v>
       </c>
       <c r="F4">
-        <v>0.0003255301782054812</v>
+        <v>0.0002919287405325249</v>
       </c>
       <c r="G4">
-        <v>0.0003269120885452239</v>
+        <v>0.0002919287405325249</v>
       </c>
       <c r="H4">
-        <v>0.0003391264740126241</v>
+        <v>0.0002972078551975502</v>
       </c>
       <c r="I4">
-        <v>0.0003406940011442732</v>
+        <v>0.0002972078551975502</v>
       </c>
       <c r="J4">
-        <v>0.0003414177063127165</v>
+        <v>0.0002972078551975502</v>
       </c>
       <c r="K4">
-        <v>0.0004001256817527957</v>
+        <v>0.0003490429526238786</v>
       </c>
       <c r="L4">
-        <v>0.0004974790475077693</v>
+        <v>0.0004395753011414069</v>
       </c>
       <c r="M4">
-        <v>0.0005374722757638922</v>
+        <v>0.0004726705368407659</v>
       </c>
       <c r="N4">
-        <v>0.0005429255630261053</v>
+        <v>0.0004726705368407659</v>
       </c>
       <c r="O4">
-        <v>0.0005882429610500714</v>
+        <v>0.0005110970871595298</v>
       </c>
       <c r="P4">
-        <v>0.0006313572991701005</v>
+        <v>0.0005473176211442123</v>
       </c>
       <c r="Q4">
-        <v>0.0008735715886085136</v>
+        <v>0.0007829052916912011</v>
       </c>
       <c r="R4">
-        <v>0.001089188999206665</v>
+        <v>0.0009918603913070291</v>
       </c>
       <c r="S4">
-        <v>0.001261229891704941</v>
+        <v>0.001157180494643852</v>
       </c>
       <c r="T4">
-        <v>0.001394608255889069</v>
+        <v>0.00128378618589162</v>
       </c>
       <c r="U4">
-        <v>0.001743278340685551</v>
+        <v>0.001625972511789668</v>
       </c>
       <c r="V4">
-        <v>0.001930691822513515</v>
+        <v>0.001806685833939023</v>
       </c>
       <c r="W4">
-        <v>0.002081689055929385</v>
+        <v>0.001950934038331261</v>
       </c>
       <c r="X4">
-        <v>0.002085021424784079</v>
+        <v>0.001950934038331261</v>
       </c>
       <c r="Y4">
-        <v>0.002105747947880314</v>
+        <v>0.001964736713619218</v>
       </c>
       <c r="Z4">
-        <v>0.00213794323347646</v>
+        <v>0.001990023542089434</v>
       </c>
       <c r="AA4">
-        <v>0.002147592654055704</v>
+        <v>0.001992734249772195</v>
       </c>
       <c r="AB4">
-        <v>0.002448749070923986</v>
+        <v>0.002287343146044107</v>
       </c>
       <c r="AC4">
-        <v>0.002732473078552396</v>
+        <v>0.002564496239386274</v>
       </c>
       <c r="AD4">
-        <v>0.002976479657912658</v>
+        <v>0.002801878605046156</v>
       </c>
       <c r="AE4">
-        <v>0.003543024133208877</v>
+        <v>0.003362231701335471</v>
       </c>
       <c r="AF4">
-        <v>0.003857595899492192</v>
+        <v>0.003670273949957033</v>
       </c>
       <c r="AG4">
-        <v>0.003934413666142606</v>
+        <v>0.00374024314130673</v>
       </c>
       <c r="AH4">
-        <v>0.004028157202054984</v>
+        <v>0.003827160815714948</v>
       </c>
       <c r="AI4">
-        <v>0.004308457089832701</v>
+        <v>0.004100885194156089</v>
       </c>
       <c r="AJ4">
-        <v>0.004428222868610397</v>
+        <v>0.004213860032378934</v>
       </c>
       <c r="AK4">
-        <v>0.004532877924046986</v>
+        <v>0.004311703869192922</v>
       </c>
       <c r="AL4">
-        <v>0.00471355263616879</v>
+        <v>0.004485669378440396</v>
       </c>
       <c r="AM4">
-        <v>0.004743407327866996</v>
+        <v>0.004508612472016667</v>
       </c>
       <c r="AN4">
-        <v>0.004767385197821458</v>
+        <v>0.004525670857357808</v>
       </c>
       <c r="AO4">
-        <v>0.004811003062919531</v>
+        <v>0.004562395594036312</v>
       </c>
       <c r="AP4">
-        <v>0.004825448826289633</v>
+        <v>0.004569909081035958</v>
       </c>
       <c r="AQ4">
-        <v>0.004830155811784389</v>
+        <v>0.004569909081035958</v>
       </c>
       <c r="AR4">
-        <v>0.004834120475911512</v>
+        <v>0.004569909081035958</v>
       </c>
       <c r="AS4">
-        <v>0.004834219998117173</v>
+        <v>0.004569909081035958</v>
       </c>
       <c r="AT4">
-        <v>0.004856482428146435</v>
+        <v>0.00458524972439089</v>
       </c>
       <c r="AU4">
-        <v>0.004893938296513198</v>
+        <v>0.004615804195151734</v>
       </c>
       <c r="AV4">
-        <v>0.004924280988190126</v>
+        <v>0.004639235943585809</v>
       </c>
       <c r="AW4">
-        <v>0.004953510906915575</v>
+        <v>0.004661553425765617</v>
       </c>
       <c r="AX4">
-        <v>0.005205338775934794</v>
+        <v>0.004906767576984488</v>
       </c>
       <c r="AY4">
-        <v>0.005706254154092725</v>
+        <v>0.005401403504158544</v>
       </c>
       <c r="AZ4">
-        <v>0.00605730785878527</v>
+        <v>0.00574597664868806</v>
       </c>
       <c r="BA4">
-        <v>0.00641894619301628</v>
+        <v>0.006101148626962552</v>
       </c>
       <c r="BB4">
-        <v>0.006788381116907325</v>
+        <v>0.006464127657650568</v>
       </c>
       <c r="BC4">
-        <v>0.006840821444620701</v>
+        <v>0.006509686696383864</v>
       </c>
       <c r="BD4">
-        <v>0.006899920648043721</v>
+        <v>0.006561913546807545</v>
       </c>
       <c r="BE4">
-        <v>0.007004964563463353</v>
+        <v>0.006660146765441217</v>
       </c>
       <c r="BF4">
-        <v>0.007033509555218668</v>
+        <v>0.006681778401502602</v>
       </c>
       <c r="BG4">
-        <v>0.007033952840799339</v>
+        <v>0.006681778401502602</v>
       </c>
       <c r="BH4">
-        <v>0.00704835117617151</v>
+        <v>0.006689244396857585</v>
       </c>
       <c r="BI4">
-        <v>0.007147602311843733</v>
+        <v>0.00678167706203391</v>
       </c>
       <c r="BJ4">
-        <v>0.007306052444934624</v>
+        <v>0.006933388167634593</v>
       </c>
       <c r="BK4">
-        <v>0.007375888131889487</v>
+        <v>0.006996365909579434</v>
       </c>
       <c r="BL4">
-        <v>0.007544771094525462</v>
+        <v>0.007158523845221375</v>
       </c>
       <c r="BM4">
-        <v>0.007927805747823501</v>
+        <v>0.007535120855682568</v>
       </c>
       <c r="BN4">
-        <v>0.008238771494264054</v>
+        <v>0.007839552245307541</v>
       </c>
       <c r="BO4">
-        <v>0.008502262602774705</v>
+        <v>0.008096445287681584</v>
       </c>
       <c r="BP4">
-        <v>0.009019573210217733</v>
+        <v>0.008607498445971008</v>
       </c>
       <c r="BQ4">
-        <v>0.009732877979114572</v>
+        <v>0.009314808783095655</v>
       </c>
       <c r="BR4">
-        <v>0.009989791067912054</v>
+        <v>0.009565114978281735</v>
       </c>
       <c r="BS4">
-        <v>0.01013321561165813</v>
+        <v>0.009701780330716725</v>
       </c>
       <c r="BT4">
-        <v>0.01029262970470698</v>
+        <v>0.009854456689876277</v>
       </c>
       <c r="BU4">
-        <v>0.01031884270556399</v>
+        <v>0.009873753205588269</v>
       </c>
       <c r="BV4">
-        <v>0.01034544864540385</v>
+        <v>0.009893443187593644</v>
       </c>
       <c r="BW4">
-        <v>0.01034728185112392</v>
+        <v>0.009893443187593644</v>
       </c>
       <c r="BX4">
-        <v>0.01042376266778902</v>
+        <v>0.009963074976782815</v>
       </c>
       <c r="BY4">
-        <v>0.01053382846298968</v>
+        <v>0.01006633681438637</v>
       </c>
       <c r="BZ4">
-        <v>0.01066868265710946</v>
+        <v>0.01019442031608248</v>
       </c>
       <c r="CA4">
-        <v>0.01093486566550273</v>
+        <v>0.01045400887077562</v>
       </c>
       <c r="CB4">
-        <v>0.01108430097898671</v>
+        <v>0.01059669305919348</v>
       </c>
       <c r="CC4">
-        <v>0.01145618941277077</v>
+        <v>0.01096212889229987</v>
       </c>
       <c r="CD4">
-        <v>0.01161415546588277</v>
+        <v>0.01111335526830308</v>
       </c>
       <c r="CE4">
-        <v>0.01165777333098084</v>
+        <v>0.01115008000498159</v>
       </c>
       <c r="CF4">
-        <v>0.01192271028942845</v>
+        <v>0.01140842083757316</v>
       </c>
       <c r="CG4">
-        <v>0.01210286804157279</v>
+        <v>0.01158186869310078</v>
       </c>
       <c r="CH4">
-        <v>0.01215061934549063</v>
+        <v>0.01162273241553089</v>
       </c>
       <c r="CI4">
-        <v>0.01225776344081869</v>
+        <v>0.01172306863244173</v>
       </c>
       <c r="CJ4">
-        <v>0.01237489128571141</v>
+        <v>0.01183340199676363</v>
       </c>
       <c r="CK4">
-        <v>0.01238016747748134</v>
+        <v>0.01183340199676363</v>
       </c>
       <c r="CL4">
-        <v>0.0124014782375521</v>
+        <v>0.01184778969305191</v>
       </c>
       <c r="CM4">
-        <v>0.01241136663912092</v>
+        <v>0.01185073970242847</v>
       </c>
       <c r="CN4">
-        <v>0.174536989569745</v>
+        <v>0.174186977945856</v>
       </c>
       <c r="CO4">
-        <v>0.2100484630212917</v>
+        <v>0.2097391549036559</v>
       </c>
       <c r="CP4">
-        <v>0.3844087154184331</v>
+        <v>0.3843264410629106</v>
       </c>
       <c r="CQ4">
-        <v>0.3952867749441029</v>
+        <v>0.3952121469058948</v>
       </c>
       <c r="CR4">
-        <v>0.396002457542896</v>
+        <v>0.3959218382638812</v>
       </c>
       <c r="CS4">
-        <v>0.4033434039227992</v>
+        <v>0.4032656842776748</v>
       </c>
       <c r="CT4">
-        <v>0.4872771302629269</v>
+        <v>0.4873050951115629</v>
       </c>
       <c r="CU4">
-        <v>0.5109397592311343</v>
+        <v>0.5109925268468093</v>
       </c>
       <c r="CV4">
-        <v>0.5357570521489934</v>
+        <v>0.5358361720507654</v>
       </c>
       <c r="CW4">
-        <v>0.5405010685421339</v>
+        <v>0.5405796030876325</v>
       </c>
       <c r="CX4">
-        <v>0.547365226242827</v>
+        <v>0.54744602058831</v>
       </c>
       <c r="CY4">
-        <v>0.5532620349857007</v>
+        <v>0.5533437909823462</v>
       </c>
       <c r="CZ4">
-        <v>0.5535423348734784</v>
+        <v>0.5536175153607873</v>
       </c>
       <c r="DA4">
-        <v>0.5644896193961296</v>
+        <v>0.5645725390983031</v>
       </c>
       <c r="DB4">
-        <v>0.5700660085529751</v>
+        <v>0.5701494599143161</v>
       </c>
       <c r="DC4">
-        <v>0.5718774459739886</v>
+        <v>0.5719563765595708</v>
       </c>
       <c r="DD4">
-        <v>0.5735730872000513</v>
+        <v>0.5736473416153887</v>
       </c>
       <c r="DE4">
-        <v>0.5735875329634214</v>
+        <v>0.5736548551023883</v>
       </c>
       <c r="DF4">
-        <v>0.5798650821896931</v>
+        <v>0.5799338769203741</v>
       </c>
       <c r="DG4">
-        <v>0.5985011873770786</v>
+        <v>0.5985880394538501</v>
       </c>
       <c r="DH4">
-        <v>0.5985656952842657</v>
+        <v>0.5986456822663312</v>
       </c>
       <c r="DI4">
-        <v>0.5989978433154222</v>
+        <v>0.5990714585631042</v>
       </c>
       <c r="DJ4">
-        <v>0.6047613270641095</v>
+        <v>0.604835725045426</v>
       </c>
       <c r="DK4">
-        <v>0.6171860885223363</v>
+        <v>0.6172702084414303</v>
       </c>
       <c r="DL4">
-        <v>0.6248727916871628</v>
+        <v>0.6249602752337864</v>
       </c>
       <c r="DM4">
-        <v>0.6340695642861439</v>
+        <v>0.6341624379212147</v>
       </c>
       <c r="DN4">
-        <v>0.6363245147878184</v>
+        <v>0.6364134628263348</v>
       </c>
       <c r="DO4">
-        <v>0.6384801285938243</v>
+        <v>0.6385650177293788</v>
       </c>
       <c r="DP4">
-        <v>0.6413918254668618</v>
+        <v>0.6414736703367626</v>
       </c>
       <c r="DQ4">
-        <v>0.6416475144557127</v>
+        <v>0.6417227507893023</v>
       </c>
       <c r="DR4">
-        <v>0.6430187500959209</v>
+        <v>0.643088874918197</v>
       </c>
       <c r="DS4">
-        <v>0.6431025299062677</v>
+        <v>0.6431658154960648</v>
       </c>
       <c r="DT4">
-        <v>0.6431389802626784</v>
+        <v>0.6431953631055072</v>
       </c>
       <c r="DU4">
-        <v>0.6432133604244351</v>
+        <v>0.6432628914207817</v>
       </c>
       <c r="DV4">
-        <v>0.6533457399826197</v>
+        <v>0.653401916619572</v>
       </c>
       <c r="DW4">
-        <v>0.6990992279875704</v>
+        <v>0.6992098525598358</v>
       </c>
       <c r="DX4">
-        <v>0.7004932086267869</v>
+        <v>0.7005987522107402</v>
       </c>
       <c r="DY4">
-        <v>0.7005982525422065</v>
+        <v>0.7006969854293739</v>
       </c>
       <c r="DZ4">
-        <v>0.7057363383181638</v>
+        <v>0.7058350146765311</v>
       </c>
       <c r="EA4">
-        <v>0.7090796637723804</v>
+        <v>0.7091758750957116</v>
       </c>
       <c r="EB4">
-        <v>0.7294778658829308</v>
+        <v>0.7295944992254382</v>
       </c>
       <c r="EC4">
-        <v>0.729502471838858</v>
+        <v>0.7296121865396216</v>
       </c>
       <c r="ED4">
-        <v>0.7318552861362652</v>
+        <v>0.7319612065703012</v>
       </c>
       <c r="EE4">
-        <v>0.7351006009947555</v>
+        <v>0.735203924866928</v>
       </c>
       <c r="EF4">
-        <v>0.7353396523243318</v>
+        <v>0.7354363453330303</v>
       </c>
       <c r="EG4">
-        <v>0.7354801887382039</v>
+        <v>0.7355701186798208</v>
       </c>
       <c r="EH4">
-        <v>0.7355001690333326</v>
+        <v>0.7355831741257292</v>
       </c>
       <c r="EI4">
-        <v>0.7355161563466355</v>
+        <v>0.7355922312313682</v>
       </c>
       <c r="EJ4">
-        <v>0.7436850199904378</v>
+        <v>0.7437651055453754</v>
       </c>
       <c r="EK4">
-        <v>0.755328382482737</v>
+        <v>0.7554171413650836</v>
       </c>
       <c r="EL4">
-        <v>0.7561224692481114</v>
+        <v>0.7562053421053293</v>
       </c>
       <c r="EM4">
-        <v>0.7589096981265763</v>
+        <v>0.7589893596863995</v>
       </c>
       <c r="EN4">
-        <v>0.7607593016459255</v>
+        <v>0.7608344936475729</v>
       </c>
       <c r="EO4">
-        <v>0.7720926341517433</v>
+        <v>0.7721760834312879</v>
       </c>
       <c r="EP4">
-        <v>0.7938844232015274</v>
+        <v>0.7939901646456892</v>
       </c>
       <c r="EQ4">
-        <v>0.8065690616484225</v>
+        <v>0.8066848737762863</v>
       </c>
       <c r="ER4">
-        <v>0.8159686142385615</v>
+        <v>0.8160900885786027</v>
       </c>
       <c r="ES4">
-        <v>0.8212298350091496</v>
+        <v>0.8213514180632918</v>
       </c>
       <c r="ET4">
-        <v>0.8212442333445218</v>
+        <v>0.8213588840586468</v>
       </c>
       <c r="EU4">
-        <v>0.8217153716239781</v>
+        <v>0.8218237029272834</v>
       </c>
       <c r="EV4">
-        <v>0.8245072989022381</v>
+        <v>0.8246124252132386</v>
       </c>
       <c r="EW4">
-        <v>0.8303173149488963</v>
+        <v>0.8304232864382649</v>
       </c>
       <c r="EX4">
-        <v>0.844867143314461</v>
+        <v>0.8449856885078493</v>
       </c>
       <c r="EY4">
-        <v>0.8612482146001756</v>
+        <v>0.861381790962204</v>
       </c>
       <c r="EZ4">
-        <v>0.8746945795138562</v>
+        <v>0.874839248770142</v>
       </c>
       <c r="FA4">
-        <v>0.8793347017115268</v>
+        <v>0.8794786461891247</v>
       </c>
       <c r="FB4">
-        <v>0.883247132240928</v>
+        <v>0.8833893754028043</v>
       </c>
       <c r="FC4">
-        <v>0.8854086666466757</v>
+        <v>0.8855468588508301</v>
       </c>
       <c r="FD4">
-        <v>0.8857439095520577</v>
+        <v>0.8858755999785035</v>
       </c>
       <c r="FE4">
-        <v>0.8866901042107995</v>
+        <v>0.8868161127356451</v>
       </c>
       <c r="FF4">
-        <v>0.8870297904259877</v>
+        <v>0.8871493031358928</v>
       </c>
       <c r="FG4">
-        <v>0.8886935823534392</v>
+        <v>0.888808376152443</v>
       </c>
       <c r="FH4">
-        <v>0.8915159066303737</v>
+        <v>0.891627536228793</v>
       </c>
       <c r="FI4">
-        <v>0.8963605137191279</v>
+        <v>0.896471692950506</v>
       </c>
       <c r="FJ4">
-        <v>0.9113704980646279</v>
+        <v>0.9114948685134249</v>
       </c>
       <c r="FK4">
-        <v>0.9409410747752233</v>
+        <v>0.9410981762524585</v>
       </c>
       <c r="FL4">
-        <v>0.9526271312656608</v>
+        <v>0.9527929633641729</v>
       </c>
       <c r="FM4">
-        <v>0.9552578415509505</v>
+        <v>0.955420252309533</v>
       </c>
       <c r="FN4">
-        <v>0.9578990204357837</v>
+        <v>0.9580580239029348</v>
       </c>
       <c r="FO4">
-        <v>0.9590397066860449</v>
+        <v>0.9591932892525803</v>
       </c>
       <c r="FP4">
-        <v>0.9656735487967808</v>
+        <v>0.96582908208775</v>
       </c>
       <c r="FQ4">
-        <v>0.9690404956499674</v>
+        <v>0.9691935956050003</v>
       </c>
       <c r="FR4">
-        <v>0.9752696729783484</v>
+        <v>0.9754241806116825</v>
       </c>
       <c r="FS4">
-        <v>0.9813906977114454</v>
+        <v>0.9815464678860407</v>
       </c>
       <c r="FT4">
-        <v>0.9814269160798661</v>
+        <v>0.9815757831961734</v>
       </c>
       <c r="FU4">
-        <v>0.9818675830906511</v>
+        <v>0.9820100899047507</v>
       </c>
       <c r="FV4">
-        <v>0.9838132069058135</v>
+        <v>0.9839513730176511</v>
       </c>
       <c r="FW4">
-        <v>0.984320416743697</v>
+        <v>0.9844523118514978</v>
       </c>
       <c r="FX4">
-        <v>0.9848896883188742</v>
+        <v>0.9850153957073419</v>
       </c>
       <c r="FY4">
-        <v>0.9865853295449369</v>
+        <v>0.9867063607631598</v>
       </c>
       <c r="FZ4">
-        <v>0.9889418542421823</v>
+        <v>0.9890590961729058</v>
       </c>
       <c r="GA4">
-        <v>0.9889511118577786</v>
+        <v>0.9890614145498169</v>
       </c>
       <c r="GB4">
-        <v>0.9915466444446022</v>
+        <v>0.991653478589457</v>
       </c>
       <c r="GC4">
-        <v>0.9934637168610095</v>
+        <v>0.9935661719886133</v>
       </c>
       <c r="GD4">
-        <v>0.9938193267155034</v>
+        <v>0.9939153073971395</v>
       </c>
       <c r="GE4">
-        <v>0.9941375252816286</v>
+        <v>0.9942269813126428</v>
       </c>
       <c r="GF4">
-        <v>0.9941543895118933</v>
+        <v>0.9942369165120358</v>
       </c>
       <c r="GG4">
-        <v>0.9941694223522378</v>
+        <v>0.9942450178638469</v>
       </c>
       <c r="GH4">
-        <v>0.9942006859038746</v>
+        <v>0.994269371708003</v>
       </c>
       <c r="GI4">
-        <v>0.996112182520525</v>
+        <v>0.9961764818248722</v>
       </c>
       <c r="GJ4">
-        <v>0.996153968415703</v>
+        <v>0.9962113721331903</v>
       </c>
       <c r="GK4">
-        <v>0.9964220301340144</v>
+        <v>0.9964728419189652</v>
       </c>
       <c r="GL4">
-        <v>0.9973682247927562</v>
+        <v>0.9974133546761068</v>
       </c>
       <c r="GM4">
-        <v>0.9976649743798166</v>
+        <v>0.9977035508287578</v>
       </c>
       <c r="GN4">
-        <v>0.9982760401231715</v>
+        <v>0.9983084849391067</v>
       </c>
       <c r="GO4">
-        <v>0.9983922072641062</v>
+        <v>0.998417856310239</v>
       </c>
       <c r="GP4">
-        <v>0.9992314483275117</v>
+        <v>0.999251271944021</v>
       </c>
       <c r="GQ4">
-        <v>0.9992917290008831</v>
+        <v>0.999304681849885</v>
       </c>
       <c r="GR4">
-        <v>0.9997437033811751</v>
+        <v>0.9997503111020678</v>
       </c>
       <c r="GS4">
         <v>0.9999999999999994</v>
@@ -8964,601 +8964,601 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>5.470598807141223E-08</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>4.786614579842535E-05</v>
+        <v>3.391130173525686E-05</v>
       </c>
       <c r="D5">
-        <v>5.642465512248861E-05</v>
+        <v>3.391130173525686E-05</v>
       </c>
       <c r="E5">
-        <v>6.757748354478434E-05</v>
+        <v>3.391130173525686E-05</v>
       </c>
       <c r="F5">
-        <v>8.831872933014023E-05</v>
+        <v>4.068316575668156E-05</v>
       </c>
       <c r="G5">
-        <v>0.0001023053888597374</v>
+        <v>4.068316575668156E-05</v>
       </c>
       <c r="H5">
-        <v>0.0001408772503202398</v>
+        <v>6.533125493807544E-05</v>
       </c>
       <c r="I5">
-        <v>0.0002466077143236658</v>
+        <v>0.0001573097337346512</v>
       </c>
       <c r="J5">
-        <v>0.0003478451741569667</v>
+        <v>0.0002447837155663919</v>
       </c>
       <c r="K5">
-        <v>0.0003947069519313622</v>
+        <v>0.0002777429260957163</v>
       </c>
       <c r="L5">
-        <v>0.0004181724528198705</v>
+        <v>0.0002872460136769101</v>
       </c>
       <c r="M5">
-        <v>0.0004409885796837906</v>
+        <v>0.0002960980661795589</v>
       </c>
       <c r="N5">
-        <v>0.0004447199344250763</v>
+        <v>0.0002960980661795589</v>
       </c>
       <c r="O5">
-        <v>0.000502155829599855</v>
+        <v>0.0003396584419721038</v>
       </c>
       <c r="P5">
-        <v>0.0005625581118869542</v>
+        <v>0.0003861927926905616</v>
       </c>
       <c r="Q5">
-        <v>0.0006823861164241759</v>
+        <v>0.0004923048725570764</v>
       </c>
       <c r="R5">
-        <v>0.0008583599930873302</v>
+        <v>0.0006547064418171068</v>
       </c>
       <c r="S5">
-        <v>0.001304974989998162</v>
+        <v>0.001088441412639786</v>
       </c>
       <c r="T5">
-        <v>0.001388485248160232</v>
+        <v>0.001158142847841361</v>
       </c>
       <c r="U5">
-        <v>0.001668843128775829</v>
+        <v>0.001425195428134842</v>
       </c>
       <c r="V5">
-        <v>0.002096984184987155</v>
+        <v>0.001840409203192162</v>
       </c>
       <c r="W5">
-        <v>0.002459323048706918</v>
+        <v>0.002189652468288996</v>
       </c>
       <c r="X5">
-        <v>0.002589016343617683</v>
+        <v>0.002305655073261256</v>
       </c>
       <c r="Y5">
-        <v>0.002663930340454261</v>
+        <v>0.002366738258493895</v>
       </c>
       <c r="Z5">
-        <v>0.002701649706882484</v>
+        <v>0.002390531672019528</v>
       </c>
       <c r="AA5">
-        <v>0.002711558730257684</v>
+        <v>0.002390531672019528</v>
       </c>
       <c r="AB5">
-        <v>0.002714634368174141</v>
+        <v>0.002390531672019528</v>
       </c>
       <c r="AC5">
-        <v>0.002728109573684372</v>
+        <v>0.002390531672019528</v>
       </c>
       <c r="AD5">
-        <v>0.002848812508254723</v>
+        <v>0.002497520919929838</v>
       </c>
       <c r="AE5">
-        <v>0.002879288109408665</v>
+        <v>0.002514052039129341</v>
       </c>
       <c r="AF5">
-        <v>0.002915165520767143</v>
+        <v>0.002535998785991231</v>
       </c>
       <c r="AG5">
-        <v>0.003043882925640957</v>
+        <v>0.002651023004667149</v>
       </c>
       <c r="AH5">
-        <v>0.003268978434164075</v>
+        <v>0.002862671855532704</v>
       </c>
       <c r="AI5">
-        <v>0.003637062418101373</v>
+        <v>0.003217674936468254</v>
       </c>
       <c r="AJ5">
-        <v>0.003842716225888342</v>
+        <v>0.003409832356068395</v>
       </c>
       <c r="AK5">
-        <v>0.003871538490979681</v>
+        <v>0.003424705910085705</v>
       </c>
       <c r="AL5">
-        <v>0.003940802413602322</v>
+        <v>0.003480124568604348</v>
       </c>
       <c r="AM5">
-        <v>0.004075539418704065</v>
+        <v>0.003601183785230306</v>
       </c>
       <c r="AN5">
-        <v>0.00407557705556849</v>
+        <v>0.003601183785230306</v>
       </c>
       <c r="AO5">
-        <v>0.004078503968079316</v>
+        <v>0.003601183785230306</v>
       </c>
       <c r="AP5">
-        <v>0.004129418340007161</v>
+        <v>0.003638205956169349</v>
       </c>
       <c r="AQ5">
-        <v>0.004157813873082341</v>
+        <v>0.003652651686619443</v>
       </c>
       <c r="AR5">
-        <v>0.004477849705200323</v>
+        <v>0.003959483711878002</v>
       </c>
       <c r="AS5">
-        <v>0.00464514428153484</v>
+        <v>0.004113183779757911</v>
       </c>
       <c r="AT5">
-        <v>0.00473068493877379</v>
+        <v>0.004184920807657135</v>
       </c>
       <c r="AU5">
-        <v>0.004749476511485323</v>
+        <v>0.004189738011475514</v>
       </c>
       <c r="AV5">
-        <v>0.004825563480366314</v>
+        <v>0.004251997169134138</v>
       </c>
       <c r="AW5">
-        <v>0.005103564240892661</v>
+        <v>0.00451668659998779</v>
       </c>
       <c r="AX5">
-        <v>0.005104446653656072</v>
+        <v>0.00451668659998779</v>
       </c>
       <c r="AY5">
-        <v>0.005234139948566838</v>
+        <v>0.004632689204960051</v>
       </c>
       <c r="AZ5">
-        <v>0.005251638198229399</v>
+        <v>0.004636209777498323</v>
       </c>
       <c r="BA5">
-        <v>0.005362571868429842</v>
+        <v>0.004733404771934416</v>
       </c>
       <c r="BB5">
-        <v>0.0057861554044686</v>
+        <v>0.005144049368996973</v>
       </c>
       <c r="BC5">
-        <v>0.005908413149097823</v>
+        <v>0.005252597404063025</v>
       </c>
       <c r="BD5">
-        <v>0.005914251641318894</v>
+        <v>0.005252597404063025</v>
       </c>
       <c r="BE5">
-        <v>0.005981714679873345</v>
+        <v>0.005306210571976268</v>
       </c>
       <c r="BF5">
-        <v>0.006002848770673576</v>
+        <v>0.005313376285883014</v>
       </c>
       <c r="BG5">
-        <v>0.006056558229707255</v>
+        <v>0.005353200693567885</v>
       </c>
       <c r="BH5">
-        <v>0.006056834144617702</v>
+        <v>0.005353200693567885</v>
       </c>
       <c r="BI5">
-        <v>0.006058628826685656</v>
+        <v>0.005353200693567885</v>
       </c>
       <c r="BJ5">
-        <v>0.006085128549689054</v>
+        <v>0.005365745764594817</v>
       </c>
       <c r="BK5">
-        <v>0.00619085901369248</v>
+        <v>0.005457724243391393</v>
       </c>
       <c r="BL5">
-        <v>0.00619579423587935</v>
+        <v>0.005457724243391393</v>
       </c>
       <c r="BM5">
-        <v>0.006204352745203414</v>
+        <v>0.005457724243391393</v>
       </c>
       <c r="BN5">
-        <v>0.006324147513739377</v>
+        <v>0.005563803002241251</v>
       </c>
       <c r="BO5">
-        <v>0.006515414270981588</v>
+        <v>0.005741536570213854</v>
       </c>
       <c r="BP5">
-        <v>0.006609290984536178</v>
+        <v>0.005821630977485696</v>
       </c>
       <c r="BQ5">
-        <v>0.00679827385169191</v>
+        <v>0.005997074813338538</v>
       </c>
       <c r="BR5">
-        <v>0.007103612193253379</v>
+        <v>0.006289171752873672</v>
       </c>
       <c r="BS5">
-        <v>0.00757740095119313</v>
+        <v>0.006750149993331356</v>
       </c>
       <c r="BT5">
-        <v>0.00801929696792528</v>
+        <v>0.007179153913149603</v>
       </c>
       <c r="BU5">
-        <v>0.008241091226323398</v>
+        <v>0.00738749306952008</v>
       </c>
       <c r="BV5">
-        <v>0.008241461005237399</v>
+        <v>0.00738749306952008</v>
       </c>
       <c r="BW5">
-        <v>0.008241735327347786</v>
+        <v>0.00738749306952008</v>
       </c>
       <c r="BX5">
-        <v>0.008242139442633087</v>
+        <v>0.00738749306952008</v>
       </c>
       <c r="BY5">
-        <v>0.008308923961161846</v>
+        <v>0.007440425981800215</v>
       </c>
       <c r="BZ5">
-        <v>0.008704026546122188</v>
+        <v>0.007822516775476303</v>
       </c>
       <c r="CA5">
-        <v>0.008959096755780282</v>
+        <v>0.008064217000694483</v>
       </c>
       <c r="CB5">
-        <v>0.009299191868657797</v>
+        <v>0.008391159616968936</v>
       </c>
       <c r="CC5">
-        <v>0.009410125538858239</v>
+        <v>0.008488354611405029</v>
       </c>
       <c r="CD5">
-        <v>0.009716966010476585</v>
+        <v>0.008781957523342099</v>
       </c>
       <c r="CE5">
-        <v>0.01051378874064784</v>
+        <v>0.009566796034647225</v>
       </c>
       <c r="CF5">
-        <v>0.01090016038527759</v>
+        <v>0.009940133554849673</v>
       </c>
       <c r="CG5">
-        <v>0.01092154906208746</v>
+        <v>0.009947554505979509</v>
       </c>
       <c r="CH5">
-        <v>0.01092752172581361</v>
+        <v>0.009947554505979509</v>
       </c>
       <c r="CI5">
-        <v>0.01095831973497976</v>
+        <v>0.009964408857888673</v>
       </c>
       <c r="CJ5">
-        <v>0.01096804624834805</v>
+        <v>0.009964408857888673</v>
       </c>
       <c r="CK5">
-        <v>0.01097178347018956</v>
+        <v>0.009964408857888673</v>
       </c>
       <c r="CL5">
-        <v>0.01109897386500555</v>
+        <v>0.01007790216052039</v>
       </c>
       <c r="CM5">
-        <v>0.01110592040166858</v>
+        <v>0.01007790216052039</v>
       </c>
       <c r="CN5">
-        <v>0.09745545367124628</v>
+        <v>0.09663428914279742</v>
       </c>
       <c r="CO5">
-        <v>0.1010589122076893</v>
+        <v>0.1002329426411463</v>
       </c>
       <c r="CP5">
-        <v>0.2766025688545535</v>
+        <v>0.2762116054151058</v>
       </c>
       <c r="CQ5">
-        <v>0.3311798469210921</v>
+        <v>0.3309144659573957</v>
       </c>
       <c r="CR5">
-        <v>0.3312833495750112</v>
+        <v>0.3310042109275234</v>
       </c>
       <c r="CS5">
-        <v>0.3463682291461919</v>
+        <v>0.3461136541435522</v>
       </c>
       <c r="CT5">
-        <v>0.3719564161150746</v>
+        <v>0.3717532714930183</v>
       </c>
       <c r="CU5">
-        <v>0.4302709613231228</v>
+        <v>0.4302029588483443</v>
       </c>
       <c r="CV5">
-        <v>0.45788491536871</v>
+        <v>0.4578735250469463</v>
       </c>
       <c r="CW5">
-        <v>0.4645981436229027</v>
+        <v>0.4645899028394503</v>
       </c>
       <c r="CX5">
-        <v>0.4685010794706852</v>
+        <v>0.4684887996914412</v>
       </c>
       <c r="CY5">
-        <v>0.4741517266846438</v>
+        <v>0.4741398784347142</v>
       </c>
       <c r="CZ5">
-        <v>0.4783210148425117</v>
+        <v>0.4783058089076249</v>
       </c>
       <c r="DA5">
-        <v>0.4861274876380995</v>
+        <v>0.4861182276856417</v>
       </c>
       <c r="DB5">
-        <v>0.488025113309952</v>
+        <v>0.4880066849166122</v>
       </c>
       <c r="DC5">
-        <v>0.4950194365747883</v>
+        <v>0.4950048767414052</v>
       </c>
       <c r="DD5">
-        <v>0.4975134684692234</v>
+        <v>0.4974912657609317</v>
       </c>
       <c r="DE5">
-        <v>0.4979014697539149</v>
+        <v>0.4978662370897027</v>
       </c>
       <c r="DF5">
-        <v>0.4997668960245482</v>
+        <v>0.499722412555607</v>
       </c>
       <c r="DG5">
-        <v>0.5247585139708422</v>
+        <v>0.5247639349000799</v>
       </c>
       <c r="DH5">
-        <v>0.5275811828777209</v>
+        <v>0.5275798015628562</v>
       </c>
       <c r="DI5">
-        <v>0.5277724496349632</v>
+        <v>0.5277575351308288</v>
       </c>
       <c r="DJ5">
-        <v>0.5350586049108494</v>
+        <v>0.5350483054528236</v>
       </c>
       <c r="DK5">
-        <v>0.538787422252039</v>
+        <v>0.5387726384150936</v>
       </c>
       <c r="DL5">
-        <v>0.5524363137688468</v>
+        <v>0.5524424204183704</v>
       </c>
       <c r="DM5">
-        <v>0.5565826575258459</v>
+        <v>0.5565853478002177</v>
       </c>
       <c r="DN5">
-        <v>0.5597807818469411</v>
+        <v>0.5597776302662587</v>
       </c>
       <c r="DO5">
-        <v>0.5635503536896739</v>
+        <v>0.5635428219772753</v>
       </c>
       <c r="DP5">
-        <v>0.5675312848404096</v>
+        <v>0.5675199136388238</v>
       </c>
       <c r="DQ5">
-        <v>0.5678381253120279</v>
+        <v>0.5678135165507608</v>
       </c>
       <c r="DR5">
-        <v>0.5687872400879657</v>
+        <v>0.5687510366603794</v>
       </c>
       <c r="DS5">
-        <v>0.5687905570280912</v>
+        <v>0.5687510366603794</v>
       </c>
       <c r="DT5">
-        <v>0.5688810176315164</v>
+        <v>0.5688277062193479</v>
       </c>
       <c r="DU5">
-        <v>0.5691404668813403</v>
+        <v>0.5690737966860145</v>
       </c>
       <c r="DV5">
-        <v>0.5769930821786753</v>
+        <v>0.5769324759951148</v>
       </c>
       <c r="DW5">
-        <v>0.6255478810171761</v>
+        <v>0.6255974522229721</v>
       </c>
       <c r="DX5">
-        <v>0.6377870744806065</v>
+        <v>0.6378539302625013</v>
       </c>
       <c r="DY5">
-        <v>0.638292072759728</v>
+        <v>0.6383461978559428</v>
       </c>
       <c r="DZ5">
-        <v>0.645472316331604</v>
+        <v>0.6455307855590949</v>
       </c>
       <c r="EA5">
-        <v>0.645498831684608</v>
+        <v>0.6455433463001029</v>
       </c>
       <c r="EB5">
-        <v>0.670959599648666</v>
+        <v>0.6710552187157203</v>
       </c>
       <c r="EC5">
-        <v>0.6736848561518564</v>
+        <v>0.6737734238005997</v>
       </c>
       <c r="ED5">
-        <v>0.6740712277964861</v>
+        <v>0.6741467613208021</v>
       </c>
       <c r="EE5">
-        <v>0.6813904100736229</v>
+        <v>0.6814706431248382</v>
       </c>
       <c r="EF5">
-        <v>0.6831454411400761</v>
+        <v>0.683216141003246</v>
       </c>
       <c r="EG5">
-        <v>0.6837256307920447</v>
+        <v>0.6837837923038792</v>
       </c>
       <c r="EH5">
-        <v>0.6838620102272087</v>
+        <v>0.6839064981517902</v>
       </c>
       <c r="EI5">
-        <v>0.6840895976458262</v>
+        <v>0.6841206452868842</v>
       </c>
       <c r="EJ5">
-        <v>0.6870383107574777</v>
+        <v>0.6870628785668136</v>
       </c>
       <c r="EK5">
-        <v>0.7032944983730093</v>
+        <v>0.7033466259523662</v>
       </c>
       <c r="EL5">
-        <v>0.7045470808204376</v>
+        <v>0.7045883899828438</v>
       </c>
       <c r="EM5">
-        <v>0.7069143979100747</v>
+        <v>0.7069477400698432</v>
       </c>
       <c r="EN5">
-        <v>0.7104683126446417</v>
+        <v>0.7104967230366888</v>
       </c>
       <c r="EO5">
-        <v>0.719031048968865</v>
+        <v>0.7190673398132752</v>
       </c>
       <c r="EP5">
-        <v>0.7475607850491278</v>
+        <v>0.7476560305538208</v>
       </c>
       <c r="EQ5">
-        <v>0.7693574498744465</v>
+        <v>0.7694944273076442</v>
       </c>
       <c r="ER5">
-        <v>0.7771978376713186</v>
+        <v>0.7773408478391788</v>
       </c>
       <c r="ES5">
-        <v>0.7843104029406319</v>
+        <v>0.7844575841233393</v>
       </c>
       <c r="ET5">
-        <v>0.7848799295921968</v>
+        <v>0.7850145451483493</v>
       </c>
       <c r="EU5">
-        <v>0.785723392224134</v>
+        <v>0.7858461428630716</v>
       </c>
       <c r="EV5">
-        <v>0.7874507768895405</v>
+        <v>0.787563923622846</v>
       </c>
       <c r="EW5">
-        <v>0.7935307736197562</v>
+        <v>0.7936454501288193</v>
       </c>
       <c r="EX5">
-        <v>0.8076845061556795</v>
+        <v>0.8078213644997112</v>
       </c>
       <c r="EY5">
-        <v>0.8273130668989043</v>
+        <v>0.8274861113107688</v>
       </c>
       <c r="EZ5">
-        <v>0.8450627755709873</v>
+        <v>0.8452672000767023</v>
       </c>
       <c r="FA5">
-        <v>0.8526946192599629</v>
+        <v>0.8529045430588992</v>
       </c>
       <c r="FB5">
-        <v>0.8568498557172987</v>
+        <v>0.8570563858879972</v>
       </c>
       <c r="FC5">
-        <v>0.8643400730009116</v>
+        <v>0.8645517401942568</v>
       </c>
       <c r="FD5">
-        <v>0.8643473963121889</v>
+        <v>0.8645517401942568</v>
       </c>
       <c r="FE5">
-        <v>0.8649605508354057</v>
+        <v>0.8651524406880048</v>
       </c>
       <c r="FF5">
-        <v>0.8651104685010822</v>
+        <v>0.865288719396288</v>
       </c>
       <c r="FG5">
-        <v>0.8652685700170686</v>
+        <v>0.8654332028886057</v>
       </c>
       <c r="FH5">
-        <v>0.8685942241429927</v>
+        <v>0.8687533413719184</v>
       </c>
       <c r="FI5">
-        <v>0.8752825947962442</v>
+        <v>0.8754447979794528</v>
       </c>
       <c r="FJ5">
-        <v>0.8857748811935289</v>
+        <v>0.8859499004850744</v>
       </c>
       <c r="FK5">
-        <v>0.919011915452031</v>
+        <v>0.9192579303478585</v>
       </c>
       <c r="FL5">
-        <v>0.9446619634232559</v>
+        <v>0.9449595669358434</v>
       </c>
       <c r="FM5">
-        <v>0.9491471800930862</v>
+        <v>0.9494422340440553</v>
       </c>
       <c r="FN5">
-        <v>0.9526535287258522</v>
+        <v>0.9529435292382928</v>
       </c>
       <c r="FO5">
-        <v>0.9526574217729996</v>
+        <v>0.9529435292382928</v>
       </c>
       <c r="FP5">
-        <v>0.9598449426451512</v>
+        <v>0.9601354128565526</v>
       </c>
       <c r="FQ5">
-        <v>0.9645701408240682</v>
+        <v>0.9648586753299959</v>
       </c>
       <c r="FR5">
-        <v>0.9717763975969291</v>
+        <v>0.9720693427741066</v>
       </c>
       <c r="FS5">
-        <v>0.9794734953883755</v>
+        <v>0.9797721067742668</v>
       </c>
       <c r="FT5">
-        <v>0.9799816002676146</v>
+        <v>0.9802674889142948</v>
       </c>
       <c r="FU5">
-        <v>0.9802473616976776</v>
+        <v>0.9805199077073221</v>
       </c>
       <c r="FV5">
-        <v>0.9816590716511312</v>
+        <v>0.9819212062810078</v>
       </c>
       <c r="FW5">
-        <v>0.9822234121724996</v>
+        <v>0.9824729679100581</v>
       </c>
       <c r="FX5">
-        <v>0.9828434972459789</v>
+        <v>0.9830806166819379</v>
       </c>
       <c r="FY5">
-        <v>0.9840544196918297</v>
+        <v>0.9842806141474281</v>
       </c>
       <c r="FZ5">
-        <v>0.9865567303865783</v>
+        <v>0.9867753031438681</v>
       </c>
       <c r="GA5">
-        <v>0.9866120931606746</v>
+        <v>0.9868167850956814</v>
       </c>
       <c r="GB5">
-        <v>0.9884512504303132</v>
+        <v>0.9886466243662987</v>
       </c>
       <c r="GC5">
-        <v>0.9916742295523495</v>
+        <v>0.9918638252101469</v>
       </c>
       <c r="GD5">
-        <v>0.9923816706791364</v>
+        <v>0.9925590534860923</v>
       </c>
       <c r="GE5">
-        <v>0.9924539535818734</v>
+        <v>0.9926174988470681</v>
       </c>
       <c r="GF5">
-        <v>0.9924545080212944</v>
+        <v>0.9926174988470681</v>
       </c>
       <c r="GG5">
-        <v>0.9927437171022452</v>
+        <v>0.9928934252684566</v>
       </c>
       <c r="GH5">
-        <v>0.992832609175611</v>
+        <v>0.992968522285174</v>
       </c>
       <c r="GI5">
-        <v>0.9942245672283168</v>
+        <v>0.9943500184341122</v>
       </c>
       <c r="GJ5">
-        <v>0.9942397244378907</v>
+        <v>0.9943511919783428</v>
       </c>
       <c r="GK5">
-        <v>0.994254022542432</v>
+        <v>0.9943515042200094</v>
       </c>
       <c r="GL5">
-        <v>0.9960719313112661</v>
+        <v>0.996160040637623</v>
       </c>
       <c r="GM5">
-        <v>0.9968523885408177</v>
+        <v>0.9969284717864868</v>
       </c>
       <c r="GN5">
-        <v>0.9977046048730864</v>
+        <v>0.9977688455929021</v>
       </c>
       <c r="GO5">
-        <v>0.9980543848863307</v>
+        <v>0.9981054978828503</v>
       </c>
       <c r="GP5">
-        <v>0.9986018032070584</v>
+        <v>0.9986402940254381</v>
       </c>
       <c r="GQ5">
-        <v>0.9988910122880091</v>
+        <v>0.9989162204468266</v>
       </c>
       <c r="GR5">
-        <v>0.9994818899803825</v>
+        <v>0.9994945871271345</v>
       </c>
       <c r="GS5">
         <v>1</v>
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0002635829910266604</v>
+        <v>0.0001455691381178196</v>
       </c>
       <c r="C6">
-        <v>0.000376016177199019</v>
+        <v>0.0001455691381178196</v>
       </c>
       <c r="D6">
-        <v>0.0003813421940177017</v>
+        <v>0.0001455691381178196</v>
       </c>
       <c r="E6">
-        <v>0.0004315840003072848</v>
+        <v>0.0001455691381178196</v>
       </c>
       <c r="F6">
-        <v>0.0004330262113581866</v>
+        <v>0.0001455691381178196</v>
       </c>
       <c r="G6">
-        <v>0.0006759174630892702</v>
+        <v>0.0002700551412949384</v>
       </c>
       <c r="H6">
-        <v>0.001013838051585204</v>
+        <v>0.0004913680134809338</v>
       </c>
       <c r="I6">
-        <v>0.00114187890722622</v>
+        <v>0.000498831162070016</v>
       </c>
       <c r="J6">
-        <v>0.00127661162263942</v>
+        <v>0.0005131127506445358</v>
       </c>
       <c r="K6">
-        <v>0.001279239441049959</v>
+        <v>0.0005131127506445358</v>
       </c>
       <c r="L6">
-        <v>0.001324114803522236</v>
+        <v>0.0005131127506445358</v>
       </c>
       <c r="M6">
-        <v>0.001329584378336032</v>
+        <v>0.0005131127506445358</v>
       </c>
       <c r="N6">
-        <v>0.001491238762832719</v>
+        <v>0.000554825246500851</v>
       </c>
       <c r="O6">
-        <v>0.001614102778649973</v>
+        <v>0.0005570136324896677</v>
       </c>
       <c r="P6">
-        <v>0.001734819034540345</v>
+        <v>0.0005570136324896677</v>
       </c>
       <c r="Q6">
-        <v>0.002195874118844325</v>
+        <v>0.0009037901572904611</v>
       </c>
       <c r="R6">
-        <v>0.002533794707340259</v>
+        <v>0.001125103029476456</v>
       </c>
       <c r="S6">
-        <v>0.002544522402975049</v>
+        <v>0.001125103029476456</v>
       </c>
       <c r="T6">
-        <v>0.002582594681678927</v>
+        <v>0.001125103029476456</v>
       </c>
       <c r="U6">
-        <v>0.002638422309778348</v>
+        <v>0.001125103029476456</v>
       </c>
       <c r="V6">
-        <v>0.002639640267936884</v>
+        <v>0.001125103029476456</v>
       </c>
       <c r="W6">
-        <v>0.002639789228271813</v>
+        <v>0.001125103029476456</v>
       </c>
       <c r="X6">
-        <v>0.002669919527246066</v>
+        <v>0.001125103029476456</v>
       </c>
       <c r="Y6">
-        <v>0.002669921585733396</v>
+        <v>0.001125103029476456</v>
       </c>
       <c r="Z6">
-        <v>0.002808768421006537</v>
+        <v>0.001143576558753993</v>
       </c>
       <c r="AA6">
-        <v>0.002822779456529549</v>
+        <v>0.001143576558753993</v>
       </c>
       <c r="AB6">
-        <v>0.00282343828570712</v>
+        <v>0.001143576558753993</v>
       </c>
       <c r="AC6">
-        <v>0.002967492900802968</v>
+        <v>0.001167356375877862</v>
       </c>
       <c r="AD6">
-        <v>0.003309207389169744</v>
+        <v>0.001392534911640315</v>
       </c>
       <c r="AE6">
-        <v>0.003346304301906827</v>
+        <v>0.001392534911640315</v>
       </c>
       <c r="AF6">
-        <v>0.003482015807286706</v>
+        <v>0.001407813804532819</v>
       </c>
       <c r="AG6">
-        <v>0.003784032447004943</v>
+        <v>0.001592543584975241</v>
       </c>
       <c r="AH6">
-        <v>0.004170282083855577</v>
+        <v>0.00186309967608366</v>
       </c>
       <c r="AI6">
-        <v>0.004577364129996999</v>
+        <v>0.002154882232978427</v>
       </c>
       <c r="AJ6">
-        <v>0.004955055697138981</v>
+        <v>0.002416718373776144</v>
       </c>
       <c r="AK6">
-        <v>0.004977298493381754</v>
+        <v>0.002416718373776144</v>
       </c>
       <c r="AL6">
-        <v>0.005004114807468828</v>
+        <v>0.002416718373776144</v>
       </c>
       <c r="AM6">
-        <v>0.005017406827016318</v>
+        <v>0.002416718373776144</v>
       </c>
       <c r="AN6">
-        <v>0.005025079929755097</v>
+        <v>0.002416718373776144</v>
       </c>
       <c r="AO6">
-        <v>0.005079104662915895</v>
+        <v>0.002416718373776144</v>
       </c>
       <c r="AP6">
-        <v>0.005161946020095669</v>
+        <v>0.002416718373776144</v>
       </c>
       <c r="AQ6">
-        <v>0.005477444189354945</v>
+        <v>0.002615184694316069</v>
       </c>
       <c r="AR6">
-        <v>0.00556937911622514</v>
+        <v>0.002615184694316069</v>
       </c>
       <c r="AS6">
-        <v>0.00566508404296699</v>
+        <v>0.002615184694316069</v>
       </c>
       <c r="AT6">
-        <v>0.006018380530939471</v>
+        <v>0.002852164309585764</v>
       </c>
       <c r="AU6">
-        <v>0.006481004035190057</v>
+        <v>0.003200538921860288</v>
       </c>
       <c r="AV6">
-        <v>0.006532205685446963</v>
+        <v>0.003200538921860288</v>
       </c>
       <c r="AW6">
-        <v>0.006565205477323528</v>
+        <v>0.003200538921860288</v>
       </c>
       <c r="AX6">
-        <v>0.00672778911178858</v>
+        <v>0.003243198244959921</v>
       </c>
       <c r="AY6">
-        <v>0.006761209486650826</v>
+        <v>0.003243198244959921</v>
       </c>
       <c r="AZ6">
-        <v>0.006792826580574464</v>
+        <v>0.003243198244959921</v>
       </c>
       <c r="BA6">
-        <v>0.007042590322071583</v>
+        <v>0.003374686734832147</v>
       </c>
       <c r="BB6">
-        <v>0.007256808694778797</v>
+        <v>0.003469957495686555</v>
       </c>
       <c r="BC6">
-        <v>0.007257372492159604</v>
+        <v>0.003469957495686555</v>
       </c>
       <c r="BD6">
-        <v>0.007257550951823529</v>
+        <v>0.003469957495686555</v>
       </c>
       <c r="BE6">
-        <v>0.007258677787085167</v>
+        <v>0.003469957495686555</v>
       </c>
       <c r="BF6">
-        <v>0.007311893768273499</v>
+        <v>0.003469957495686555</v>
       </c>
       <c r="BG6">
-        <v>0.007337959540386124</v>
+        <v>0.003469957495686555</v>
       </c>
       <c r="BH6">
-        <v>0.007339537438132406</v>
+        <v>0.003469957495686555</v>
       </c>
       <c r="BI6">
-        <v>0.007339770981574456</v>
+        <v>0.003469957495686555</v>
       </c>
       <c r="BJ6">
-        <v>0.007398817394564298</v>
+        <v>0.003469957495686555</v>
       </c>
       <c r="BK6">
-        <v>0.007471052662105142</v>
+        <v>0.003469957495686555</v>
       </c>
       <c r="BL6">
-        <v>0.007623999956898251</v>
+        <v>0.003502798202441962</v>
       </c>
       <c r="BM6">
-        <v>0.00798163532472302</v>
+        <v>0.003744198769866068</v>
       </c>
       <c r="BN6">
-        <v>0.008455555908589011</v>
+        <v>0.004104084152238993</v>
       </c>
       <c r="BO6">
-        <v>0.00886509579464676</v>
+        <v>0.004398371040445803</v>
       </c>
       <c r="BP6">
-        <v>0.00934752782822299</v>
+        <v>0.00476692887128807</v>
       </c>
       <c r="BQ6">
-        <v>0.009765479833994358</v>
+        <v>0.005069786999086011</v>
       </c>
       <c r="BR6">
-        <v>0.00990261205932587</v>
+        <v>0.00508651348563052</v>
       </c>
       <c r="BS6">
-        <v>0.009918406658788164</v>
+        <v>0.00508651348563052</v>
       </c>
       <c r="BT6">
-        <v>0.009938851597092143</v>
+        <v>0.00508651348563052</v>
       </c>
       <c r="BU6">
-        <v>0.009939278731147602</v>
+        <v>0.00508651348563052</v>
       </c>
       <c r="BV6">
-        <v>0.009997680123159403</v>
+        <v>0.00508651348563052</v>
       </c>
       <c r="BW6">
-        <v>0.009998272402009239</v>
+        <v>0.00508651348563052</v>
       </c>
       <c r="BX6">
-        <v>0.0100180129203372</v>
+        <v>0.00508651348563052</v>
       </c>
       <c r="BY6">
-        <v>0.01011064895718353</v>
+        <v>0.00508651348563052</v>
       </c>
       <c r="BZ6">
-        <v>0.01026106156206292</v>
+        <v>0.005116771557416473</v>
       </c>
       <c r="CA6">
-        <v>0.01044840739568498</v>
+        <v>0.005184661470308391</v>
       </c>
       <c r="CB6">
-        <v>0.01057727541129783</v>
+        <v>0.005192967425055754</v>
       </c>
       <c r="CC6">
-        <v>0.01070531626693885</v>
+        <v>0.005200430573644836</v>
       </c>
       <c r="CD6">
-        <v>0.01096049153825174</v>
+        <v>0.005337432955399796</v>
       </c>
       <c r="CE6">
-        <v>0.01146701639100776</v>
+        <v>0.005730539334366195</v>
       </c>
       <c r="CF6">
-        <v>0.01183790247838143</v>
+        <v>0.005985441265997538</v>
       </c>
       <c r="CG6">
-        <v>0.01200801600259014</v>
+        <v>0.006035772910852549</v>
       </c>
       <c r="CH6">
-        <v>0.01216233226733664</v>
+        <v>0.006070008482382004</v>
       </c>
       <c r="CI6">
-        <v>0.01231334217219571</v>
+        <v>0.006100875152405713</v>
       </c>
       <c r="CJ6">
-        <v>0.01231409369821012</v>
+        <v>0.006100875152405713</v>
       </c>
       <c r="CK6">
-        <v>0.01238448009581391</v>
+        <v>0.006100875152405713</v>
       </c>
       <c r="CL6">
-        <v>0.01240547872509904</v>
+        <v>0.006100875152405713</v>
       </c>
       <c r="CM6">
-        <v>0.02553096027825911</v>
+        <v>0.01935163274788208</v>
       </c>
       <c r="CN6">
-        <v>0.1444604862294583</v>
+        <v>0.1404077765146703</v>
       </c>
       <c r="CO6">
-        <v>0.2736577818311046</v>
+        <v>0.2719259104500031</v>
       </c>
       <c r="CP6">
-        <v>0.3782920632689668</v>
+        <v>0.378416407280121</v>
       </c>
       <c r="CQ6">
-        <v>0.3799045369140722</v>
+        <v>0.3799363820819654</v>
       </c>
       <c r="CR6">
-        <v>0.3882787461289832</v>
+        <v>0.3883459944060658</v>
       </c>
       <c r="CS6">
-        <v>0.3893042637940707</v>
+        <v>0.3892679106322537</v>
       </c>
       <c r="CT6">
-        <v>0.4730749509422068</v>
+        <v>0.4745001667956549</v>
       </c>
       <c r="CU6">
-        <v>0.4928697812683176</v>
+        <v>0.4945464275693863</v>
       </c>
       <c r="CV6">
-        <v>0.5222336042686645</v>
+        <v>0.5243426837840822</v>
       </c>
       <c r="CW6">
-        <v>0.5222336387678334</v>
+        <v>0.5243426837840822</v>
       </c>
       <c r="CX6">
-        <v>0.5257762940472283</v>
+        <v>0.5278293506689109</v>
       </c>
       <c r="CY6">
-        <v>0.5369717626660931</v>
+        <v>0.5391135880724505</v>
       </c>
       <c r="CZ6">
-        <v>0.537398483651566</v>
+        <v>0.5394253810500306</v>
       </c>
       <c r="DA6">
-        <v>0.5415628175097966</v>
+        <v>0.5435454859064144</v>
       </c>
       <c r="DB6">
-        <v>0.5470731629222041</v>
+        <v>0.5490370628668624</v>
       </c>
       <c r="DC6">
-        <v>0.5473169877339034</v>
+        <v>0.5491625000888087</v>
       </c>
       <c r="DD6">
-        <v>0.5497862774498397</v>
+        <v>0.5515554981093705</v>
       </c>
       <c r="DE6">
-        <v>0.551424250094077</v>
+        <v>0.5531014542379594</v>
       </c>
       <c r="DF6">
-        <v>0.5644649716501227</v>
+        <v>0.5662658485542928</v>
       </c>
       <c r="DG6">
-        <v>0.5777232841987606</v>
+        <v>0.5796519497166857</v>
       </c>
       <c r="DH6">
-        <v>0.5778267563752381</v>
+        <v>0.5796519497166857</v>
       </c>
       <c r="DI6">
-        <v>0.5814202718529015</v>
+        <v>0.5831904388484453</v>
       </c>
       <c r="DJ6">
-        <v>0.581545302578645</v>
+        <v>0.583194834928872</v>
       </c>
       <c r="DK6">
-        <v>0.5966075470658705</v>
+        <v>0.5984189903960188</v>
       </c>
       <c r="DL6">
-        <v>0.5966292198931327</v>
+        <v>0.5984189903960188</v>
       </c>
       <c r="DM6">
-        <v>0.6015282600263512</v>
+        <v>0.6032876989012346</v>
       </c>
       <c r="DN6">
-        <v>0.6050825086053514</v>
+        <v>0.6067861783793158</v>
       </c>
       <c r="DO6">
-        <v>0.6073332205287288</v>
+        <v>0.6089564640879869</v>
       </c>
       <c r="DP6">
-        <v>0.6083937307926252</v>
+        <v>0.6099140348172627</v>
       </c>
       <c r="DQ6">
-        <v>0.6088318133777112</v>
+        <v>0.6102374043053703</v>
       </c>
       <c r="DR6">
-        <v>0.6094467777567756</v>
+        <v>0.6107410014040102</v>
       </c>
       <c r="DS6">
-        <v>0.6097101791178084</v>
+        <v>0.6108863854765029</v>
       </c>
       <c r="DT6">
-        <v>0.609730077761131</v>
+        <v>0.6108863854765029</v>
       </c>
       <c r="DU6">
-        <v>0.6100974396886246</v>
+        <v>0.611137696586829</v>
       </c>
       <c r="DV6">
-        <v>0.6380732117362259</v>
+        <v>0.639519646100514</v>
       </c>
       <c r="DW6">
-        <v>0.6763615134327505</v>
+        <v>0.6784091924412433</v>
       </c>
       <c r="DX6">
-        <v>0.6764170614778595</v>
+        <v>0.6784091924412433</v>
       </c>
       <c r="DY6">
-        <v>0.6792176854825159</v>
+        <v>0.6811397921210848</v>
       </c>
       <c r="DZ6">
-        <v>0.6825401048694085</v>
+        <v>0.6844020572302055</v>
       </c>
       <c r="EA6">
-        <v>0.6919578735487929</v>
+        <v>0.693874968520809</v>
       </c>
       <c r="EB6">
-        <v>0.7024455511917536</v>
+        <v>0.7044380266923065</v>
       </c>
       <c r="EC6">
-        <v>0.7024474987233873</v>
+        <v>0.7044380266923065</v>
       </c>
       <c r="ED6">
-        <v>0.706266098293388</v>
+        <v>0.7082058575059791</v>
       </c>
       <c r="EE6">
-        <v>0.7076318862468916</v>
+        <v>0.7094744804204983</v>
       </c>
       <c r="EF6">
-        <v>0.7088465656055394</v>
+        <v>0.7105891364378644</v>
       </c>
       <c r="EG6">
-        <v>0.7093574799881459</v>
+        <v>0.710986715377056</v>
       </c>
       <c r="EH6">
-        <v>0.7094300340256759</v>
+        <v>0.710986715377056</v>
       </c>
       <c r="EI6">
-        <v>0.7098994847896941</v>
+        <v>0.7113420463904769</v>
       </c>
       <c r="EJ6">
-        <v>0.7244600232939995</v>
+        <v>0.7260550058297131</v>
       </c>
       <c r="EK6">
-        <v>0.731952672038922</v>
+        <v>0.7335663824819999</v>
       </c>
       <c r="EL6">
-        <v>0.7320219484805636</v>
+        <v>0.7335663824819999</v>
       </c>
       <c r="EM6">
-        <v>0.7345993330928199</v>
+        <v>0.7360695200733809</v>
       </c>
       <c r="EN6">
-        <v>0.7379484483788036</v>
+        <v>0.7393589860492275</v>
       </c>
       <c r="EO6">
-        <v>0.7556327457767648</v>
+        <v>0.7572547920020593</v>
       </c>
       <c r="EP6">
-        <v>0.7840005048110213</v>
+        <v>0.7860361431521461</v>
       </c>
       <c r="EQ6">
-        <v>0.7961230483983252</v>
+        <v>0.7982649916577559</v>
       </c>
       <c r="ER6">
-        <v>0.8063223960511017</v>
+        <v>0.808534265918502</v>
       </c>
       <c r="ES6">
-        <v>0.8095847926400377</v>
+        <v>0.8117353728653842</v>
       </c>
       <c r="ET6">
-        <v>0.8097785184834425</v>
+        <v>0.8118097634694579</v>
       </c>
       <c r="EU6">
-        <v>0.8111085808381623</v>
+        <v>0.8130419850158158</v>
       </c>
       <c r="EV6">
-        <v>0.8150285657047115</v>
+        <v>0.8169131188847609</v>
       </c>
       <c r="EW6">
-        <v>0.8228468624385478</v>
+        <v>0.8247563033370283</v>
       </c>
       <c r="EX6">
-        <v>0.8389491698903657</v>
+        <v>0.8410401951325761</v>
       </c>
       <c r="EY6">
-        <v>0.856261909300976</v>
+        <v>0.8585574148740841</v>
       </c>
       <c r="EZ6">
-        <v>0.866017901968846</v>
+        <v>0.8683749478461984</v>
       </c>
       <c r="FA6">
-        <v>0.8703567134211369</v>
+        <v>0.8726728306364306</v>
       </c>
       <c r="FB6">
-        <v>0.8756269177417196</v>
+        <v>0.8779197241040401</v>
       </c>
       <c r="FC6">
-        <v>0.8761091040253043</v>
+        <v>0.8782880315363942</v>
       </c>
       <c r="FD6">
-        <v>0.8771723570891072</v>
+        <v>0.8792483969471476</v>
       </c>
       <c r="FE6">
-        <v>0.8774710009789403</v>
+        <v>0.8794296901802832</v>
       </c>
       <c r="FF6">
-        <v>0.8774877313953707</v>
+        <v>0.8794296901802832</v>
       </c>
       <c r="FG6">
-        <v>0.8789029207471925</v>
+        <v>0.8807486489477785</v>
       </c>
       <c r="FH6">
-        <v>0.8829479623094842</v>
+        <v>0.8847472050287434</v>
       </c>
       <c r="FI6">
-        <v>0.8868245977775092</v>
+        <v>0.8885741695214157</v>
       </c>
       <c r="FJ6">
-        <v>0.9070080820903887</v>
+        <v>0.9090164358861338</v>
       </c>
       <c r="FK6">
-        <v>0.9389698710022912</v>
+        <v>0.9414597999684788</v>
       </c>
       <c r="FL6">
-        <v>0.9479270486973558</v>
+        <v>0.9504634079426153</v>
       </c>
       <c r="FM6">
-        <v>0.9518158111649679</v>
+        <v>0.9543027288237511</v>
       </c>
       <c r="FN6">
-        <v>0.9529094216277374</v>
+        <v>0.9552940258603924</v>
       </c>
       <c r="FO6">
-        <v>0.9567687184963527</v>
+        <v>0.9591033237844976</v>
       </c>
       <c r="FP6">
-        <v>0.9626173564972434</v>
+        <v>0.9649395923240608</v>
       </c>
       <c r="FQ6">
-        <v>0.9698036526525954</v>
+        <v>0.972138821558816</v>
       </c>
       <c r="FR6">
-        <v>0.9777667333815027</v>
+        <v>0.9801295286751636</v>
       </c>
       <c r="FS6">
-        <v>0.9809251198739795</v>
+        <v>0.9832246581173267</v>
       </c>
       <c r="FT6">
-        <v>0.981171817315581</v>
+        <v>0.983353022306552</v>
       </c>
       <c r="FU6">
-        <v>0.9819117275203917</v>
+        <v>0.9839839286500484</v>
       </c>
       <c r="FV6">
-        <v>0.9834441393682227</v>
+        <v>0.9854223272416274</v>
       </c>
       <c r="FW6">
-        <v>0.9836939031097198</v>
+        <v>0.9855538157314996</v>
       </c>
       <c r="FX6">
-        <v>0.9845706374798725</v>
+        <v>0.9863241343447838</v>
       </c>
       <c r="FY6">
-        <v>0.986950093898867</v>
+        <v>0.988625599822115</v>
       </c>
       <c r="FZ6">
-        <v>0.9880538162612922</v>
+        <v>0.9896272000305633</v>
       </c>
       <c r="GA6">
-        <v>0.9885771556734758</v>
+        <v>0.9900374390256097</v>
       </c>
       <c r="GB6">
-        <v>0.9911619556854797</v>
+        <v>0.9925481322831086</v>
       </c>
       <c r="GC6">
-        <v>0.9928861605267814</v>
+        <v>0.9941819517382632</v>
       </c>
       <c r="GD6">
-        <v>0.993494506706071</v>
+        <v>0.9946788054502346</v>
       </c>
       <c r="GE6">
-        <v>0.9939040465921287</v>
+        <v>0.9949730923384413</v>
       </c>
       <c r="GF6">
-        <v>0.993933118074139</v>
+        <v>0.9949730923384413</v>
       </c>
       <c r="GG6">
-        <v>0.9939412382208626</v>
+        <v>0.9949730923384413</v>
       </c>
       <c r="GH6">
-        <v>0.9944904910021639</v>
+        <v>0.9954097348682547</v>
       </c>
       <c r="GI6">
-        <v>0.9950261456439282</v>
+        <v>0.9958325220422323</v>
       </c>
       <c r="GJ6">
-        <v>0.9950395746014711</v>
+        <v>0.9958325220422323</v>
       </c>
       <c r="GK6">
-        <v>0.995806500845362</v>
+        <v>0.9964909554480678</v>
       </c>
       <c r="GL6">
-        <v>0.996921128407416</v>
+        <v>0.997503667134002</v>
       </c>
       <c r="GM6">
-        <v>0.9975092446873943</v>
+        <v>0.9979799082869746</v>
       </c>
       <c r="GN6">
-        <v>0.9981369432160252</v>
+        <v>0.9984964804086336</v>
       </c>
       <c r="GO6">
-        <v>0.9981387750523628</v>
+        <v>0.9984964804086336</v>
       </c>
       <c r="GP6">
-        <v>0.9988026605297617</v>
+        <v>0.9990499239751272</v>
       </c>
       <c r="GQ6">
-        <v>0.9994534480576065</v>
+        <v>0.9995900218371369</v>
       </c>
       <c r="GR6">
-        <v>0.9999765314797988</v>
+        <v>1</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>103</v>
       </c>
       <c r="E2">
-        <v>0.01269704761990285</v>
+        <v>0.01244675967353651</v>
       </c>
       <c r="F2">
-        <v>0.5028411503674657</v>
+        <v>0.5028355369844916</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>22</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>110</v>
       </c>
       <c r="E3">
-        <v>0.01256054747815522</v>
+        <v>0.01297375802564407</v>
       </c>
       <c r="F3">
-        <v>0.5169852548126231</v>
+        <v>0.5169658983882858</v>
       </c>
       <c r="G3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H3">
         <v>22</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>98</v>
       </c>
       <c r="E4">
-        <v>0.01237489128571141</v>
+        <v>0.01184778969305191</v>
       </c>
       <c r="F4">
-        <v>0.5109397592311343</v>
+        <v>0.5109925268468093</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H4">
         <v>22</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>110</v>
       </c>
       <c r="E5">
-        <v>0.01096804624834805</v>
+        <v>0.01007790216052039</v>
       </c>
       <c r="F5">
-        <v>0.5247585139708422</v>
+        <v>0.5247639349000799</v>
       </c>
       <c r="G5">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>22</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>99</v>
       </c>
       <c r="E6">
-        <v>0.01231409369821012</v>
+        <v>0.006100875152405713</v>
       </c>
       <c r="F6">
-        <v>0.5222336042686645</v>
+        <v>0.5243426837840822</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <v>22</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>134</v>
       </c>
       <c r="E2">
-        <v>0.01269704761990285</v>
+        <v>0.01244675967353651</v>
       </c>
       <c r="F2">
-        <v>0.7075412415284943</v>
+        <v>0.7076044630920579</v>
       </c>
       <c r="G2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H2">
         <v>22</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>139</v>
       </c>
       <c r="E3">
-        <v>0.01256054747815522</v>
+        <v>0.01297375802564407</v>
       </c>
       <c r="F3">
-        <v>0.7029648587784925</v>
+        <v>0.7030214377777372</v>
       </c>
       <c r="G3">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H3">
         <v>22</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>127</v>
       </c>
       <c r="E4">
-        <v>0.01237489128571141</v>
+        <v>0.01184778969305191</v>
       </c>
       <c r="F4">
-        <v>0.7004932086267869</v>
+        <v>0.7005987522107402</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>22</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>140</v>
       </c>
       <c r="E5">
-        <v>0.01096804624834805</v>
+        <v>0.01007790216052039</v>
       </c>
       <c r="F5">
-        <v>0.7032944983730093</v>
+        <v>0.7033466259523662</v>
       </c>
       <c r="G5">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H5">
         <v>22</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>131</v>
       </c>
       <c r="E6">
-        <v>0.01231409369821012</v>
+        <v>0.006100875152405713</v>
       </c>
       <c r="F6">
-        <v>0.7024455511917536</v>
+        <v>0.7044380266923065</v>
       </c>
       <c r="G6">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H6">
         <v>22</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>146</v>
       </c>
       <c r="E2">
-        <v>0.01269704761990285</v>
+        <v>0.01244675967353651</v>
       </c>
       <c r="F2">
-        <v>0.8060300728012473</v>
+        <v>0.8061501802126211</v>
       </c>
       <c r="G2">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H2">
         <v>22</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>148</v>
       </c>
       <c r="E3">
-        <v>0.01256054747815522</v>
+        <v>0.01297375802564407</v>
       </c>
       <c r="F3">
-        <v>0.8102018965336103</v>
+        <v>0.8103863954393871</v>
       </c>
       <c r="G3">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H3">
         <v>22</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>146</v>
       </c>
       <c r="E4">
-        <v>0.01237489128571141</v>
+        <v>0.01184778969305191</v>
       </c>
       <c r="F4">
-        <v>0.8065690616484225</v>
+        <v>0.8066848737762863</v>
       </c>
       <c r="G4">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H4">
         <v>22</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>153</v>
       </c>
       <c r="E5">
-        <v>0.01096804624834805</v>
+        <v>0.01007790216052039</v>
       </c>
       <c r="F5">
-        <v>0.8076845061556795</v>
+        <v>0.8078213644997112</v>
       </c>
       <c r="G5">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H5">
         <v>22</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>147</v>
       </c>
       <c r="E6">
-        <v>0.01231409369821012</v>
+        <v>0.006100875152405713</v>
       </c>
       <c r="F6">
-        <v>0.8063223960511017</v>
+        <v>0.808534265918502</v>
       </c>
       <c r="G6">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H6">
         <v>22</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>167</v>
       </c>
       <c r="E2">
-        <v>0.01269704761990285</v>
+        <v>0.01244675967353651</v>
       </c>
       <c r="F2">
-        <v>0.9163682838298793</v>
+        <v>0.9164905182598806</v>
       </c>
       <c r="G2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H2">
         <v>22</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>166</v>
       </c>
       <c r="E3">
-        <v>0.01256054747815522</v>
+        <v>0.01297375802564407</v>
       </c>
       <c r="F3">
-        <v>0.9012118229324354</v>
+        <v>0.901394801588599</v>
       </c>
       <c r="G3">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H3">
         <v>22</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>165</v>
       </c>
       <c r="E4">
-        <v>0.01237489128571141</v>
+        <v>0.01184778969305191</v>
       </c>
       <c r="F4">
-        <v>0.9113704980646279</v>
+        <v>0.9114948685134249</v>
       </c>
       <c r="G4">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H4">
         <v>22</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>166</v>
       </c>
       <c r="E5">
-        <v>0.01096804624834805</v>
+        <v>0.01007790216052039</v>
       </c>
       <c r="F5">
-        <v>0.919011915452031</v>
+        <v>0.9192579303478585</v>
       </c>
       <c r="G5">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H5">
         <v>22</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>165</v>
       </c>
       <c r="E6">
-        <v>0.01231409369821012</v>
+        <v>0.006100875152405713</v>
       </c>
       <c r="F6">
-        <v>0.9070080820903887</v>
+        <v>0.9090164358861338</v>
       </c>
       <c r="G6">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H6">
         <v>22</v>

--- a/on_trucks/Processed_Stand_Alone/22_245-70R19.xlsx
+++ b/on_trucks/Processed_Stand_Alone/22_245-70R19.xlsx
@@ -1994,28 +1994,28 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.000165608987562324</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0003695030204129226</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0003830532128969706</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0002396627654868562</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0002016791509706609</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0001241246924851743</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0001359390925059304</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>7.462051881609372E-05</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -2027,148 +2027,148 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.739327307435982E-05</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>5.646769744588624E-05</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>8.78460621116776E-05</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0001365279861424492</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.000188936885661187</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0001617218709046672</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0001915919198878292</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0002550061604776426</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0002673789462855912</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0002499346862419061</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0001987588406779467</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0001161412911050774</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>2.360582901313718E-05</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>3.441627941247441E-06</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>1.771181768824598E-05</v>
+        <v>0</v>
       </c>
       <c r="AB2">
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>7.294506899581587E-06</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>2.475617224220287E-05</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>8.983848708425612E-05</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.0001184069846794346</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.0001408830166887549</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.0001908998744652922</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.0002188540385233317</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.0002411486059187015</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.0001778254682170929</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0001812685384204227</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.0001566181460862548</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.0001676856746939249</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>9.74439757359293E-05</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>3.196053475692194E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>5.731117838393319E-06</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.360582901313718E-05</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>3.068943913657843E-05</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>5.496139091446331E-05</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>9.794818054422652E-05</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.0001041853991646129</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.000110600721127041</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.0001395667021458447</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.0001662556217606833</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.0001841154535982771</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.0001924808641317401</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.0001832452587614373</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.0002219696351082861</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.0001915919198878292</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>6.696370366256322E-05</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>2.307694349495494E-05</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>8.497406559558192E-06</v>
+        <v>0</v>
       </c>
       <c r="BI2">
         <v>0</v>
@@ -2177,49 +2177,49 @@
         <v>0</v>
       </c>
       <c r="BK2">
-        <v>1.378940467083515E-05</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>4.945663711147315E-05</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>5.065500065688643E-05</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>5.210931864809339E-05</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.0001348100416724269</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.0001860543345910467</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.0002707473193319036</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.0003861661252719383</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.0003842969435974424</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.0003193938678788209</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.0002113441698445798</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.0001873699480343335</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.000115595505079688</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>6.491943838226053E-05</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>1.842603789029985E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
         <v>0</v>
@@ -2231,367 +2231,367 @@
         <v>0</v>
       </c>
       <c r="CC2">
-        <v>1.613883858578067E-05</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>7.650606615894127E-05</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.0001772090814596283</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.0002550061604776426</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.0003559278687822821</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.0003953011929562473</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.0004300945237461796</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.0003214210774084283</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.0002539879034160523</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.0002257978393661606</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.0001772090814596283</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.02290876093493279</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.09396816239939422</v>
+        <v>0.2081597046723432</v>
       </c>
       <c r="CP2">
-        <v>0.1310766243028414</v>
+        <v>0.3289884956482708</v>
       </c>
       <c r="CQ2">
-        <v>0.1393233086229382</v>
+        <v>0.3558405085004894</v>
       </c>
       <c r="CR2">
-        <v>0.0002188540385233317</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.004321653919512204</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.0007524228420955476</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.05884443140094432</v>
+        <v>0.09379339215449224</v>
       </c>
       <c r="CV2">
-        <v>0.01747409405815091</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>0.0105436902275541</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.00409121899922439</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>0.000950524349794882</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>0.005915031215048717</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.008360925721363844</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>0.008892145901291964</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.006974000731140834</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>0.0002250488446227867</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>0.002952674275249425</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.0009446971702908049</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.01403390637584408</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.01080813198507433</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.0003481771523514786</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.00189751834048018</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>2.083641939707734E-05</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.02193026323298474</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.001961904325179427</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.001324621493753962</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.0004652597478234834</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.0004134462821991798</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>1.596152448160059E-06</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.00230471119263254</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.001772857318801965</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>5.773652250502087E-05</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.0008804218992378</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.003263969519029758</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.03142169284486546</v>
+        <v>0.004502266222049407</v>
       </c>
       <c r="DX2">
-        <v>0.03271568537733792</v>
+        <v>0.008715632802354963</v>
       </c>
       <c r="DY2">
-        <v>0.001354606623232448</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0.0005240973302603293</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.000104852305157797</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.02507606318971467</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.01280740970568603</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.001163514409096476</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.0097661537185121</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.004017136806733694</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.003113779957707664</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.0010157955228472</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.0002150833144188662</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.003295384090483243</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.02099786884069978</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.007390691980833759</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.0001974054079178325</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.004789578324655446</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.0062235824550602</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.02205607355725987</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.02523333686194565</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.0113625034761376</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>0.01061156568523603</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.004242556961729594</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.0006913234121165641</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>3.891563131625447E-05</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.000994794183785713</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.004744945922002235</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.01244022179835834</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.01293218240251854</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>0.006074305324819401</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.001531644293846725</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.002627114658845825</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>8.890778334363442E-05</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.0009804797326179191</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>1.020550959400989E-05</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.0001566181460862548</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.001660666856282035</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.002356363505500553</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.002815099298979677</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.01515570884081255</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.01882421462333</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.00158957445305673</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>0.0003405098267130227</v>
+        <v>0</v>
       </c>
       <c r="FO2">
         <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.008601158508888498</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.009617644292358909</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.008709345191773443</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.01018041946397937</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.004065113053962108</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.0003861661252719383</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.0007958591086970064</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.0008864627338442502</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>5.532127937314062E-05</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.0002289024587341545</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.001067704438177373</v>
+        <v>0</v>
       </c>
       <c r="GA2">
         <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.002489559413522622</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>0.008052181979427198</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.006169144072445933</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>0.002673373512468207</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.001583302215511726</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.0005542268862612338</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>0.000649592209783475</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>0.002102362623728901</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.001432888302310148</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>3.657472677901291E-05</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.0004460200718013915</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.0003185756846183276</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>4.175913414208479E-05</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>4.313155868942563E-06</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.001254464758054612</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.003295384090483243</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.003166660096330407</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.002714917871751664</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,34 +2767,34 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>1.358207457849937E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0001658774433273859</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0002522671346091552</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0001139157908165097</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0001473145633912924</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0003670057771632415</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0002666974861644114</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0001709742166383497</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>8.82089147485421E-05</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>9.90518512427123E-06</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -2806,34 +2806,34 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.351907783121896E-05</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.000139683423885869</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>4.921279631285637E-05</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.0001443921340862537</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0001002401589743747</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>3.980165956402458E-05</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>5.291597588531141E-05</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.0002584875491565766</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>5.794214780684776E-05</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>1.08709162833966E-05</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>4.14928388404502E-05</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>7.307012402984326E-05</v>
+        <v>0</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -2860,13 +2860,13 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.0001883464297173164</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.0001658774433273859</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>3.875230372090551E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -2875,82 +2875,82 @@
         <v>0</v>
       </c>
       <c r="AL3">
-        <v>7.387089880274096E-05</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.0001218968906499487</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>6.621279070502975E-05</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>9.53401782172792E-05</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.0003096684353651989</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.0001916655007709861</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>5.290892656988397E-05</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.0002134664056790581</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.0002946613207275366</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>3.488594662700582E-05</v>
+        <v>0</v>
       </c>
       <c r="AV3">
         <v>0</v>
       </c>
       <c r="AW3">
-        <v>9.870001283435686E-05</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.0006736604988979791</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.00102211651863525</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.0003070710622812136</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.0002052277362468126</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.0002860460029846437</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>8.417108711568823E-05</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>2.386678726892313E-05</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.0003710126826141913</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.0004395524328995777</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>9.778105629833991E-05</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.000110349596860652</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>6.829738572122085E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
         <v>0</v>
       </c>
       <c r="BK3">
-        <v>2.724966394746049E-05</v>
+        <v>0</v>
       </c>
       <c r="BL3">
         <v>0</v>
@@ -2959,58 +2959,58 @@
         <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.0002628118241283625</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.0002715928719383915</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>6.544105001192281E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.0001175432819473467</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.0002560776934751543</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.0001627767968255231</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>5.940535077921469E-05</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.0001061804298783487</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>6.907535594868902E-05</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.000234998586754501</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.000234998586754501</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>4.627769647967597E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>1.32889998408012E-05</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>8.047997776714676E-05</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>4.042631870598543E-05</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>5.480136811112552E-05</v>
+        <v>0</v>
       </c>
       <c r="CD3">
         <v>0</v>
       </c>
       <c r="CE3">
-        <v>5.409562480473431E-05</v>
+        <v>0</v>
       </c>
       <c r="CF3">
         <v>0</v>
@@ -3019,352 +3019,352 @@
         <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.0003239791369675291</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.0006153095850010101</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.0003848507674035523</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.0005394866511835308</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.0007298266862317541</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.0007530738533063947</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.1323018846209285</v>
+        <v>0.3524421973033993</v>
       </c>
       <c r="CO3">
-        <v>0.00322522261342032</v>
+        <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.1619093702000092</v>
+        <v>0.4544969799799304</v>
       </c>
       <c r="CQ3">
-        <v>0.02226166692116043</v>
+        <v>0</v>
       </c>
       <c r="CR3">
-        <v>0.001132917947150787</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.01354983248493932</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.05815739340802834</v>
+        <v>0.0968716958103292</v>
       </c>
       <c r="CU3">
-        <v>0.02251536110018343</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.01504492774687795</v>
+        <v>0</v>
       </c>
       <c r="CW3">
-        <v>0.01004275095745408</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>0.01093138060490836</v>
+        <v>0</v>
       </c>
       <c r="CY3">
-        <v>0.0005319686174129865</v>
+        <v>0</v>
       </c>
       <c r="CZ3">
-        <v>0.001755731779970817</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.01398183004803795</v>
+        <v>0</v>
       </c>
       <c r="DB3">
         <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.004583770711348987</v>
+        <v>0</v>
       </c>
       <c r="DD3">
-        <v>0.003515645088781458</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.003356148765151434</v>
+        <v>0</v>
       </c>
       <c r="DF3">
-        <v>0.003251867602644207</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.0211893952909268</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>0.003470683003614736</v>
+        <v>0</v>
       </c>
       <c r="DI3">
         <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.006006174041923705</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.007968611156389051</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.01653530375571055</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.002160965094741799</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.0004964492876902532</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.000970162141931881</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.0004060506866028489</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.0004199139360652811</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.002917209219818752</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.0004102585185892048</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.0003369469409744004</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.0002652517451300609</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.008391583611429424</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.05463355848190783</v>
+        <v>0.0847253010544269</v>
       </c>
       <c r="DX3">
-        <v>0.008052332550496302</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.0002017865097968604</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.008015649853227252</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.001390032958314822</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.03337940445136488</v>
+        <v>0.01146382585191401</v>
       </c>
       <c r="EC3">
-        <v>0.001148784819708842</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.002169142160332798</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.009893839430480512</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>0.001493586339635895</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.002057389865954658</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.002665152297920259</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.0009009478260772298</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.009298368703621183</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.01820611277547168</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.002770447864333606</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.0005942769492437305</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.002576772282436202</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>0.01123607859542533</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.02817175625228642</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.02035574509248435</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.01292792632413843</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.01052584152583017</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.001200119249508115</v>
+        <v>0</v>
       </c>
       <c r="EU3">
         <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.001167768363584468</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.003019209727347557</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.008828139077081933</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.01273252679677639</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.01034363566318268</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.002569302653831302</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.001969323832632019</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.002899798493064511</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.0003912753054321025</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.001034362324019234</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.0002745506279947547</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.0003959801672714919</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.002591655016843881</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.002942557391561391</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.009242168602606137</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.02940603285647391</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.01447338851386985</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.001450861615386397</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.001595004882781887</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.001421927953765347</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.01392659704815846</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.008907963003504042</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.01115249600288002</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.0135328305463231</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.000970162141931881</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.0007490159370287097</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.001940824414453493</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.0001407528072410014</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.0002810117454963077</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.0006774664677917493</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.000999670552258878</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.0005863928601770496</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.004385949422438691</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.006416350596436773</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.003455237646846953</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.001613793503164388</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.000285038734581202</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>2.966223051859439E-05</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>9.931479251207492E-05</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.002556007969640614</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
         <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.0001246220914539751</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.0009384143162241076</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.0002309000923162163</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.0003883486770039985</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>4.989882679091978E-05</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>0.001328388428668684</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.0007147665263473513</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.001859090839105172</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>0.001323047224303874</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,10 +3540,10 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0001879477071178415</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>7.064171261116791E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3552,13 +3552,13 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>3.333932080351547E-05</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5.279114665025253E-06</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -3567,100 +3567,100 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>5.183509742632842E-05</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>9.053234851752832E-05</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>3.309523569935896E-05</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.842655031876389E-05</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>3.622053398468248E-05</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0002355876705469887</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.000208955099615828</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0001653201033368228</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.0001266056912477684</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0003421863258980474</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0001807133221493547</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0001442482043922387</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>1.380267528795655E-05</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>2.528682847021598E-05</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>2.710707682760988E-06</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.000294608896271912</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.000277153093342167</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.0002373823656598821</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.0005603530962893148</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.0003080422486215617</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>6.996919134969718E-05</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>8.691767440821804E-05</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.0002737243784411409</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.0001129748382228449</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>9.784383681398818E-05</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.0001739655092474738</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>2.294309357627168E-05</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>1.705838534114011E-05</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>3.672473667850426E-05</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>7.513486999646141E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
         <v>0</v>
@@ -3672,472 +3672,472 @@
         <v>0</v>
       </c>
       <c r="AT4">
-        <v>1.534064335493156E-05</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>3.0554470760844E-05</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>2.343174843407479E-05</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>2.231748217980811E-05</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.0002452141512188716</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.0004946359271740561</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.0003445731445295159</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.0003551719782744925</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.0003629790306880154</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>4.555903873329571E-05</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>5.22268504236821E-05</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>9.823321863367121E-05</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>2.163163606138492E-05</v>
+        <v>0</v>
       </c>
       <c r="BG4">
         <v>0</v>
       </c>
       <c r="BH4">
-        <v>7.465995354982441E-06</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>9.243266517632549E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.000151711105600683</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>6.297774194484071E-05</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.0001621579356419413</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.0003765970104611932</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.0003044313896249732</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.0002568930423740429</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.0005110531582894236</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.000707310337124647</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.0002503061951860796</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.0001366653524349907</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.0001526763591595517</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>1.929651571199325E-05</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>1.9689982005375E-05</v>
+        <v>0</v>
       </c>
       <c r="BW4">
         <v>0</v>
       </c>
       <c r="BX4">
-        <v>6.963178918917103E-05</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.0001032618376035571</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.0001280835016961117</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.0002595885546931416</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.0001426841884178538</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.0003654358331063935</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.0001512263760032131</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>3.672473667850426E-05</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.0002583408325915729</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.0001734478555276175</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>4.086372243010844E-05</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.0001003362169108453</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.0001103333643218941</v>
+        <v>0</v>
       </c>
       <c r="CK4">
         <v>0</v>
       </c>
       <c r="CL4">
-        <v>1.438769628828097E-05</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>2.950009376557392E-06</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.1623362382434275</v>
+        <v>0.3756935526450482</v>
       </c>
       <c r="CO4">
-        <v>0.03555217695779989</v>
+        <v>0.01567163881912352</v>
       </c>
       <c r="CP4">
-        <v>0.1745872861592548</v>
+        <v>0.4104821977815423</v>
       </c>
       <c r="CQ4">
-        <v>0.01088570584298418</v>
+        <v>0</v>
       </c>
       <c r="CR4">
-        <v>0.0007096913579863889</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>0.007343846013793607</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.08403941083388813</v>
+        <v>0.1533582420023691</v>
       </c>
       <c r="CU4">
-        <v>0.02368743173524636</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.02484364520395614</v>
+        <v>0</v>
       </c>
       <c r="CW4">
-        <v>0.004743431036867125</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.006866417500677561</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>0.005897770394036201</v>
+        <v>0</v>
       </c>
       <c r="CZ4">
-        <v>0.0002737243784411409</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.01095502373751578</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.005576920816012984</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.001806916645254664</v>
+        <v>0</v>
       </c>
       <c r="DD4">
-        <v>0.0016909650558179</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>7.513486999646141E-06</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.006279021817985763</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.018654162533476</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>5.764281248109833E-05</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.0004257762967729354</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.005764266482321857</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.01243448339600424</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.007690066792356024</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.009202162687428395</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.00225102490512007</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.002151554903043982</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.002908652607383812</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.0002490804525396928</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.001366124128894676</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>7.69405778678099E-05</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>2.954760944244374E-05</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>6.752831527458413E-05</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.01013902519879028</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.04580793594026372</v>
+        <v>0.04479436875191681</v>
       </c>
       <c r="DX4">
-        <v>0.001388899650904372</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>9.823321863367121E-05</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.005138029247157203</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.003340860419180444</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.0204186241297266</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>1.768731418339037E-05</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.002349020030679644</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.00324271829662676</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>0.0002324204661022409</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.0001337733467905913</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>1.305544590838954E-05</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>9.057105639085461E-06</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.008172874314007207</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.01165203581970814</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.0007882007402456534</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.002784017581070209</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.001845133961173515</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.01134158978371491</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.02181408121440132</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.01269470913059707</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.009405214802316337</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.005261329484689142</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>7.465995354982441E-06</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.0004648188686365785</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.002788722285955255</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.005810861225026266</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.01456240206958434</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.01639610245435472</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.01345745780793797</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.004639397418982763</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.003910729213679473</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.002157483448025763</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.0003287411276734638</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.0009405127571416168</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.0003331904002476956</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.001659073016550219</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.002819160076350012</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.004844156721713058</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.01502317556291887</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.02960330773903362</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.01169478711171439</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.002627288945360082</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.002637771593401881</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.00113526534964551</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.006635792835169694</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.003364513517250343</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.006230585006682143</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.006122287274358297</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>2.931531013270598E-05</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.0004343067085772952</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.001941283112900385</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.0005009388338466942</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>0.0005630838558440583</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.0016909650558179</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.002352735409746022</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>2.318376911118469E-06</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.002592064039640122</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.001912693399156369</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.0003491354085261955</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.0003116739155032836</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>9.935199393061143E-06</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>8.10135181102827E-06</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>2.435384415611696E-05</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>0.0019071101168692</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>3.489030831815679E-05</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.0002614697857749107</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>0.0009405127571416168</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.0002901961526509848</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>0.0006049341103488722</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.0001093713711323226</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>0.0008334156337819221</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>5.340990586394571E-05</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.0004456292521827812</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.0002496888979315923</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.391130173525686E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -4325,67 +4325,67 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>6.771864021424698E-06</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.464808918139388E-05</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>9.197847879657573E-05</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>8.74739818317407E-05</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>3.295921052932444E-05</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>9.503087581193771E-06</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>8.852052502648819E-06</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.356037579254491E-05</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>4.653435071845777E-05</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0001061120798665148</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0001624015692600303</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.000433734970822679</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>6.970143520157507E-05</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0002670525802934817</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0004152137750573191</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0003492432650968342</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0001160026049722609</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>6.108318523263896E-05</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>2.379341352563282E-05</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -4397,34 +4397,34 @@
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.0001069892479103098</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>1.653111919950307E-05</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>2.194674686189009E-05</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.0001150242186759182</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.0002116488508655553</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.0003550030809355499</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.0001921574196001406</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>1.487355401731037E-05</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>5.54186585186424E-05</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.0001210592166259581</v>
+        <v>0</v>
       </c>
       <c r="AN5">
         <v>0</v>
@@ -4433,58 +4433,58 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>3.702217093904335E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>1.444573045009387E-05</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.0003068320252585599</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.0001537000678799085</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>7.173702789922325E-05</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>4.817203818379962E-06</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>6.225915765862311E-05</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.0002646894308536522</v>
+        <v>0</v>
       </c>
       <c r="AX5">
         <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.0001160026049722609</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>3.520572538271738E-06</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>9.719499443609253E-05</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.0004106445970625578</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.0001085480350660513</v>
+        <v>0</v>
       </c>
       <c r="BD5">
         <v>0</v>
       </c>
       <c r="BE5">
-        <v>5.361316791324343E-05</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>7.16571390674655E-06</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>3.982440768487084E-05</v>
+        <v>0</v>
       </c>
       <c r="BH5">
         <v>0</v>
@@ -4493,10 +4493,10 @@
         <v>0</v>
       </c>
       <c r="BJ5">
-        <v>1.254507102693201E-05</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>9.197847879657573E-05</v>
+        <v>0</v>
       </c>
       <c r="BL5">
         <v>0</v>
@@ -4505,28 +4505,28 @@
         <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.000106078758849858</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.0001777335679726036</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>8.009440727184232E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.0001754438358528421</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.0002920969395351345</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.0004609782404576839</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.0004290039198182469</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.0002083391563704776</v>
+        <v>0</v>
       </c>
       <c r="BV5">
         <v>0</v>
@@ -4538,37 +4538,37 @@
         <v>0</v>
       </c>
       <c r="BY5">
-        <v>5.293291228013474E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.0003820907936760887</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.0002417002252181801</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.000326942616274454</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>9.719499443609253E-05</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.0002936029119370704</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.0007848385113051268</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.0003733375202024492</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>7.420951129835932E-06</v>
+        <v>0</v>
       </c>
       <c r="CH5">
         <v>0</v>
       </c>
       <c r="CI5">
-        <v>1.685435190916425E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
         <v>0</v>
@@ -4577,340 +4577,340 @@
         <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.0001134933026317142</v>
+        <v>0</v>
       </c>
       <c r="CM5">
         <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.08655638698227704</v>
+        <v>0.203739156136354</v>
       </c>
       <c r="CO5">
-        <v>0.003598653498348911</v>
+        <v>0</v>
       </c>
       <c r="CP5">
-        <v>0.1759786627739595</v>
+        <v>0.5262322519047478</v>
       </c>
       <c r="CQ5">
-        <v>0.05470286054228989</v>
+        <v>0.08886238452854256</v>
       </c>
       <c r="CR5">
-        <v>8.97449701277143E-05</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.01510944321602878</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.02563961734946615</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.05844968735532592</v>
+        <v>0.1023749659021024</v>
       </c>
       <c r="CV5">
-        <v>0.02767056619860205</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.006716377792504064</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>0.003898896851990927</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.005651078743272996</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.004165930472910657</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.007812418778016785</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.001888457230970547</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.006998191824792997</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.002486389019526444</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>0.000374971328771009</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.001856175465904344</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.0250415223444729</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>0.00281586666277637</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.0001777335679726036</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.007290770321994811</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.003724332962270012</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.01366978200327679</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.004142927381847315</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.003192282466040941</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.00376519171101659</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.003977091661548496</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.0002936029119370704</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.000937520109618535</v>
+        <v>0</v>
       </c>
       <c r="DS5">
         <v>0</v>
       </c>
       <c r="DT5">
-        <v>7.666955896844828E-05</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.0002460904666666389</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.007858679309100199</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.04866497622785732</v>
+        <v>0.06708731800050079</v>
       </c>
       <c r="DX5">
-        <v>0.01225647803952915</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.0004922675934415582</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.007184587703152157</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>1.256074100798709E-05</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.02551187241561736</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.002718205084879423</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>0.0003733375202024492</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.007323881804036137</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.001745497878407792</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.0005676513006331805</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.0001227058479109411</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.0002141471350940229</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>0.002942233279929407</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.01628374738555255</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.001241764030477629</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.002359350086999413</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.003548982966845624</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.008570616776586458</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>0.0285886907405456</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>0.02183839675382339</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>0.007846420531534563</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.007116736284160499</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.0005569610250100036</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.0008315977147223082</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.001717780759774331</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.006081526505973284</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.01417591437089193</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.01966474681105755</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.01778108876593356</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.007637342982196913</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.004151842829098016</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.00749535430625972</v>
+        <v>0</v>
       </c>
       <c r="FD5">
         <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.0006007004937478944</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.000136278708283253</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.0001444834923176463</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.003320138483312686</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.006691456607534479</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.01050510250562152</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.0333080298627841</v>
+        <v>0.01170392352775244</v>
       </c>
       <c r="FL5">
-        <v>0.02570163658798489</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.00448266710821187</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.003501295194237578</v>
+        <v>0</v>
       </c>
       <c r="FO5">
         <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.007191883618259777</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.004723262473443362</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.007210667444110689</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.007702764000160182</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.0004953821400279748</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.0002524187930272414</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.001401298573685645</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.0005517616290503652</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.0006076487718797716</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.001199997465490144</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>0.002494688996439991</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>4.148195181334619E-05</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.001829839270617348</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.003217200843848212</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.0006952282759454209</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>5.844536097581754E-05</v>
+        <v>0</v>
       </c>
       <c r="GF5">
         <v>0</v>
       </c>
       <c r="GG5">
-        <v>0.0002759264213884702</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>7.509701671737244E-05</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.001381496148938254</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>1.173544230583293E-06</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>3.122416666473138E-07</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.00180853641761359</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.0007684311488638718</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.0008403738064153217</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.0003366522899481767</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>0.0005347961425877821</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.0002759264213884702</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.0005783666803079005</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.000505412872865682</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,7 +5086,7 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0001455691381178196</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -5101,16 +5101,16 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0001244860031771188</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0002213128721859954</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>7.463148589082256E-06</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1.428158857451982E-05</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -5122,19 +5122,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>4.171249585631514E-05</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>2.188385988816775E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0003467765248007933</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.0002213128721859954</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -5158,7 +5158,7 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>1.847352927753637E-05</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -5167,28 +5167,28 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>2.377981712386938E-05</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0002251785357624527</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>1.527889289250411E-05</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.0001847297804424217</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.0002705560911084192</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.000291782556894767</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.0002618361407977173</v>
+        <v>0</v>
       </c>
       <c r="AK6">
         <v>0</v>
@@ -5209,7 +5209,7 @@
         <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.0001984663205399246</v>
+        <v>0</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -5218,10 +5218,10 @@
         <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.0002369796152696956</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.0003483746122745241</v>
+        <v>0</v>
       </c>
       <c r="AV6">
         <v>0</v>
@@ -5230,7 +5230,7 @@
         <v>0</v>
       </c>
       <c r="AX6">
-        <v>4.26593230996328E-05</v>
+        <v>0</v>
       </c>
       <c r="AY6">
         <v>0</v>
@@ -5239,10 +5239,10 @@
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.0001314884898722259</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>9.527076085440834E-05</v>
+        <v>0</v>
       </c>
       <c r="BC6">
         <v>0</v>
@@ -5272,25 +5272,25 @@
         <v>0</v>
       </c>
       <c r="BL6">
-        <v>3.284070675540695E-05</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.0002414005674241063</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.0003598853823729253</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.00029428688820681</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.0003685578308422675</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.00030285812779794</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>1.672648654450981E-05</v>
+        <v>0</v>
       </c>
       <c r="BS6">
         <v>0</v>
@@ -5314,34 +5314,34 @@
         <v>0</v>
       </c>
       <c r="BZ6">
-        <v>3.02580717859532E-05</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>6.788991289191808E-05</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>8.305954747363294E-06</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>7.463148589082256E-06</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.0001370023817549603</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.000393106378966399</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.0002549019316313427</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>5.03316448550112E-05</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>3.423557152945547E-05</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>3.086667002370802E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
         <v>0</v>
@@ -5353,295 +5353,295 @@
         <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.01325075759547637</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.1210561437667883</v>
+        <v>0.2721372609394344</v>
       </c>
       <c r="CO6">
-        <v>0.1315181339353327</v>
+        <v>0.3035581268300623</v>
       </c>
       <c r="CP6">
-        <v>0.106490496830118</v>
+        <v>0.2283917372260411</v>
       </c>
       <c r="CQ6">
-        <v>0.001519974801844326</v>
+        <v>0</v>
       </c>
       <c r="CR6">
-        <v>0.008409612324100417</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.0009219162261878589</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.08523225616340122</v>
+        <v>0.1645461095492062</v>
       </c>
       <c r="CU6">
-        <v>0.02004626077373145</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.02979625621469587</v>
+        <v>0</v>
       </c>
       <c r="CW6">
         <v>0</v>
       </c>
       <c r="CX6">
-        <v>0.003486666884828706</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>0.01128423740353955</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>0.0003117929775801384</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.004120104856383825</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.005491576960447986</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>0.0001254372219463108</v>
+        <v>0</v>
       </c>
       <c r="DD6">
-        <v>0.002392998020561794</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.00154595612858886</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>0.0131643943163334</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.01338610116239284</v>
+        <v>0</v>
       </c>
       <c r="DH6">
         <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.003538489131759657</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>4.396080426663244E-06</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.01522415546714673</v>
+        <v>0</v>
       </c>
       <c r="DL6">
         <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.004868708505215823</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.00349847947808128</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.002170285708671082</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.0009575707292758527</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.0003233694881076371</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.0005035970986398613</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.0001453840724926339</v>
+        <v>0</v>
       </c>
       <c r="DT6">
         <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.0002513111103261929</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.02838194951368499</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.03888954634072925</v>
+        <v>0.02536340655599172</v>
       </c>
       <c r="DX6">
         <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.002730599679841421</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.003262265109120782</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.009472911290603485</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>0.01056305817149751</v>
+        <v>0</v>
       </c>
       <c r="EC6">
         <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.003767830813672642</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.00126862291451918</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.001114656017365998</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.0003975789391916992</v>
+        <v>0</v>
       </c>
       <c r="EH6">
         <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.0003553310134208389</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.01471295943923611</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.007511376652286851</v>
+        <v>0</v>
       </c>
       <c r="EL6">
         <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.002503137591380949</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.003289465975846512</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.0178958059528318</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.02878135115008679</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.01222884850560976</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.01026927426074606</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.003201106946882194</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>7.439060407366598E-05</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.001232221546357899</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.003871133868945104</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.00784318445226739</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.01628389179554782</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.01751721974150802</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>0.009817532972114251</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.00429788279023229</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.005246893467609379</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.0003683074323541908</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.000960365410753358</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.0001812932331355617</v>
+        <v>0</v>
       </c>
       <c r="FF6">
         <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.001318958767495272</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.003998556080964911</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.00382696449267233</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0.02044226636471815</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.03244336408234511</v>
+        <v>0.006003358899264497</v>
       </c>
       <c r="FL6">
-        <v>0.009003607974136513</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.003839320881135836</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.000991297036641216</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.003809297924105219</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.005836268539563155</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.00719922923475529</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.00799070711634757</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.003095129442163123</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.0001283641892252687</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.0006309063434964011</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.001438398591579003</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.0001314884898722259</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.0007703186132842189</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>0.002301465477331091</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>0.001001600208448269</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.0004102389950464631</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.002510693257498892</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.001633819455154605</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.0004968537119713382</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.00029428688820681</v>
+        <v>0</v>
       </c>
       <c r="GF6">
         <v>0</v>
@@ -5650,37 +5650,37 @@
         <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.0004366425298133947</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>0.0004227871739775615</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
         <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.0006584334058354489</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.001012711685934229</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.0004762411529725839</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.0005165721216589561</v>
+        <v>0</v>
       </c>
       <c r="GO6">
         <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.0005534435664935805</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.0005400978620097356</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.0004099781628635017</v>
+        <v>0</v>
       </c>
       <c r="GS6">
         <v>0</v>
@@ -6645,601 +6645,601 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.000165608987562324</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0005351120079752467</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0009181652208722173</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.001157827986359074</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.001359507137329734</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.001483631829814909</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.001619570922320839</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.001694191441136933</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.001694191441136933</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.001694191441136933</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.001694191441136933</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.001711584714211292</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.001768052411657179</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.001855898473768857</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.001992426459911306</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.002181363345572493</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.00234308521647716</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.002534677136364989</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.002789683296842632</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.003057062243128223</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.003306996929370129</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.003505755770048076</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.003621897061153153</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.00364550289016629</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.003648944518107538</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.003666656335795783</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.003666656335795783</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.003673950842695365</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.003698707014937568</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.003788545502021824</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.003906952486701259</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.004047835503390014</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.004238735377855306</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.004457589416378638</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.004698738022297339</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.004876563490514432</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.005057832028934855</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.00521445017502111</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.005382135849715035</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.005479579825450965</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.005511540360207887</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.00551727147804628</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.00551727147804628</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.005540877307059417</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.005571566746195996</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.005626528137110459</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.005724476317654686</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.005828661716819298</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.005939262437946339</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.006078829140092184</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.006245084761852867</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.006429200215451144</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.006621681079582884</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.006804926338344322</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.007026895973452608</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.007218487893340437</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.007285451597003</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.007308528540497955</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.007317025947057514</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.007317025947057514</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.007317025947057514</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.007330815351728349</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.007380271988839822</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.007430926989496708</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.007483036308144801</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.007617846349817227</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.007803900684408274</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.008074648003740177</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.008460814129012116</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.008845111072609558</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.009164504940488379</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.009375849110332958</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.009563219058367291</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.009678814563446979</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.00974373400182924</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.009762160039719541</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.009762160039719541</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.009762160039719541</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.009762160039719541</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.009778298878305322</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.009854804944464264</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.01003201402592389</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.01028702018640153</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.01064294805518382</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.01103824924814006</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.01146834377188624</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.01178976484929467</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.01204375275271072</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.01226955059207688</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.01244675967353651</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.0353555206084693</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.1293236830078635</v>
+        <v>0.2081597046723432</v>
       </c>
       <c r="CP2">
-        <v>0.260400307310705</v>
+        <v>0.5371482003206139</v>
       </c>
       <c r="CQ2">
-        <v>0.3997236159336431</v>
+        <v>0.8929887088211033</v>
       </c>
       <c r="CR2">
-        <v>0.3999424699721665</v>
+        <v>0.8929887088211033</v>
       </c>
       <c r="CS2">
-        <v>0.4042641238916787</v>
+        <v>0.8929887088211033</v>
       </c>
       <c r="CT2">
-        <v>0.4050165467337742</v>
+        <v>0.8929887088211033</v>
       </c>
       <c r="CU2">
-        <v>0.4638609781347185</v>
+        <v>0.9867821009755955</v>
       </c>
       <c r="CV2">
-        <v>0.4813350721928695</v>
+        <v>0.9867821009755955</v>
       </c>
       <c r="CW2">
-        <v>0.4918787624204236</v>
+        <v>0.9867821009755955</v>
       </c>
       <c r="CX2">
-        <v>0.4959699814196479</v>
+        <v>0.9867821009755955</v>
       </c>
       <c r="CY2">
-        <v>0.4969205057694428</v>
+        <v>0.9867821009755955</v>
       </c>
       <c r="CZ2">
-        <v>0.5028355369844916</v>
+        <v>0.9867821009755955</v>
       </c>
       <c r="DA2">
-        <v>0.5111964627058554</v>
+        <v>0.9867821009755955</v>
       </c>
       <c r="DB2">
-        <v>0.5200886086071473</v>
+        <v>0.9867821009755955</v>
       </c>
       <c r="DC2">
-        <v>0.5270626093382882</v>
+        <v>0.9867821009755955</v>
       </c>
       <c r="DD2">
-        <v>0.527287658182911</v>
+        <v>0.9867821009755955</v>
       </c>
       <c r="DE2">
-        <v>0.5302403324581605</v>
+        <v>0.9867821009755955</v>
       </c>
       <c r="DF2">
-        <v>0.5311850296284513</v>
+        <v>0.9867821009755955</v>
       </c>
       <c r="DG2">
-        <v>0.5452189360042954</v>
+        <v>0.9867821009755955</v>
       </c>
       <c r="DH2">
-        <v>0.5560270679893697</v>
+        <v>0.9867821009755955</v>
       </c>
       <c r="DI2">
-        <v>0.5563752451417212</v>
+        <v>0.9867821009755955</v>
       </c>
       <c r="DJ2">
-        <v>0.5582727634822013</v>
+        <v>0.9867821009755955</v>
       </c>
       <c r="DK2">
-        <v>0.5582935999015984</v>
+        <v>0.9867821009755955</v>
       </c>
       <c r="DL2">
-        <v>0.5802238631345832</v>
+        <v>0.9867821009755955</v>
       </c>
       <c r="DM2">
-        <v>0.5821857674597626</v>
+        <v>0.9867821009755955</v>
       </c>
       <c r="DN2">
-        <v>0.5835103889535166</v>
+        <v>0.9867821009755955</v>
       </c>
       <c r="DO2">
-        <v>0.5839756487013401</v>
+        <v>0.9867821009755955</v>
       </c>
       <c r="DP2">
-        <v>0.5843890949835393</v>
+        <v>0.9867821009755955</v>
       </c>
       <c r="DQ2">
-        <v>0.5843906911359875</v>
+        <v>0.9867821009755955</v>
       </c>
       <c r="DR2">
-        <v>0.5866954023286201</v>
+        <v>0.9867821009755955</v>
       </c>
       <c r="DS2">
-        <v>0.588468259647422</v>
+        <v>0.9867821009755955</v>
       </c>
       <c r="DT2">
-        <v>0.5885259961699271</v>
+        <v>0.9867821009755955</v>
       </c>
       <c r="DU2">
-        <v>0.5894064180691648</v>
+        <v>0.9867821009755955</v>
       </c>
       <c r="DV2">
-        <v>0.5926703875881946</v>
+        <v>0.9867821009755955</v>
       </c>
       <c r="DW2">
-        <v>0.6240920804330601</v>
+        <v>0.9912843671976449</v>
       </c>
       <c r="DX2">
-        <v>0.656807765810398</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DY2">
-        <v>0.6581623724336305</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DZ2">
-        <v>0.6586864697638909</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EA2">
-        <v>0.6587913220690487</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EB2">
-        <v>0.6838673852587633</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EC2">
-        <v>0.6966747949644494</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ED2">
-        <v>0.6978383093735459</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EE2">
-        <v>0.7076044630920579</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EF2">
-        <v>0.7116215998987916</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EG2">
-        <v>0.7147353798564993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EH2">
-        <v>0.7157511753793465</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EI2">
-        <v>0.7159662586937654</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EJ2">
-        <v>0.7192616427842486</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EK2">
-        <v>0.7402595116249484</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EL2">
-        <v>0.7476502036057822</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EM2">
-        <v>0.7478476090137</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EN2">
-        <v>0.7526371873383554</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EO2">
-        <v>0.7588607697934155</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EP2">
-        <v>0.7809168433506755</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EQ2">
-        <v>0.8061501802126211</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ER2">
-        <v>0.8175126836887587</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ES2">
-        <v>0.8281242493739948</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ET2">
-        <v>0.8323668063357244</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU2">
-        <v>0.8330581297478409</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV2">
-        <v>0.8330970453791572</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW2">
-        <v>0.8340918395629429</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX2">
-        <v>0.8388367854849451</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY2">
-        <v>0.8512770072833035</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ2">
-        <v>0.8642091896858221</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA2">
-        <v>0.8702834950106415</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB2">
-        <v>0.8718151393044883</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC2">
-        <v>0.8744422539633341</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD2">
-        <v>0.8745311617466777</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE2">
-        <v>0.8755116414792956</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF2">
-        <v>0.8755218469888896</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG2">
-        <v>0.8756784651349758</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH2">
-        <v>0.8773391319912579</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI2">
-        <v>0.8796954954967584</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ2">
-        <v>0.8825105947957381</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK2">
-        <v>0.8976663036365506</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL2">
-        <v>0.9164905182598806</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM2">
-        <v>0.9180800927129373</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN2">
-        <v>0.9184206025396504</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO2">
-        <v>0.9184206025396504</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP2">
-        <v>0.927021761048539</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ2">
-        <v>0.9366394053408978</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR2">
-        <v>0.9453487505326713</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS2">
-        <v>0.9555291699966507</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT2">
-        <v>0.9595942830506128</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU2">
-        <v>0.9599804491758848</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV2">
-        <v>0.9607763082845818</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW2">
-        <v>0.9616627710184261</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX2">
-        <v>0.9617180922977993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY2">
-        <v>0.9619469947565334</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ2">
-        <v>0.9630146991947108</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA2">
-        <v>0.9630146991947108</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB2">
-        <v>0.9655042586082334</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC2">
-        <v>0.9735564405876607</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD2">
-        <v>0.9797255846601066</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE2">
-        <v>0.9823989581725748</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF2">
-        <v>0.9839822603880866</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG2">
-        <v>0.9845364872743478</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH2">
-        <v>0.9851860794841313</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI2">
-        <v>0.9872884421078602</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ2">
-        <v>0.9887213304101703</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK2">
-        <v>0.9887579051369493</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL2">
-        <v>0.9892039252087507</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM2">
-        <v>0.989522500893369</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN2">
-        <v>0.9895642600275111</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO2">
-        <v>0.98956857318338</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP2">
-        <v>0.9908230379414346</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ2">
-        <v>0.9941184220319178</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR2">
-        <v>0.9972850821282482</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS2">
         <v>0.9999999999999999</v>
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>1.358207457849937E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0001794595179058853</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0004317266525150405</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0005456424433315502</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0006929570067228426</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.001059962783886084</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.001326660270050496</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.001497634486688845</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.001585843401437387</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.001595748586561659</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.001595748586561659</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.001595748586561659</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.001595748586561659</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.001619267664392877</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.001758951088278746</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.001808163884591603</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.001952556018677857</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.002052796177652231</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.002092597837216256</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.002145513813101567</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.002404001362258144</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.002461943510064991</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.002472814426348388</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.002472814426348388</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.002472814426348388</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.002514307265188838</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.002587377389218682</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.002587377389218682</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.002587377389218682</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.002587377389218682</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.002587377389218682</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.002775723818935998</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.002941601262263384</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.00298035356598429</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.00298035356598429</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.00298035356598429</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.00305422446478703</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.003176121355436979</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.003242334146142009</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.003337674324359288</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.003647342759724487</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.003839008260495473</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.003891917187065357</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.004105383592744415</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.004400044913471951</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.004434930860098957</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.004434930860098957</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.004533630872933314</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.005207291371831293</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.006229407890466544</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.006536478952747758</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.00674170668899457</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.007027752691979213</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.007111923779094901</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.007135790566363824</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.007506803248978016</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.007946355681877593</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.008044136738175932</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.008154486335036584</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.008222783720757805</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.008222783720757805</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.008250033384705266</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.008250033384705266</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.008250033384705266</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.008512845208833629</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.00878443808077202</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.008849879130783942</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.008967422412731289</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.009223500106206444</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.009386276903031968</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.009445682253811183</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.009551862683689532</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.009620938039638221</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.009855936626392722</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.01009093521314722</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.0101372129096269</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.0101505019094677</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.01023098188723484</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.01027140820594083</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.01032620957405195</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.01032620957405195</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.01038030519885669</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.01038030519885669</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.01038030519885669</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.01070428433582422</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.01131959392082523</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.01170444468822878</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.01224393133941231</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.01297375802564407</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.01372683187895046</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.1460287164998789</v>
+        <v>0.3524421973033993</v>
       </c>
       <c r="CO3">
-        <v>0.1492539391132993</v>
+        <v>0.3524421973033993</v>
       </c>
       <c r="CP3">
-        <v>0.3111633093133084</v>
+        <v>0.8069391772833298</v>
       </c>
       <c r="CQ3">
-        <v>0.3334249762344689</v>
+        <v>0.8069391772833298</v>
       </c>
       <c r="CR3">
-        <v>0.3345578941816197</v>
+        <v>0.8069391772833298</v>
       </c>
       <c r="CS3">
-        <v>0.348107726666559</v>
+        <v>0.8069391772833298</v>
       </c>
       <c r="CT3">
-        <v>0.4062651200745873</v>
+        <v>0.9038108730936589</v>
       </c>
       <c r="CU3">
-        <v>0.4287804811747707</v>
+        <v>0.9038108730936589</v>
       </c>
       <c r="CV3">
-        <v>0.4438254089216487</v>
+        <v>0.9038108730936589</v>
       </c>
       <c r="CW3">
-        <v>0.4538681598791028</v>
+        <v>0.9038108730936589</v>
       </c>
       <c r="CX3">
-        <v>0.4647995404840111</v>
+        <v>0.9038108730936589</v>
       </c>
       <c r="CY3">
-        <v>0.4653315091014241</v>
+        <v>0.9038108730936589</v>
       </c>
       <c r="CZ3">
-        <v>0.4670872408813949</v>
+        <v>0.9038108730936589</v>
       </c>
       <c r="DA3">
-        <v>0.4810690709294329</v>
+        <v>0.9038108730936589</v>
       </c>
       <c r="DB3">
-        <v>0.4810690709294329</v>
+        <v>0.9038108730936589</v>
       </c>
       <c r="DC3">
-        <v>0.4856528416407818</v>
+        <v>0.9038108730936589</v>
       </c>
       <c r="DD3">
-        <v>0.4891684867295633</v>
+        <v>0.9038108730936589</v>
       </c>
       <c r="DE3">
-        <v>0.4925246354947147</v>
+        <v>0.9038108730936589</v>
       </c>
       <c r="DF3">
-        <v>0.4957765030973589</v>
+        <v>0.9038108730936589</v>
       </c>
       <c r="DG3">
-        <v>0.5169658983882858</v>
+        <v>0.9038108730936589</v>
       </c>
       <c r="DH3">
-        <v>0.5204365813919005</v>
+        <v>0.9038108730936589</v>
       </c>
       <c r="DI3">
-        <v>0.5204365813919005</v>
+        <v>0.9038108730936589</v>
       </c>
       <c r="DJ3">
-        <v>0.5264427554338242</v>
+        <v>0.9038108730936589</v>
       </c>
       <c r="DK3">
-        <v>0.5344113665902133</v>
+        <v>0.9038108730936589</v>
       </c>
       <c r="DL3">
-        <v>0.5509466703459238</v>
+        <v>0.9038108730936589</v>
       </c>
       <c r="DM3">
-        <v>0.5531076354406657</v>
+        <v>0.9038108730936589</v>
       </c>
       <c r="DN3">
-        <v>0.5536040847283559</v>
+        <v>0.9038108730936589</v>
       </c>
       <c r="DO3">
-        <v>0.5545742468702878</v>
+        <v>0.9038108730936589</v>
       </c>
       <c r="DP3">
-        <v>0.5549802975568906</v>
+        <v>0.9038108730936589</v>
       </c>
       <c r="DQ3">
-        <v>0.5554002114929559</v>
+        <v>0.9038108730936589</v>
       </c>
       <c r="DR3">
-        <v>0.5583174207127747</v>
+        <v>0.9038108730936589</v>
       </c>
       <c r="DS3">
-        <v>0.5587276792313639</v>
+        <v>0.9038108730936589</v>
       </c>
       <c r="DT3">
-        <v>0.5590646261723383</v>
+        <v>0.9038108730936589</v>
       </c>
       <c r="DU3">
-        <v>0.5593298779174684</v>
+        <v>0.9038108730936589</v>
       </c>
       <c r="DV3">
-        <v>0.5677214615288978</v>
+        <v>0.9038108730936589</v>
       </c>
       <c r="DW3">
-        <v>0.6223550200108057</v>
+        <v>0.9885361741480858</v>
       </c>
       <c r="DX3">
-        <v>0.630407352561302</v>
+        <v>0.9885361741480858</v>
       </c>
       <c r="DY3">
-        <v>0.6306091390710988</v>
+        <v>0.9885361741480858</v>
       </c>
       <c r="DZ3">
-        <v>0.6386247889243261</v>
+        <v>0.9885361741480858</v>
       </c>
       <c r="EA3">
-        <v>0.6400148218826409</v>
+        <v>0.9885361741480858</v>
       </c>
       <c r="EB3">
-        <v>0.6733942263340058</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EC3">
-        <v>0.6745430111537146</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ED3">
-        <v>0.6767121533140474</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EE3">
-        <v>0.6866059927445279</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EF3">
-        <v>0.6880995790841639</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EG3">
-        <v>0.6901569689501185</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EH3">
-        <v>0.6928221212480388</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EI3">
-        <v>0.693723069074116</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EJ3">
-        <v>0.7030214377777372</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EK3">
-        <v>0.7212275505532089</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EL3">
-        <v>0.7239979984175424</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EM3">
-        <v>0.7245922753667862</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EN3">
-        <v>0.7271690476492224</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EO3">
-        <v>0.7384051262446477</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EP3">
-        <v>0.7665768824969341</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EQ3">
-        <v>0.7869326275894185</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ER3">
-        <v>0.7998605539135569</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ES3">
-        <v>0.8103863954393871</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ET3">
-        <v>0.8115865146888952</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EU3">
-        <v>0.8115865146888952</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EV3">
-        <v>0.8127542830524797</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EW3">
-        <v>0.8157734927798272</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EX3">
-        <v>0.8246016318569092</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EY3">
-        <v>0.8373341586536855</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EZ3">
-        <v>0.8476777943168682</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FA3">
-        <v>0.8502470969706994</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FB3">
-        <v>0.8522164208033315</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FC3">
-        <v>0.855116219296396</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FD3">
-        <v>0.8555074946018282</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FE3">
-        <v>0.8565418569258474</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FF3">
-        <v>0.8568164075538421</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FG3">
-        <v>0.8572123877211136</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FH3">
-        <v>0.8598040427379575</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FI3">
-        <v>0.8627466001295189</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FJ3">
-        <v>0.8719887687321251</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FK3">
-        <v>0.901394801588599</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FL3">
-        <v>0.9158681901024688</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FM3">
-        <v>0.9173190517178552</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FN3">
-        <v>0.9189140566006371</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FO3">
-        <v>0.9203359845544025</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FP3">
-        <v>0.9342625816025609</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FQ3">
-        <v>0.943170544606065</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FR3">
-        <v>0.954323040608945</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FS3">
-        <v>0.9678558711552682</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FT3">
-        <v>0.9688260332972001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FU3">
-        <v>0.9695750492342288</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FV3">
-        <v>0.9715158736486823</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FW3">
-        <v>0.9716566264559233</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FX3">
-        <v>0.9719376382014197</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FY3">
-        <v>0.9726151046692114</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FZ3">
-        <v>0.9736147752214703</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GA3">
-        <v>0.9742011680816474</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GB3">
-        <v>0.978587117504086</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GC3">
-        <v>0.9850034681005227</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GD3">
-        <v>0.9884587057473697</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GE3">
-        <v>0.9900724992505341</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GF3">
-        <v>0.9903575379851153</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GG3">
-        <v>0.9903872002156339</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GH3">
-        <v>0.990486515008146</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GI3">
-        <v>0.9930425229777866</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GJ3">
-        <v>0.9930425229777866</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GK3">
-        <v>0.9931671450692406</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GL3">
-        <v>0.9941055593854647</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GM3">
-        <v>0.9943364594777809</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GN3">
-        <v>0.9947248081547849</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GO3">
-        <v>0.9947747069815759</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GP3">
-        <v>0.9961030954102446</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GQ3">
-        <v>0.9968178619365919</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GR3">
-        <v>0.9986769527756971</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GS3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GT3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GU3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GV3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GW3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GX3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GY3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GZ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HA3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HB3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HC3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HD3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HE3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HF3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HG3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HH3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HI3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HJ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HK3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HL3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HM3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HN3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HO3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HP3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HQ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HR3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HS3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HT3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HU3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HV3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HW3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HX3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HY3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HZ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IA3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IB3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IC3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ID3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IE3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IF3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IG3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IH3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="II3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IJ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IK3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IL3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IM3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IN3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IO3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IP3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IQ3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IR3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IS3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IT3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IU3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IV3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IW3">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0001879477071178415</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0002585894197290094</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0002585894197290094</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0002585894197290094</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0002919287405325249</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0002919287405325249</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0002972078551975502</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0002972078551975502</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0002972078551975502</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0003490429526238786</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0004395753011414069</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0004726705368407659</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0004726705368407659</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0005110970871595298</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0005473176211442123</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0007829052916912011</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0009918603913070291</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.001157180494643852</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.00128378618589162</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.001625972511789668</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.001806685833939023</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.001950934038331261</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.001950934038331261</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.001964736713619218</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.001990023542089434</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.001992734249772195</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.002287343146044107</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.002564496239386274</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.002801878605046156</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.003362231701335471</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.003670273949957033</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.00374024314130673</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.003827160815714948</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.004100885194156089</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.004213860032378934</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.004311703869192922</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.004485669378440396</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.004508612472016667</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.004525670857357808</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.004562395594036312</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.004569909081035958</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.004569909081035958</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.004569909081035958</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.004569909081035958</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.00458524972439089</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.004615804195151734</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.004639235943585809</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.004661553425765617</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.004906767576984488</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.005401403504158544</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.00574597664868806</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.006101148626962552</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.006464127657650568</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.006509686696383864</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.006561913546807545</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.006660146765441217</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.006681778401502602</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.006681778401502602</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.006689244396857585</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.00678167706203391</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.006933388167634593</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.006996365909579434</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.007158523845221375</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.007535120855682568</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.007839552245307541</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.008096445287681584</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.008607498445971008</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.009314808783095655</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.009565114978281735</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.009701780330716725</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.009854456689876277</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.009873753205588269</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.009893443187593644</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.009893443187593644</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.009963074976782815</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.01006633681438637</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.01019442031608248</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.01045400887077562</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.01059669305919348</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.01096212889229987</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.01111335526830308</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.01115008000498159</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.01140842083757316</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.01158186869310078</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.01162273241553089</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.01172306863244173</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.01183340199676363</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.01183340199676363</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.01184778969305191</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.01185073970242847</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.174186977945856</v>
+        <v>0.3756935526450482</v>
       </c>
       <c r="CO4">
-        <v>0.2097391549036559</v>
+        <v>0.3913651914641717</v>
       </c>
       <c r="CP4">
-        <v>0.3843264410629106</v>
+        <v>0.8018473892457141</v>
       </c>
       <c r="CQ4">
-        <v>0.3952121469058948</v>
+        <v>0.8018473892457141</v>
       </c>
       <c r="CR4">
-        <v>0.3959218382638812</v>
+        <v>0.8018473892457141</v>
       </c>
       <c r="CS4">
-        <v>0.4032656842776748</v>
+        <v>0.8018473892457141</v>
       </c>
       <c r="CT4">
-        <v>0.4873050951115629</v>
+        <v>0.9552056312480832</v>
       </c>
       <c r="CU4">
-        <v>0.5109925268468093</v>
+        <v>0.9552056312480832</v>
       </c>
       <c r="CV4">
-        <v>0.5358361720507654</v>
+        <v>0.9552056312480832</v>
       </c>
       <c r="CW4">
-        <v>0.5405796030876325</v>
+        <v>0.9552056312480832</v>
       </c>
       <c r="CX4">
-        <v>0.54744602058831</v>
+        <v>0.9552056312480832</v>
       </c>
       <c r="CY4">
-        <v>0.5533437909823462</v>
+        <v>0.9552056312480832</v>
       </c>
       <c r="CZ4">
-        <v>0.5536175153607873</v>
+        <v>0.9552056312480832</v>
       </c>
       <c r="DA4">
-        <v>0.5645725390983031</v>
+        <v>0.9552056312480832</v>
       </c>
       <c r="DB4">
-        <v>0.5701494599143161</v>
+        <v>0.9552056312480832</v>
       </c>
       <c r="DC4">
-        <v>0.5719563765595708</v>
+        <v>0.9552056312480832</v>
       </c>
       <c r="DD4">
-        <v>0.5736473416153887</v>
+        <v>0.9552056312480832</v>
       </c>
       <c r="DE4">
-        <v>0.5736548551023883</v>
+        <v>0.9552056312480832</v>
       </c>
       <c r="DF4">
-        <v>0.5799338769203741</v>
+        <v>0.9552056312480832</v>
       </c>
       <c r="DG4">
-        <v>0.5985880394538501</v>
+        <v>0.9552056312480832</v>
       </c>
       <c r="DH4">
-        <v>0.5986456822663312</v>
+        <v>0.9552056312480832</v>
       </c>
       <c r="DI4">
-        <v>0.5990714585631042</v>
+        <v>0.9552056312480832</v>
       </c>
       <c r="DJ4">
-        <v>0.604835725045426</v>
+        <v>0.9552056312480832</v>
       </c>
       <c r="DK4">
-        <v>0.6172702084414303</v>
+        <v>0.9552056312480832</v>
       </c>
       <c r="DL4">
-        <v>0.6249602752337864</v>
+        <v>0.9552056312480832</v>
       </c>
       <c r="DM4">
-        <v>0.6341624379212147</v>
+        <v>0.9552056312480832</v>
       </c>
       <c r="DN4">
-        <v>0.6364134628263348</v>
+        <v>0.9552056312480832</v>
       </c>
       <c r="DO4">
-        <v>0.6385650177293788</v>
+        <v>0.9552056312480832</v>
       </c>
       <c r="DP4">
-        <v>0.6414736703367626</v>
+        <v>0.9552056312480832</v>
       </c>
       <c r="DQ4">
-        <v>0.6417227507893023</v>
+        <v>0.9552056312480832</v>
       </c>
       <c r="DR4">
-        <v>0.643088874918197</v>
+        <v>0.9552056312480832</v>
       </c>
       <c r="DS4">
-        <v>0.6431658154960648</v>
+        <v>0.9552056312480832</v>
       </c>
       <c r="DT4">
-        <v>0.6431953631055072</v>
+        <v>0.9552056312480832</v>
       </c>
       <c r="DU4">
-        <v>0.6432628914207817</v>
+        <v>0.9552056312480832</v>
       </c>
       <c r="DV4">
-        <v>0.653401916619572</v>
+        <v>0.9552056312480832</v>
       </c>
       <c r="DW4">
-        <v>0.6992098525598358</v>
+        <v>1</v>
       </c>
       <c r="DX4">
-        <v>0.7005987522107402</v>
+        <v>1</v>
       </c>
       <c r="DY4">
-        <v>0.7006969854293739</v>
+        <v>1</v>
       </c>
       <c r="DZ4">
-        <v>0.7058350146765311</v>
+        <v>1</v>
       </c>
       <c r="EA4">
-        <v>0.7091758750957116</v>
+        <v>1</v>
       </c>
       <c r="EB4">
-        <v>0.7295944992254382</v>
+        <v>1</v>
       </c>
       <c r="EC4">
-        <v>0.7296121865396216</v>
+        <v>1</v>
       </c>
       <c r="ED4">
-        <v>0.7319612065703012</v>
+        <v>1</v>
       </c>
       <c r="EE4">
-        <v>0.735203924866928</v>
+        <v>1</v>
       </c>
       <c r="EF4">
-        <v>0.7354363453330303</v>
+        <v>1</v>
       </c>
       <c r="EG4">
-        <v>0.7355701186798208</v>
+        <v>1</v>
       </c>
       <c r="EH4">
-        <v>0.7355831741257292</v>
+        <v>1</v>
       </c>
       <c r="EI4">
-        <v>0.7355922312313682</v>
+        <v>1</v>
       </c>
       <c r="EJ4">
-        <v>0.7437651055453754</v>
+        <v>1</v>
       </c>
       <c r="EK4">
-        <v>0.7554171413650836</v>
+        <v>1</v>
       </c>
       <c r="EL4">
-        <v>0.7562053421053293</v>
+        <v>1</v>
       </c>
       <c r="EM4">
-        <v>0.7589893596863995</v>
+        <v>1</v>
       </c>
       <c r="EN4">
-        <v>0.7608344936475729</v>
+        <v>1</v>
       </c>
       <c r="EO4">
-        <v>0.7721760834312879</v>
+        <v>1</v>
       </c>
       <c r="EP4">
-        <v>0.7939901646456892</v>
+        <v>1</v>
       </c>
       <c r="EQ4">
-        <v>0.8066848737762863</v>
+        <v>1</v>
       </c>
       <c r="ER4">
-        <v>0.8160900885786027</v>
+        <v>1</v>
       </c>
       <c r="ES4">
-        <v>0.8213514180632918</v>
+        <v>1</v>
       </c>
       <c r="ET4">
-        <v>0.8213588840586468</v>
+        <v>1</v>
       </c>
       <c r="EU4">
-        <v>0.8218237029272834</v>
+        <v>1</v>
       </c>
       <c r="EV4">
-        <v>0.8246124252132386</v>
+        <v>1</v>
       </c>
       <c r="EW4">
-        <v>0.8304232864382649</v>
+        <v>1</v>
       </c>
       <c r="EX4">
-        <v>0.8449856885078493</v>
+        <v>1</v>
       </c>
       <c r="EY4">
-        <v>0.861381790962204</v>
+        <v>1</v>
       </c>
       <c r="EZ4">
-        <v>0.874839248770142</v>
+        <v>1</v>
       </c>
       <c r="FA4">
-        <v>0.8794786461891247</v>
+        <v>1</v>
       </c>
       <c r="FB4">
-        <v>0.8833893754028043</v>
+        <v>1</v>
       </c>
       <c r="FC4">
-        <v>0.8855468588508301</v>
+        <v>1</v>
       </c>
       <c r="FD4">
-        <v>0.8858755999785035</v>
+        <v>1</v>
       </c>
       <c r="FE4">
-        <v>0.8868161127356451</v>
+        <v>1</v>
       </c>
       <c r="FF4">
-        <v>0.8871493031358928</v>
+        <v>1</v>
       </c>
       <c r="FG4">
-        <v>0.888808376152443</v>
+        <v>1</v>
       </c>
       <c r="FH4">
-        <v>0.891627536228793</v>
+        <v>1</v>
       </c>
       <c r="FI4">
-        <v>0.896471692950506</v>
+        <v>1</v>
       </c>
       <c r="FJ4">
-        <v>0.9114948685134249</v>
+        <v>1</v>
       </c>
       <c r="FK4">
-        <v>0.9410981762524585</v>
+        <v>1</v>
       </c>
       <c r="FL4">
-        <v>0.9527929633641729</v>
+        <v>1</v>
       </c>
       <c r="FM4">
-        <v>0.955420252309533</v>
+        <v>1</v>
       </c>
       <c r="FN4">
-        <v>0.9580580239029348</v>
+        <v>1</v>
       </c>
       <c r="FO4">
-        <v>0.9591932892525803</v>
+        <v>1</v>
       </c>
       <c r="FP4">
-        <v>0.96582908208775</v>
+        <v>1</v>
       </c>
       <c r="FQ4">
-        <v>0.9691935956050003</v>
+        <v>1</v>
       </c>
       <c r="FR4">
-        <v>0.9754241806116825</v>
+        <v>1</v>
       </c>
       <c r="FS4">
-        <v>0.9815464678860407</v>
+        <v>1</v>
       </c>
       <c r="FT4">
-        <v>0.9815757831961734</v>
+        <v>1</v>
       </c>
       <c r="FU4">
-        <v>0.9820100899047507</v>
+        <v>1</v>
       </c>
       <c r="FV4">
-        <v>0.9839513730176511</v>
+        <v>1</v>
       </c>
       <c r="FW4">
-        <v>0.9844523118514978</v>
+        <v>1</v>
       </c>
       <c r="FX4">
-        <v>0.9850153957073419</v>
+        <v>1</v>
       </c>
       <c r="FY4">
-        <v>0.9867063607631598</v>
+        <v>1</v>
       </c>
       <c r="FZ4">
-        <v>0.9890590961729058</v>
+        <v>1</v>
       </c>
       <c r="GA4">
-        <v>0.9890614145498169</v>
+        <v>1</v>
       </c>
       <c r="GB4">
-        <v>0.991653478589457</v>
+        <v>1</v>
       </c>
       <c r="GC4">
-        <v>0.9935661719886133</v>
+        <v>1</v>
       </c>
       <c r="GD4">
-        <v>0.9939153073971395</v>
+        <v>1</v>
       </c>
       <c r="GE4">
-        <v>0.9942269813126428</v>
+        <v>1</v>
       </c>
       <c r="GF4">
-        <v>0.9942369165120358</v>
+        <v>1</v>
       </c>
       <c r="GG4">
-        <v>0.9942450178638469</v>
+        <v>1</v>
       </c>
       <c r="GH4">
-        <v>0.994269371708003</v>
+        <v>1</v>
       </c>
       <c r="GI4">
-        <v>0.9961764818248722</v>
+        <v>1</v>
       </c>
       <c r="GJ4">
-        <v>0.9962113721331903</v>
+        <v>1</v>
       </c>
       <c r="GK4">
-        <v>0.9964728419189652</v>
+        <v>1</v>
       </c>
       <c r="GL4">
-        <v>0.9974133546761068</v>
+        <v>1</v>
       </c>
       <c r="GM4">
-        <v>0.9977035508287578</v>
+        <v>1</v>
       </c>
       <c r="GN4">
-        <v>0.9983084849391067</v>
+        <v>1</v>
       </c>
       <c r="GO4">
-        <v>0.998417856310239</v>
+        <v>1</v>
       </c>
       <c r="GP4">
-        <v>0.999251271944021</v>
+        <v>1</v>
       </c>
       <c r="GQ4">
-        <v>0.999304681849885</v>
+        <v>1</v>
       </c>
       <c r="GR4">
-        <v>0.9997503111020678</v>
+        <v>1</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8967,769 +8967,769 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.391130173525686E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>3.391130173525686E-05</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>3.391130173525686E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>4.068316575668156E-05</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>4.068316575668156E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>6.533125493807544E-05</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0001573097337346512</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0002447837155663919</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0002777429260957163</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0002872460136769101</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0002960980661795589</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0002960980661795589</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0003396584419721038</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0003861927926905616</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0004923048725570764</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0006547064418171068</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.001088441412639786</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.001158142847841361</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.001425195428134842</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.001840409203192162</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.002189652468288996</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.002305655073261256</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.002366738258493895</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.002390531672019528</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.002390531672019528</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.002390531672019528</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.002390531672019528</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.002497520919929838</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.002514052039129341</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.002535998785991231</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.002651023004667149</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.002862671855532704</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.003217674936468254</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.003409832356068395</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.003424705910085705</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.003480124568604348</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.003601183785230306</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.003601183785230306</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.003601183785230306</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.003638205956169349</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.003652651686619443</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.003959483711878002</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.004113183779757911</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.004184920807657135</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.004189738011475514</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.004251997169134138</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.00451668659998779</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.00451668659998779</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.004632689204960051</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.004636209777498323</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.004733404771934416</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.005144049368996973</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.005252597404063025</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.005252597404063025</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.005306210571976268</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.005313376285883014</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.005353200693567885</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.005353200693567885</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.005353200693567885</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.005365745764594817</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.005457724243391393</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.005457724243391393</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.005457724243391393</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.005563803002241251</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.005741536570213854</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.005821630977485696</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.005997074813338538</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.006289171752873672</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.006750149993331356</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.007179153913149603</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.00738749306952008</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.00738749306952008</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.00738749306952008</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.00738749306952008</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.007440425981800215</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.007822516775476303</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.008064217000694483</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.008391159616968936</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.008488354611405029</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.008781957523342099</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.009566796034647225</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.009940133554849673</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.009947554505979509</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.009947554505979509</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.009964408857888673</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.009964408857888673</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.009964408857888673</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.01007790216052039</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.01007790216052039</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.09663428914279742</v>
+        <v>0.203739156136354</v>
       </c>
       <c r="CO5">
-        <v>0.1002329426411463</v>
+        <v>0.203739156136354</v>
       </c>
       <c r="CP5">
-        <v>0.2762116054151058</v>
+        <v>0.7299714080411017</v>
       </c>
       <c r="CQ5">
-        <v>0.3309144659573957</v>
+        <v>0.8188337925696443</v>
       </c>
       <c r="CR5">
-        <v>0.3310042109275234</v>
+        <v>0.8188337925696443</v>
       </c>
       <c r="CS5">
-        <v>0.3461136541435522</v>
+        <v>0.8188337925696443</v>
       </c>
       <c r="CT5">
-        <v>0.3717532714930183</v>
+        <v>0.8188337925696443</v>
       </c>
       <c r="CU5">
-        <v>0.4302029588483443</v>
+        <v>0.9212087584717467</v>
       </c>
       <c r="CV5">
-        <v>0.4578735250469463</v>
+        <v>0.9212087584717467</v>
       </c>
       <c r="CW5">
-        <v>0.4645899028394503</v>
+        <v>0.9212087584717467</v>
       </c>
       <c r="CX5">
-        <v>0.4684887996914412</v>
+        <v>0.9212087584717467</v>
       </c>
       <c r="CY5">
-        <v>0.4741398784347142</v>
+        <v>0.9212087584717467</v>
       </c>
       <c r="CZ5">
-        <v>0.4783058089076249</v>
+        <v>0.9212087584717467</v>
       </c>
       <c r="DA5">
-        <v>0.4861182276856417</v>
+        <v>0.9212087584717467</v>
       </c>
       <c r="DB5">
-        <v>0.4880066849166122</v>
+        <v>0.9212087584717467</v>
       </c>
       <c r="DC5">
-        <v>0.4950048767414052</v>
+        <v>0.9212087584717467</v>
       </c>
       <c r="DD5">
-        <v>0.4974912657609317</v>
+        <v>0.9212087584717467</v>
       </c>
       <c r="DE5">
-        <v>0.4978662370897027</v>
+        <v>0.9212087584717467</v>
       </c>
       <c r="DF5">
-        <v>0.499722412555607</v>
+        <v>0.9212087584717467</v>
       </c>
       <c r="DG5">
-        <v>0.5247639349000799</v>
+        <v>0.9212087584717467</v>
       </c>
       <c r="DH5">
-        <v>0.5275798015628562</v>
+        <v>0.9212087584717467</v>
       </c>
       <c r="DI5">
-        <v>0.5277575351308288</v>
+        <v>0.9212087584717467</v>
       </c>
       <c r="DJ5">
-        <v>0.5350483054528236</v>
+        <v>0.9212087584717467</v>
       </c>
       <c r="DK5">
-        <v>0.5387726384150936</v>
+        <v>0.9212087584717467</v>
       </c>
       <c r="DL5">
-        <v>0.5524424204183704</v>
+        <v>0.9212087584717467</v>
       </c>
       <c r="DM5">
-        <v>0.5565853478002177</v>
+        <v>0.9212087584717467</v>
       </c>
       <c r="DN5">
-        <v>0.5597776302662587</v>
+        <v>0.9212087584717467</v>
       </c>
       <c r="DO5">
-        <v>0.5635428219772753</v>
+        <v>0.9212087584717467</v>
       </c>
       <c r="DP5">
-        <v>0.5675199136388238</v>
+        <v>0.9212087584717467</v>
       </c>
       <c r="DQ5">
-        <v>0.5678135165507608</v>
+        <v>0.9212087584717467</v>
       </c>
       <c r="DR5">
-        <v>0.5687510366603794</v>
+        <v>0.9212087584717467</v>
       </c>
       <c r="DS5">
-        <v>0.5687510366603794</v>
+        <v>0.9212087584717467</v>
       </c>
       <c r="DT5">
-        <v>0.5688277062193479</v>
+        <v>0.9212087584717467</v>
       </c>
       <c r="DU5">
-        <v>0.5690737966860145</v>
+        <v>0.9212087584717467</v>
       </c>
       <c r="DV5">
-        <v>0.5769324759951148</v>
+        <v>0.9212087584717467</v>
       </c>
       <c r="DW5">
-        <v>0.6255974522229721</v>
+        <v>0.9882960764722475</v>
       </c>
       <c r="DX5">
-        <v>0.6378539302625013</v>
+        <v>0.9882960764722475</v>
       </c>
       <c r="DY5">
-        <v>0.6383461978559428</v>
+        <v>0.9882960764722475</v>
       </c>
       <c r="DZ5">
-        <v>0.6455307855590949</v>
+        <v>0.9882960764722475</v>
       </c>
       <c r="EA5">
-        <v>0.6455433463001029</v>
+        <v>0.9882960764722475</v>
       </c>
       <c r="EB5">
-        <v>0.6710552187157203</v>
+        <v>0.9882960764722475</v>
       </c>
       <c r="EC5">
-        <v>0.6737734238005997</v>
+        <v>0.9882960764722475</v>
       </c>
       <c r="ED5">
-        <v>0.6741467613208021</v>
+        <v>0.9882960764722475</v>
       </c>
       <c r="EE5">
-        <v>0.6814706431248382</v>
+        <v>0.9882960764722475</v>
       </c>
       <c r="EF5">
-        <v>0.683216141003246</v>
+        <v>0.9882960764722475</v>
       </c>
       <c r="EG5">
-        <v>0.6837837923038792</v>
+        <v>0.9882960764722475</v>
       </c>
       <c r="EH5">
-        <v>0.6839064981517902</v>
+        <v>0.9882960764722475</v>
       </c>
       <c r="EI5">
-        <v>0.6841206452868842</v>
+        <v>0.9882960764722475</v>
       </c>
       <c r="EJ5">
-        <v>0.6870628785668136</v>
+        <v>0.9882960764722475</v>
       </c>
       <c r="EK5">
-        <v>0.7033466259523662</v>
+        <v>0.9882960764722475</v>
       </c>
       <c r="EL5">
-        <v>0.7045883899828438</v>
+        <v>0.9882960764722475</v>
       </c>
       <c r="EM5">
-        <v>0.7069477400698432</v>
+        <v>0.9882960764722475</v>
       </c>
       <c r="EN5">
-        <v>0.7104967230366888</v>
+        <v>0.9882960764722475</v>
       </c>
       <c r="EO5">
-        <v>0.7190673398132752</v>
+        <v>0.9882960764722475</v>
       </c>
       <c r="EP5">
-        <v>0.7476560305538208</v>
+        <v>0.9882960764722475</v>
       </c>
       <c r="EQ5">
-        <v>0.7694944273076442</v>
+        <v>0.9882960764722475</v>
       </c>
       <c r="ER5">
-        <v>0.7773408478391788</v>
+        <v>0.9882960764722475</v>
       </c>
       <c r="ES5">
-        <v>0.7844575841233393</v>
+        <v>0.9882960764722475</v>
       </c>
       <c r="ET5">
-        <v>0.7850145451483493</v>
+        <v>0.9882960764722475</v>
       </c>
       <c r="EU5">
-        <v>0.7858461428630716</v>
+        <v>0.9882960764722475</v>
       </c>
       <c r="EV5">
-        <v>0.787563923622846</v>
+        <v>0.9882960764722475</v>
       </c>
       <c r="EW5">
-        <v>0.7936454501288193</v>
+        <v>0.9882960764722475</v>
       </c>
       <c r="EX5">
-        <v>0.8078213644997112</v>
+        <v>0.9882960764722475</v>
       </c>
       <c r="EY5">
-        <v>0.8274861113107688</v>
+        <v>0.9882960764722475</v>
       </c>
       <c r="EZ5">
-        <v>0.8452672000767023</v>
+        <v>0.9882960764722475</v>
       </c>
       <c r="FA5">
-        <v>0.8529045430588992</v>
+        <v>0.9882960764722475</v>
       </c>
       <c r="FB5">
-        <v>0.8570563858879972</v>
+        <v>0.9882960764722475</v>
       </c>
       <c r="FC5">
-        <v>0.8645517401942568</v>
+        <v>0.9882960764722475</v>
       </c>
       <c r="FD5">
-        <v>0.8645517401942568</v>
+        <v>0.9882960764722475</v>
       </c>
       <c r="FE5">
-        <v>0.8651524406880048</v>
+        <v>0.9882960764722475</v>
       </c>
       <c r="FF5">
-        <v>0.865288719396288</v>
+        <v>0.9882960764722475</v>
       </c>
       <c r="FG5">
-        <v>0.8654332028886057</v>
+        <v>0.9882960764722475</v>
       </c>
       <c r="FH5">
-        <v>0.8687533413719184</v>
+        <v>0.9882960764722475</v>
       </c>
       <c r="FI5">
-        <v>0.8754447979794528</v>
+        <v>0.9882960764722475</v>
       </c>
       <c r="FJ5">
-        <v>0.8859499004850744</v>
+        <v>0.9882960764722475</v>
       </c>
       <c r="FK5">
-        <v>0.9192579303478585</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL5">
-        <v>0.9449595669358434</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM5">
-        <v>0.9494422340440553</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN5">
-        <v>0.9529435292382928</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO5">
-        <v>0.9529435292382928</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP5">
-        <v>0.9601354128565526</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ5">
-        <v>0.9648586753299959</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR5">
-        <v>0.9720693427741066</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS5">
-        <v>0.9797721067742668</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT5">
-        <v>0.9802674889142948</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU5">
-        <v>0.9805199077073221</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV5">
-        <v>0.9819212062810078</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW5">
-        <v>0.9824729679100581</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX5">
-        <v>0.9830806166819379</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY5">
-        <v>0.9842806141474281</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ5">
-        <v>0.9867753031438681</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA5">
-        <v>0.9868167850956814</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB5">
-        <v>0.9886466243662987</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC5">
-        <v>0.9918638252101469</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD5">
-        <v>0.9925590534860923</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE5">
-        <v>0.9926174988470681</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF5">
-        <v>0.9926174988470681</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG5">
-        <v>0.9928934252684566</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH5">
-        <v>0.992968522285174</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI5">
-        <v>0.9943500184341122</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ5">
-        <v>0.9943511919783428</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK5">
-        <v>0.9943515042200094</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL5">
-        <v>0.996160040637623</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM5">
-        <v>0.9969284717864868</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN5">
-        <v>0.9977688455929021</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO5">
-        <v>0.9981054978828503</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP5">
-        <v>0.9986402940254381</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ5">
-        <v>0.9989162204468266</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR5">
-        <v>0.9994945871271345</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,598 +9737,598 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0001455691381178196</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0001455691381178196</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0001455691381178196</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0001455691381178196</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0001455691381178196</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0002700551412949384</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0004913680134809338</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.000498831162070016</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0005131127506445358</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0005131127506445358</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0005131127506445358</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0005131127506445358</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.000554825246500851</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0005570136324896677</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0005570136324896677</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0009037901572904611</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.001125103029476456</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.001125103029476456</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.001125103029476456</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.001125103029476456</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.001125103029476456</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.001125103029476456</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.001125103029476456</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.001125103029476456</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.001143576558753993</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.001143576558753993</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.001143576558753993</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.001167356375877862</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.001392534911640315</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.001392534911640315</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.001407813804532819</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.001592543584975241</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.00186309967608366</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.002154882232978427</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.002416718373776144</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.002416718373776144</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.002416718373776144</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.002416718373776144</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.002416718373776144</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.002416718373776144</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.002416718373776144</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.002615184694316069</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.002615184694316069</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.002615184694316069</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.002852164309585764</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.003200538921860288</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.003200538921860288</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.003200538921860288</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.003243198244959921</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.003243198244959921</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.003243198244959921</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.003374686734832147</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.003469957495686555</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.003469957495686555</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.003469957495686555</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.003469957495686555</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.003469957495686555</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.003469957495686555</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.003469957495686555</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.003469957495686555</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.003469957495686555</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.003469957495686555</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.003502798202441962</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.003744198769866068</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.004104084152238993</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.004398371040445803</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.00476692887128807</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.005069786999086011</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.00508651348563052</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.00508651348563052</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.00508651348563052</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.00508651348563052</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.00508651348563052</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.00508651348563052</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.00508651348563052</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.00508651348563052</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.005116771557416473</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.005184661470308391</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.005192967425055754</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.005200430573644836</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.005337432955399796</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.005730539334366195</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.005985441265997538</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.006035772910852549</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.006070008482382004</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.006100875152405713</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.006100875152405713</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.006100875152405713</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.006100875152405713</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.01935163274788208</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.1404077765146703</v>
+        <v>0.2721372609394344</v>
       </c>
       <c r="CO6">
-        <v>0.2719259104500031</v>
+        <v>0.5756953877694968</v>
       </c>
       <c r="CP6">
-        <v>0.378416407280121</v>
+        <v>0.8040871249955379</v>
       </c>
       <c r="CQ6">
-        <v>0.3799363820819654</v>
+        <v>0.8040871249955379</v>
       </c>
       <c r="CR6">
-        <v>0.3883459944060658</v>
+        <v>0.8040871249955379</v>
       </c>
       <c r="CS6">
-        <v>0.3892679106322537</v>
+        <v>0.8040871249955379</v>
       </c>
       <c r="CT6">
-        <v>0.4745001667956549</v>
+        <v>0.9686332345447441</v>
       </c>
       <c r="CU6">
-        <v>0.4945464275693863</v>
+        <v>0.9686332345447441</v>
       </c>
       <c r="CV6">
-        <v>0.5243426837840822</v>
+        <v>0.9686332345447441</v>
       </c>
       <c r="CW6">
-        <v>0.5243426837840822</v>
+        <v>0.9686332345447441</v>
       </c>
       <c r="CX6">
-        <v>0.5278293506689109</v>
+        <v>0.9686332345447441</v>
       </c>
       <c r="CY6">
-        <v>0.5391135880724505</v>
+        <v>0.9686332345447441</v>
       </c>
       <c r="CZ6">
-        <v>0.5394253810500306</v>
+        <v>0.9686332345447441</v>
       </c>
       <c r="DA6">
-        <v>0.5435454859064144</v>
+        <v>0.9686332345447441</v>
       </c>
       <c r="DB6">
-        <v>0.5490370628668624</v>
+        <v>0.9686332345447441</v>
       </c>
       <c r="DC6">
-        <v>0.5491625000888087</v>
+        <v>0.9686332345447441</v>
       </c>
       <c r="DD6">
-        <v>0.5515554981093705</v>
+        <v>0.9686332345447441</v>
       </c>
       <c r="DE6">
-        <v>0.5531014542379594</v>
+        <v>0.9686332345447441</v>
       </c>
       <c r="DF6">
-        <v>0.5662658485542928</v>
+        <v>0.9686332345447441</v>
       </c>
       <c r="DG6">
-        <v>0.5796519497166857</v>
+        <v>0.9686332345447441</v>
       </c>
       <c r="DH6">
-        <v>0.5796519497166857</v>
+        <v>0.9686332345447441</v>
       </c>
       <c r="DI6">
-        <v>0.5831904388484453</v>
+        <v>0.9686332345447441</v>
       </c>
       <c r="DJ6">
-        <v>0.583194834928872</v>
+        <v>0.9686332345447441</v>
       </c>
       <c r="DK6">
-        <v>0.5984189903960188</v>
+        <v>0.9686332345447441</v>
       </c>
       <c r="DL6">
-        <v>0.5984189903960188</v>
+        <v>0.9686332345447441</v>
       </c>
       <c r="DM6">
-        <v>0.6032876989012346</v>
+        <v>0.9686332345447441</v>
       </c>
       <c r="DN6">
-        <v>0.6067861783793158</v>
+        <v>0.9686332345447441</v>
       </c>
       <c r="DO6">
-        <v>0.6089564640879869</v>
+        <v>0.9686332345447441</v>
       </c>
       <c r="DP6">
-        <v>0.6099140348172627</v>
+        <v>0.9686332345447441</v>
       </c>
       <c r="DQ6">
-        <v>0.6102374043053703</v>
+        <v>0.9686332345447441</v>
       </c>
       <c r="DR6">
-        <v>0.6107410014040102</v>
+        <v>0.9686332345447441</v>
       </c>
       <c r="DS6">
-        <v>0.6108863854765029</v>
+        <v>0.9686332345447441</v>
       </c>
       <c r="DT6">
-        <v>0.6108863854765029</v>
+        <v>0.9686332345447441</v>
       </c>
       <c r="DU6">
-        <v>0.611137696586829</v>
+        <v>0.9686332345447441</v>
       </c>
       <c r="DV6">
-        <v>0.639519646100514</v>
+        <v>0.9686332345447441</v>
       </c>
       <c r="DW6">
-        <v>0.6784091924412433</v>
+        <v>0.9939966411007358</v>
       </c>
       <c r="DX6">
-        <v>0.6784091924412433</v>
+        <v>0.9939966411007358</v>
       </c>
       <c r="DY6">
-        <v>0.6811397921210848</v>
+        <v>0.9939966411007358</v>
       </c>
       <c r="DZ6">
-        <v>0.6844020572302055</v>
+        <v>0.9939966411007358</v>
       </c>
       <c r="EA6">
-        <v>0.693874968520809</v>
+        <v>0.9939966411007358</v>
       </c>
       <c r="EB6">
-        <v>0.7044380266923065</v>
+        <v>0.9939966411007358</v>
       </c>
       <c r="EC6">
-        <v>0.7044380266923065</v>
+        <v>0.9939966411007358</v>
       </c>
       <c r="ED6">
-        <v>0.7082058575059791</v>
+        <v>0.9939966411007358</v>
       </c>
       <c r="EE6">
-        <v>0.7094744804204983</v>
+        <v>0.9939966411007358</v>
       </c>
       <c r="EF6">
-        <v>0.7105891364378644</v>
+        <v>0.9939966411007358</v>
       </c>
       <c r="EG6">
-        <v>0.710986715377056</v>
+        <v>0.9939966411007358</v>
       </c>
       <c r="EH6">
-        <v>0.710986715377056</v>
+        <v>0.9939966411007358</v>
       </c>
       <c r="EI6">
-        <v>0.7113420463904769</v>
+        <v>0.9939966411007358</v>
       </c>
       <c r="EJ6">
-        <v>0.7260550058297131</v>
+        <v>0.9939966411007358</v>
       </c>
       <c r="EK6">
-        <v>0.7335663824819999</v>
+        <v>0.9939966411007358</v>
       </c>
       <c r="EL6">
-        <v>0.7335663824819999</v>
+        <v>0.9939966411007358</v>
       </c>
       <c r="EM6">
-        <v>0.7360695200733809</v>
+        <v>0.9939966411007358</v>
       </c>
       <c r="EN6">
-        <v>0.7393589860492275</v>
+        <v>0.9939966411007358</v>
       </c>
       <c r="EO6">
-        <v>0.7572547920020593</v>
+        <v>0.9939966411007358</v>
       </c>
       <c r="EP6">
-        <v>0.7860361431521461</v>
+        <v>0.9939966411007358</v>
       </c>
       <c r="EQ6">
-        <v>0.7982649916577559</v>
+        <v>0.9939966411007358</v>
       </c>
       <c r="ER6">
-        <v>0.808534265918502</v>
+        <v>0.9939966411007358</v>
       </c>
       <c r="ES6">
-        <v>0.8117353728653842</v>
+        <v>0.9939966411007358</v>
       </c>
       <c r="ET6">
-        <v>0.8118097634694579</v>
+        <v>0.9939966411007358</v>
       </c>
       <c r="EU6">
-        <v>0.8130419850158158</v>
+        <v>0.9939966411007358</v>
       </c>
       <c r="EV6">
-        <v>0.8169131188847609</v>
+        <v>0.9939966411007358</v>
       </c>
       <c r="EW6">
-        <v>0.8247563033370283</v>
+        <v>0.9939966411007358</v>
       </c>
       <c r="EX6">
-        <v>0.8410401951325761</v>
+        <v>0.9939966411007358</v>
       </c>
       <c r="EY6">
-        <v>0.8585574148740841</v>
+        <v>0.9939966411007358</v>
       </c>
       <c r="EZ6">
-        <v>0.8683749478461984</v>
+        <v>0.9939966411007358</v>
       </c>
       <c r="FA6">
-        <v>0.8726728306364306</v>
+        <v>0.9939966411007358</v>
       </c>
       <c r="FB6">
-        <v>0.8779197241040401</v>
+        <v>0.9939966411007358</v>
       </c>
       <c r="FC6">
-        <v>0.8782880315363942</v>
+        <v>0.9939966411007358</v>
       </c>
       <c r="FD6">
-        <v>0.8792483969471476</v>
+        <v>0.9939966411007358</v>
       </c>
       <c r="FE6">
-        <v>0.8794296901802832</v>
+        <v>0.9939966411007358</v>
       </c>
       <c r="FF6">
-        <v>0.8794296901802832</v>
+        <v>0.9939966411007358</v>
       </c>
       <c r="FG6">
-        <v>0.8807486489477785</v>
+        <v>0.9939966411007358</v>
       </c>
       <c r="FH6">
-        <v>0.8847472050287434</v>
+        <v>0.9939966411007358</v>
       </c>
       <c r="FI6">
-        <v>0.8885741695214157</v>
+        <v>0.9939966411007358</v>
       </c>
       <c r="FJ6">
-        <v>0.9090164358861338</v>
+        <v>0.9939966411007358</v>
       </c>
       <c r="FK6">
-        <v>0.9414597999684788</v>
+        <v>1</v>
       </c>
       <c r="FL6">
-        <v>0.9504634079426153</v>
+        <v>1</v>
       </c>
       <c r="FM6">
-        <v>0.9543027288237511</v>
+        <v>1</v>
       </c>
       <c r="FN6">
-        <v>0.9552940258603924</v>
+        <v>1</v>
       </c>
       <c r="FO6">
-        <v>0.9591033237844976</v>
+        <v>1</v>
       </c>
       <c r="FP6">
-        <v>0.9649395923240608</v>
+        <v>1</v>
       </c>
       <c r="FQ6">
-        <v>0.972138821558816</v>
+        <v>1</v>
       </c>
       <c r="FR6">
-        <v>0.9801295286751636</v>
+        <v>1</v>
       </c>
       <c r="FS6">
-        <v>0.9832246581173267</v>
+        <v>1</v>
       </c>
       <c r="FT6">
-        <v>0.983353022306552</v>
+        <v>1</v>
       </c>
       <c r="FU6">
-        <v>0.9839839286500484</v>
+        <v>1</v>
       </c>
       <c r="FV6">
-        <v>0.9854223272416274</v>
+        <v>1</v>
       </c>
       <c r="FW6">
-        <v>0.9855538157314996</v>
+        <v>1</v>
       </c>
       <c r="FX6">
-        <v>0.9863241343447838</v>
+        <v>1</v>
       </c>
       <c r="FY6">
-        <v>0.988625599822115</v>
+        <v>1</v>
       </c>
       <c r="FZ6">
-        <v>0.9896272000305633</v>
+        <v>1</v>
       </c>
       <c r="GA6">
-        <v>0.9900374390256097</v>
+        <v>1</v>
       </c>
       <c r="GB6">
-        <v>0.9925481322831086</v>
+        <v>1</v>
       </c>
       <c r="GC6">
-        <v>0.9941819517382632</v>
+        <v>1</v>
       </c>
       <c r="GD6">
-        <v>0.9946788054502346</v>
+        <v>1</v>
       </c>
       <c r="GE6">
-        <v>0.9949730923384413</v>
+        <v>1</v>
       </c>
       <c r="GF6">
-        <v>0.9949730923384413</v>
+        <v>1</v>
       </c>
       <c r="GG6">
-        <v>0.9949730923384413</v>
+        <v>1</v>
       </c>
       <c r="GH6">
-        <v>0.9954097348682547</v>
+        <v>1</v>
       </c>
       <c r="GI6">
-        <v>0.9958325220422323</v>
+        <v>1</v>
       </c>
       <c r="GJ6">
-        <v>0.9958325220422323</v>
+        <v>1</v>
       </c>
       <c r="GK6">
-        <v>0.9964909554480678</v>
+        <v>1</v>
       </c>
       <c r="GL6">
-        <v>0.997503667134002</v>
+        <v>1</v>
       </c>
       <c r="GM6">
-        <v>0.9979799082869746</v>
+        <v>1</v>
       </c>
       <c r="GN6">
-        <v>0.9984964804086336</v>
+        <v>1</v>
       </c>
       <c r="GO6">
-        <v>0.9984964804086336</v>
+        <v>1</v>
       </c>
       <c r="GP6">
-        <v>0.9990499239751272</v>
+        <v>1</v>
       </c>
       <c r="GQ6">
-        <v>0.9995900218371369</v>
+        <v>1</v>
       </c>
       <c r="GR6">
         <v>1</v>
@@ -10570,16 +10570,16 @@
         <v>90</v>
       </c>
       <c r="D2">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E2">
-        <v>0.01244675967353651</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5028355369844916</v>
+        <v>0.5371482003206139</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>22</v>
@@ -10611,16 +10611,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>0.01297375802564407</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5169658983882858</v>
+        <v>0.8069391772833298</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>22</v>
@@ -10652,16 +10652,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>0.01184778969305191</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5109925268468093</v>
+        <v>0.8018473892457141</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>22</v>
@@ -10693,16 +10693,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="E5">
-        <v>0.01007790216052039</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5247639349000799</v>
+        <v>0.7299714080411017</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>22</v>
@@ -10734,16 +10734,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E6">
-        <v>0.006100875152405713</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5243426837840822</v>
+        <v>0.5756953877694968</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <v>22</v>
@@ -10829,16 +10829,16 @@
         <v>90</v>
       </c>
       <c r="D2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="E2">
-        <v>0.01244675967353651</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7076044630920579</v>
+        <v>0.8929887088211033</v>
       </c>
       <c r="G2">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>22</v>
@@ -10870,16 +10870,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>0.01297375802564407</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7030214377777372</v>
+        <v>0.8069391772833298</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>22</v>
@@ -10911,16 +10911,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>0.01184778969305191</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7005987522107402</v>
+        <v>0.8018473892457141</v>
       </c>
       <c r="G4">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>22</v>
@@ -10952,16 +10952,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="E5">
-        <v>0.01007790216052039</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7033466259523662</v>
+        <v>0.7299714080411017</v>
       </c>
       <c r="G5">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>22</v>
@@ -10993,16 +10993,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>0.006100875152405713</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7044380266923065</v>
+        <v>0.8040871249955379</v>
       </c>
       <c r="G6">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>22</v>
@@ -11088,16 +11088,16 @@
         <v>90</v>
       </c>
       <c r="D2">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="E2">
-        <v>0.01244675967353651</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8061501802126211</v>
+        <v>0.8929887088211033</v>
       </c>
       <c r="G2">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>22</v>
@@ -11129,16 +11129,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>0.01297375802564407</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8103863954393871</v>
+        <v>0.8069391772833298</v>
       </c>
       <c r="G3">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>22</v>
@@ -11170,16 +11170,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>0.01184778969305191</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8066848737762863</v>
+        <v>0.8018473892457141</v>
       </c>
       <c r="G4">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>22</v>
@@ -11211,16 +11211,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="E5">
-        <v>0.01007790216052039</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8078213644997112</v>
+        <v>0.8188337925696443</v>
       </c>
       <c r="G5">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>22</v>
@@ -11252,16 +11252,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>0.006100875152405713</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.808534265918502</v>
+        <v>0.8040871249955379</v>
       </c>
       <c r="G6">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>22</v>
@@ -11347,16 +11347,16 @@
         <v>90</v>
       </c>
       <c r="D2">
-        <v>167</v>
+        <v>98</v>
       </c>
       <c r="E2">
-        <v>0.01244675967353651</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9164905182598806</v>
+        <v>0.9867821009755955</v>
       </c>
       <c r="G2">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="H2">
         <v>22</v>
@@ -11388,16 +11388,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="E3">
-        <v>0.01297375802564407</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.901394801588599</v>
+        <v>0.9038108730936589</v>
       </c>
       <c r="G3">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>22</v>
@@ -11429,16 +11429,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="E4">
-        <v>0.01184778969305191</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9114948685134249</v>
+        <v>0.9552056312480832</v>
       </c>
       <c r="G4">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>22</v>
@@ -11470,16 +11470,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="E5">
-        <v>0.01007790216052039</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9192579303478585</v>
+        <v>0.9212087584717467</v>
       </c>
       <c r="G5">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="H5">
         <v>22</v>
@@ -11511,16 +11511,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="E6">
-        <v>0.006100875152405713</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9090164358861338</v>
+        <v>0.9686332345447441</v>
       </c>
       <c r="G6">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <v>22</v>

--- a/on_trucks/Processed_Stand_Alone/22_245-70R19.xlsx
+++ b/on_trucks/Processed_Stand_Alone/22_245-70R19.xlsx
@@ -677,16 +677,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.01543885601956916</v>
+        <v>0.03646020042922023</v>
       </c>
       <c r="F2">
-        <v>0.2103552930336584</v>
+        <v>0.1874935731250425</v>
       </c>
       <c r="G2">
-        <v>0.3121440645153663</v>
+        <v>0.2663658411335913</v>
       </c>
       <c r="H2">
-        <v>0.334764777492482</v>
+        <v>0.2838937758016715</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -698,13 +698,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.114010652356054</v>
+        <v>0.1128397561067585</v>
       </c>
       <c r="M2">
-        <v>0.0005315266282485961</v>
+        <v>0.02490907487844918</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.01017883168603257</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -713,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.0003408374543019545</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.005539469710326634</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.006668552896578233</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.002591626713728028</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -734,10 +734,10 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.01759711984284027</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.01074089004420585</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.01275482995462161</v>
+        <v>0.03438045017725342</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -787,37 +787,37 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.361869347121051</v>
+        <v>0.2908232273162981</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.454269282917213</v>
+        <v>0.3586975870839298</v>
       </c>
       <c r="H3">
-        <v>0.01845251007500699</v>
+        <v>0.03855900497585855</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.01858736019769114</v>
       </c>
       <c r="K3">
-        <v>0.1304769781401594</v>
+        <v>0.1208489869191962</v>
       </c>
       <c r="L3">
-        <v>0.01924424653607777</v>
+        <v>0.03914059201849913</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.02201482564134247</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.01054747066721586</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.0125846300953745</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.01957770292497812</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.01510613236505256</v>
+        <v>0.03610085126994152</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -853,13 +853,13 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>0.00129372728321139</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>0.005792561281552891</v>
       </c>
       <c r="AC3">
-        <v>0.0005815028454392156</v>
+        <v>0.02543147232491038</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -897,37 +897,37 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3663591757023174</v>
+        <v>0.3115819456258839</v>
       </c>
       <c r="F4">
-        <v>0.04244386755416245</v>
+        <v>0.05839872578124777</v>
       </c>
       <c r="G4">
-        <v>0.3976588668508201</v>
+        <v>0.3360468485982868</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.009140668295738685</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.002067701341536079</v>
       </c>
       <c r="K4">
-        <v>0.1663218782675265</v>
+        <v>0.1552259915244661</v>
       </c>
       <c r="L4">
-        <v>0.0121311250383298</v>
+        <v>0.03470525542210808</v>
       </c>
       <c r="M4">
-        <v>0.01508508658684372</v>
+        <v>0.03701417222022348</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.0011142937367423</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.009279093643155368</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -954,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.02465399748063748</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -966,13 +966,13 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>0.01223352148028301</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>0.002759091809743823</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.005778693039947349</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -1007,52 +1007,52 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2072826715792052</v>
+        <v>0.184375685329555</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.4728480737086099</v>
+        <v>0.3879745534065988</v>
       </c>
       <c r="H5">
-        <v>0.1126843795609917</v>
+        <v>0.111850781774743</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.02170350158576591</v>
       </c>
       <c r="K5">
-        <v>0.02637264350467423</v>
+        <v>0.04567886471806309</v>
       </c>
       <c r="L5">
-        <v>0.1238116692715685</v>
+        <v>0.1203816505237333</v>
       </c>
       <c r="M5">
-        <v>0.03240413558033436</v>
+        <v>0.05030297971788403</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.002593960872364038</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.0001684614241921933</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.005089454327890633</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.003235602090665387</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0.02459642679461604</v>
+        <v>0.04431710709177726</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1073,13 +1073,13 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>0.003901752111189831</v>
       </c>
       <c r="AB5">
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>0.01842564502557766</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1114,34 +1114,34 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.0146589640158236</v>
       </c>
       <c r="E6">
-        <v>0.2670865716935281</v>
+        <v>0.2314252557623172</v>
       </c>
       <c r="F6">
-        <v>0.2942339672478891</v>
+        <v>0.2524613736564633</v>
       </c>
       <c r="G6">
-        <v>0.2292907630065879</v>
+        <v>0.2021378390062248</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.004924783326422265</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1741286132748554</v>
+        <v>0.1593934997664758</v>
       </c>
       <c r="L6">
-        <v>0.004980107786026347</v>
+        <v>0.0283228084378554</v>
       </c>
       <c r="M6">
-        <v>0.03027997699111303</v>
+        <v>0.04792730531266454</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.01070484535079365</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1171,10 +1171,10 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>0.01448531176682427</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>0.01493110183893391</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>0.01862691175920119</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1350,76 +1350,76 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.01543885601956916</v>
+        <v>0.03646020042922023</v>
       </c>
       <c r="F2">
-        <v>0.2257941490532276</v>
+        <v>0.2239537735542627</v>
       </c>
       <c r="G2">
-        <v>0.5379382135685939</v>
+        <v>0.490319614687854</v>
       </c>
       <c r="H2">
-        <v>0.872702991061076</v>
+        <v>0.7742133904895255</v>
       </c>
       <c r="I2">
-        <v>0.872702991061076</v>
+        <v>0.7742133904895255</v>
       </c>
       <c r="J2">
-        <v>0.872702991061076</v>
+        <v>0.7742133904895255</v>
       </c>
       <c r="K2">
-        <v>0.872702991061076</v>
+        <v>0.7742133904895255</v>
       </c>
       <c r="L2">
-        <v>0.98671364341713</v>
+        <v>0.887053146596284</v>
       </c>
       <c r="M2">
-        <v>0.9872451700453786</v>
+        <v>0.9119622214747332</v>
       </c>
       <c r="N2">
-        <v>0.9872451700453786</v>
+        <v>0.9221410531607658</v>
       </c>
       <c r="O2">
-        <v>0.9872451700453786</v>
+        <v>0.9221410531607658</v>
       </c>
       <c r="P2">
-        <v>0.9872451700453786</v>
+        <v>0.9221410531607658</v>
       </c>
       <c r="Q2">
-        <v>0.9872451700453786</v>
+        <v>0.9224818906150677</v>
       </c>
       <c r="R2">
-        <v>0.9872451700453786</v>
+        <v>0.9280213603253943</v>
       </c>
       <c r="S2">
-        <v>0.9872451700453786</v>
+        <v>0.9346899132219725</v>
       </c>
       <c r="T2">
-        <v>0.9872451700453786</v>
+        <v>0.9372815399357005</v>
       </c>
       <c r="U2">
-        <v>0.9872451700453786</v>
+        <v>0.9372815399357005</v>
       </c>
       <c r="V2">
-        <v>0.9872451700453786</v>
+        <v>0.9372815399357005</v>
       </c>
       <c r="W2">
-        <v>0.9872451700453786</v>
+        <v>0.9372815399357005</v>
       </c>
       <c r="X2">
-        <v>0.9872451700453786</v>
+        <v>0.9548786597785408</v>
       </c>
       <c r="Y2">
-        <v>0.9872451700453786</v>
+        <v>0.9656195498227467</v>
       </c>
       <c r="Z2">
-        <v>0.9872451700453786</v>
+        <v>0.9656195498227467</v>
       </c>
       <c r="AA2">
-        <v>0.9872451700453786</v>
+        <v>0.9656195498227467</v>
       </c>
       <c r="AB2">
-        <v>0.9872451700453786</v>
+        <v>0.9656195498227467</v>
       </c>
       <c r="AC2">
         <v>1</v>
@@ -1460,76 +1460,76 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.361869347121051</v>
+        <v>0.2908232273162981</v>
       </c>
       <c r="F3">
-        <v>0.361869347121051</v>
+        <v>0.2908232273162981</v>
       </c>
       <c r="G3">
-        <v>0.816138630038264</v>
+        <v>0.6495208144002278</v>
       </c>
       <c r="H3">
-        <v>0.8345911401132711</v>
+        <v>0.6880798193760863</v>
       </c>
       <c r="I3">
-        <v>0.8345911401132711</v>
+        <v>0.6880798193760863</v>
       </c>
       <c r="J3">
-        <v>0.8345911401132711</v>
+        <v>0.7066671795737774</v>
       </c>
       <c r="K3">
-        <v>0.9650681182534304</v>
+        <v>0.8275161664929737</v>
       </c>
       <c r="L3">
-        <v>0.9843123647895082</v>
+        <v>0.8666567585114728</v>
       </c>
       <c r="M3">
-        <v>0.9843123647895082</v>
+        <v>0.8886715841528153</v>
       </c>
       <c r="N3">
-        <v>0.9843123647895082</v>
+        <v>0.8992190548200312</v>
       </c>
       <c r="O3">
-        <v>0.9843123647895082</v>
+        <v>0.9118036849154056</v>
       </c>
       <c r="P3">
-        <v>0.9843123647895082</v>
+        <v>0.9118036849154056</v>
       </c>
       <c r="Q3">
-        <v>0.9843123647895082</v>
+        <v>0.9118036849154056</v>
       </c>
       <c r="R3">
-        <v>0.9843123647895082</v>
+        <v>0.9313813878403837</v>
       </c>
       <c r="S3">
-        <v>0.9843123647895082</v>
+        <v>0.9313813878403837</v>
       </c>
       <c r="T3">
-        <v>0.9843123647895082</v>
+        <v>0.9313813878403837</v>
       </c>
       <c r="U3">
-        <v>0.9843123647895082</v>
+        <v>0.9313813878403837</v>
       </c>
       <c r="V3">
-        <v>0.9843123647895082</v>
+        <v>0.9313813878403837</v>
       </c>
       <c r="W3">
-        <v>0.9843123647895082</v>
+        <v>0.9313813878403837</v>
       </c>
       <c r="X3">
-        <v>0.9994184971545608</v>
+        <v>0.9674822391103253</v>
       </c>
       <c r="Y3">
-        <v>0.9994184971545608</v>
+        <v>0.9674822391103253</v>
       </c>
       <c r="Z3">
-        <v>0.9994184971545608</v>
+        <v>0.9674822391103253</v>
       </c>
       <c r="AA3">
-        <v>0.9994184971545608</v>
+        <v>0.9687759663935367</v>
       </c>
       <c r="AB3">
-        <v>0.9994184971545608</v>
+        <v>0.9745685276750896</v>
       </c>
       <c r="AC3">
         <v>1</v>
@@ -1570,79 +1570,79 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3663591757023174</v>
+        <v>0.3115819456258839</v>
       </c>
       <c r="F4">
-        <v>0.4088030432564798</v>
+        <v>0.3699806714071317</v>
       </c>
       <c r="G4">
-        <v>0.8064619101073</v>
+        <v>0.7060275200054185</v>
       </c>
       <c r="H4">
-        <v>0.8064619101073</v>
+        <v>0.7151681883011571</v>
       </c>
       <c r="I4">
-        <v>0.8064619101073</v>
+        <v>0.7151681883011571</v>
       </c>
       <c r="J4">
-        <v>0.8064619101073</v>
+        <v>0.7172358896426932</v>
       </c>
       <c r="K4">
-        <v>0.9727837883748265</v>
+        <v>0.8724618811671594</v>
       </c>
       <c r="L4">
-        <v>0.9849149134131563</v>
+        <v>0.9071671365892675</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0.944181308809491</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0.944181308809491</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9452956025462333</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9452956025462333</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0.9452956025462333</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0.9545746961893887</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0.9545746961893887</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0.9545746961893887</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0.9545746961893887</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0.9545746961893887</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.9545746961893887</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.9792286936700262</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0.9792286936700262</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>0.9792286936700262</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>0.9792286936700262</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>0.9914622151503092</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0.9942213069600531</v>
       </c>
       <c r="AD4">
         <v>1</v>
@@ -1680,76 +1680,76 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2072826715792052</v>
+        <v>0.184375685329555</v>
       </c>
       <c r="F5">
-        <v>0.2072826715792052</v>
+        <v>0.184375685329555</v>
       </c>
       <c r="G5">
-        <v>0.6801307452878151</v>
+        <v>0.5723502387361536</v>
       </c>
       <c r="H5">
-        <v>0.7928151248488068</v>
+        <v>0.6842010205108966</v>
       </c>
       <c r="I5">
-        <v>0.7928151248488068</v>
+        <v>0.6842010205108966</v>
       </c>
       <c r="J5">
-        <v>0.7928151248488068</v>
+        <v>0.7059045220966625</v>
       </c>
       <c r="K5">
-        <v>0.8191877683534811</v>
+        <v>0.7515833868147256</v>
       </c>
       <c r="L5">
-        <v>0.9429994376250496</v>
+        <v>0.8719650373384589</v>
       </c>
       <c r="M5">
-        <v>0.975403573205384</v>
+        <v>0.9222680170563429</v>
       </c>
       <c r="N5">
-        <v>0.975403573205384</v>
+        <v>0.9248619779287069</v>
       </c>
       <c r="O5">
-        <v>0.975403573205384</v>
+        <v>0.9248619779287069</v>
       </c>
       <c r="P5">
-        <v>0.975403573205384</v>
+        <v>0.9250304393528992</v>
       </c>
       <c r="Q5">
-        <v>0.975403573205384</v>
+        <v>0.9250304393528992</v>
       </c>
       <c r="R5">
-        <v>0.975403573205384</v>
+        <v>0.9301198936807898</v>
       </c>
       <c r="S5">
-        <v>0.975403573205384</v>
+        <v>0.9301198936807898</v>
       </c>
       <c r="T5">
-        <v>0.975403573205384</v>
+        <v>0.9333554957714553</v>
       </c>
       <c r="U5">
-        <v>0.975403573205384</v>
+        <v>0.9333554957714553</v>
       </c>
       <c r="V5">
-        <v>0.975403573205384</v>
+        <v>0.9333554957714553</v>
       </c>
       <c r="W5">
-        <v>0.975403573205384</v>
+        <v>0.9333554957714553</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>0.9776726028632325</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>0.9776726028632325</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>0.9776726028632325</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>0.9815743549744224</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>0.9815743549744224</v>
       </c>
       <c r="AC5">
         <v>1</v>
@@ -1787,103 +1787,103 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.0146589640158236</v>
       </c>
       <c r="E6">
-        <v>0.2670865716935281</v>
+        <v>0.2460842197781408</v>
       </c>
       <c r="F6">
-        <v>0.5613205389414172</v>
+        <v>0.4985455934346041</v>
       </c>
       <c r="G6">
-        <v>0.7906113019480051</v>
+        <v>0.700683432440829</v>
       </c>
       <c r="H6">
-        <v>0.7906113019480051</v>
+        <v>0.700683432440829</v>
       </c>
       <c r="I6">
-        <v>0.7906113019480051</v>
+        <v>0.7056082157672512</v>
       </c>
       <c r="J6">
-        <v>0.7906113019480051</v>
+        <v>0.7056082157672512</v>
       </c>
       <c r="K6">
-        <v>0.9647399152228605</v>
+        <v>0.8650017155337271</v>
       </c>
       <c r="L6">
-        <v>0.9697200230088868</v>
+        <v>0.8933245239715825</v>
       </c>
       <c r="M6">
-        <v>0.9999999999999999</v>
+        <v>0.941251829284247</v>
       </c>
       <c r="N6">
-        <v>0.9999999999999999</v>
+        <v>0.941251829284247</v>
       </c>
       <c r="O6">
-        <v>0.9999999999999999</v>
+        <v>0.941251829284247</v>
       </c>
       <c r="P6">
-        <v>0.9999999999999999</v>
+        <v>0.9519566746350406</v>
       </c>
       <c r="Q6">
-        <v>0.9999999999999999</v>
+        <v>0.9519566746350406</v>
       </c>
       <c r="R6">
-        <v>0.9999999999999999</v>
+        <v>0.9519566746350406</v>
       </c>
       <c r="S6">
-        <v>0.9999999999999999</v>
+        <v>0.9519566746350406</v>
       </c>
       <c r="T6">
-        <v>0.9999999999999999</v>
+        <v>0.9519566746350406</v>
       </c>
       <c r="U6">
-        <v>0.9999999999999999</v>
+        <v>0.9519566746350406</v>
       </c>
       <c r="V6">
-        <v>0.9999999999999999</v>
+        <v>0.9519566746350406</v>
       </c>
       <c r="W6">
-        <v>0.9999999999999999</v>
+        <v>0.966441986401865</v>
       </c>
       <c r="X6">
-        <v>0.9999999999999999</v>
+        <v>0.9813730882407988</v>
       </c>
       <c r="Y6">
-        <v>0.9999999999999999</v>
+        <v>0.9813730882407988</v>
       </c>
       <c r="Z6">
-        <v>0.9999999999999999</v>
+        <v>0.9813730882407988</v>
       </c>
       <c r="AA6">
-        <v>0.9999999999999999</v>
+        <v>0.9813730882407988</v>
       </c>
       <c r="AB6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1951,16 +1951,16 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5379382135685939</v>
+        <v>0.7742133904895255</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>22</v>
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.816138630038264</v>
+        <v>0.6495208144002278</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8064619101073</v>
+        <v>0.7060275200054185</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6801307452878151</v>
+        <v>0.5723502387361536</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -2115,16 +2115,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5613205389414172</v>
+        <v>0.700683432440829</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>22</v>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.872702991061076</v>
+        <v>0.7742133904895255</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -2251,16 +2251,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.816138630038264</v>
+        <v>0.7066671795737774</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3">
         <v>22</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8064619101073</v>
+        <v>0.7060275200054185</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -2333,16 +2333,16 @@
         <v>2</v>
       </c>
       <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.7059045220966625</v>
+      </c>
+      <c r="G5">
         <v>7</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.7928151248488068</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
       </c>
       <c r="H5">
         <v>22</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7906113019480051</v>
+        <v>0.700683432440829</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -2469,16 +2469,16 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.872702991061076</v>
+        <v>0.887053146596284</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H2">
         <v>22</v>
@@ -2510,16 +2510,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.816138630038264</v>
+        <v>0.8275161664929737</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>22</v>
@@ -2551,16 +2551,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8064619101073</v>
+        <v>0.8724618811671594</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>22</v>
@@ -2592,16 +2592,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8191877683534811</v>
+        <v>0.8719650373384589</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H5">
         <v>22</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9647399152228605</v>
+        <v>0.8650017155337271</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -2728,16 +2728,16 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.98671364341713</v>
+        <v>0.9119622214747332</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2">
         <v>22</v>
@@ -2769,16 +2769,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9650681182534304</v>
+        <v>0.9118036849154056</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>22</v>
@@ -2810,16 +2810,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9727837883748265</v>
+        <v>0.9071671365892675</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4">
         <v>22</v>
@@ -2851,16 +2851,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9429994376250496</v>
+        <v>0.9222680170563429</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>22</v>
@@ -2892,16 +2892,16 @@
         <v>2</v>
       </c>
       <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.941251829284247</v>
+      </c>
+      <c r="G6">
         <v>10</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.9647399152228605</v>
-      </c>
-      <c r="G6">
-        <v>8</v>
       </c>
       <c r="H6">
         <v>22</v>
